--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.254285362831129</v>
+        <v>1.067986541064324</v>
       </c>
       <c r="D3">
-        <v>1.067986541064324</v>
+        <v>1.008288646879601</v>
       </c>
       <c r="E3">
         <v>1.085879739506408</v>
       </c>
       <c r="F3">
-        <v>1.254285362831129</v>
+        <v>1.067986541064324</v>
       </c>
       <c r="G3">
+        <v>1.254285362831159</v>
+      </c>
+      <c r="H3">
+        <v>1.25428536283113</v>
+      </c>
+      <c r="I3">
+        <v>1.25428536283113</v>
+      </c>
+      <c r="J3">
         <v>1.041360622779352</v>
       </c>
-      <c r="H3">
-        <v>1.013347149144054</v>
-      </c>
-      <c r="I3">
-        <v>1.254285362831159</v>
-      </c>
-      <c r="J3">
-        <v>1.067986541064324</v>
-      </c>
       <c r="K3">
-        <v>1.008288646879601</v>
+        <v>1.013347149144053</v>
       </c>
       <c r="L3">
         <v>1.039484170181245</v>
@@ -674,7 +686,7 @@
         <v>1.010837294718345</v>
       </c>
       <c r="N3">
-        <v>1.254285362831129</v>
+        <v>1.25428536283113</v>
       </c>
       <c r="O3">
         <v>1.085879739506408</v>
@@ -686,19 +698,19 @@
         <v>1.06362018114288</v>
       </c>
       <c r="R3">
-        <v>1.13605054780062</v>
+        <v>1.136050547800621</v>
       </c>
       <c r="S3">
         <v>1.065075634450028</v>
       </c>
       <c r="T3">
-        <v>1.13605054780062</v>
+        <v>1.136050547800621</v>
       </c>
       <c r="U3">
-        <v>1.112378066545303</v>
+        <v>1.112378066545304</v>
       </c>
       <c r="V3">
-        <v>1.140759525802468</v>
+        <v>1.140759525802469</v>
       </c>
       <c r="W3">
         <v>1.065183690888057</v>
@@ -712,31 +724,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.68617826696742</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="D4">
-        <v>1.123261660699216</v>
+        <v>1.014468768372825</v>
       </c>
       <c r="E4">
         <v>1.13647440188776</v>
       </c>
       <c r="F4">
+        <v>1.123261660699216</v>
+      </c>
+      <c r="G4">
+        <v>1.686178266967382</v>
+      </c>
+      <c r="H4">
         <v>1.68617826696742</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>1.68617826696742</v>
+      </c>
+      <c r="J4">
         <v>1.097755002170258</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1.065621598590228</v>
-      </c>
-      <c r="I4">
-        <v>1.686178266967382</v>
-      </c>
-      <c r="J4">
-        <v>1.123261660699216</v>
-      </c>
-      <c r="K4">
-        <v>1.014468768372825</v>
       </c>
       <c r="L4">
         <v>1.105001541460698</v>
@@ -783,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.998945314301973</v>
+        <v>0.8035036515406728</v>
       </c>
       <c r="D5">
-        <v>0.8035036515406726</v>
+        <v>1.17830050477431</v>
       </c>
       <c r="E5">
         <v>1.560750371328259</v>
       </c>
       <c r="F5">
+        <v>0.8035036515406728</v>
+      </c>
+      <c r="G5">
+        <v>2.998945314302207</v>
+      </c>
+      <c r="H5">
         <v>2.998945314301973</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>2.998945314301973</v>
+      </c>
+      <c r="J5">
         <v>1.482887112052193</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>1.416650773140346</v>
-      </c>
-      <c r="I5">
-        <v>2.998945314302207</v>
-      </c>
-      <c r="J5">
-        <v>0.8035036515406726</v>
-      </c>
-      <c r="K5">
-        <v>1.17830050477431</v>
       </c>
       <c r="L5">
         <v>1.323371493055217</v>
@@ -831,13 +843,13 @@
         <v>1.787733112390302</v>
       </c>
       <c r="S5">
-        <v>1.282380378307041</v>
+        <v>1.282380378307042</v>
       </c>
       <c r="T5">
         <v>1.787733112390302</v>
       </c>
       <c r="U5">
-        <v>1.711521612305774</v>
+        <v>1.711521612305775</v>
       </c>
       <c r="V5">
         <v>1.969006352705014</v>
@@ -854,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.150900724646554</v>
+        <v>0.6038765989628799</v>
       </c>
       <c r="D6">
-        <v>0.6038765989628799</v>
+        <v>0.9340581655110033</v>
       </c>
       <c r="E6">
         <v>1.474142240399877</v>
       </c>
       <c r="F6">
+        <v>0.6038765989628799</v>
+      </c>
+      <c r="G6">
         <v>5.150900724646554</v>
       </c>
-      <c r="G6">
-        <v>1.58638547199299</v>
-      </c>
       <c r="H6">
-        <v>0.9846245977449524</v>
+        <v>5.150900724646554</v>
       </c>
       <c r="I6">
         <v>5.150900724646554</v>
       </c>
       <c r="J6">
-        <v>0.6038765989628799</v>
+        <v>1.58638547199299</v>
       </c>
       <c r="K6">
-        <v>0.9340581655110032</v>
+        <v>0.9846245977449524</v>
       </c>
       <c r="L6">
         <v>1.395344457939217</v>
@@ -925,43 +937,43 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.020782392992909</v>
+      </c>
+      <c r="D7">
+        <v>1.002278159386117</v>
+      </c>
+      <c r="E7">
+        <v>1.050437533886248</v>
+      </c>
+      <c r="F7">
+        <v>1.020782392992909</v>
+      </c>
+      <c r="G7">
+        <v>1.014279524926922</v>
+      </c>
+      <c r="H7">
         <v>1.014279524926882</v>
       </c>
-      <c r="D7">
-        <v>1.020782392992908</v>
-      </c>
-      <c r="E7">
-        <v>1.05043753388625</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
         <v>1.014279524926882</v>
       </c>
-      <c r="G7">
-        <v>1.01630311102318</v>
-      </c>
-      <c r="H7">
-        <v>1.004794174419303</v>
-      </c>
-      <c r="I7">
-        <v>1.014279524926922</v>
-      </c>
       <c r="J7">
-        <v>1.020782392992908</v>
+        <v>1.016303111023182</v>
       </c>
       <c r="K7">
-        <v>1.002278159386116</v>
+        <v>1.004794174419302</v>
       </c>
       <c r="L7">
-        <v>1.034479510791541</v>
+        <v>1.034479510791538</v>
       </c>
       <c r="M7">
-        <v>1.005473826637682</v>
+        <v>1.005473826637683</v>
       </c>
       <c r="N7">
         <v>1.014279524926882</v>
       </c>
       <c r="O7">
-        <v>1.05043753388625</v>
+        <v>1.050437533886248</v>
       </c>
       <c r="P7">
         <v>1.035609963439579</v>
@@ -973,7 +985,7 @@
         <v>1.02849981726868</v>
       </c>
       <c r="S7">
-        <v>1.029174345967446</v>
+        <v>1.029174345967447</v>
       </c>
       <c r="T7">
         <v>1.02849981726868</v>
@@ -996,64 +1008,64 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.019969261478739</v>
+      </c>
+      <c r="D8">
+        <v>0.9993976192047401</v>
+      </c>
+      <c r="E8">
+        <v>1.063852672733402</v>
+      </c>
+      <c r="F8">
+        <v>1.019969261478739</v>
+      </c>
+      <c r="G8">
+        <v>1.03202564982733</v>
+      </c>
+      <c r="H8">
         <v>1.032025649827258</v>
       </c>
-      <c r="D8">
-        <v>1.019969261478738</v>
-      </c>
-      <c r="E8">
-        <v>1.0638526727334</v>
-      </c>
-      <c r="F8">
+      <c r="I8">
         <v>1.032025649827258</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>1.015863975491285</v>
       </c>
-      <c r="H8">
-        <v>1.004514262673153</v>
-      </c>
-      <c r="I8">
-        <v>1.032025649827329</v>
-      </c>
-      <c r="J8">
-        <v>1.019969261478738</v>
-      </c>
       <c r="K8">
-        <v>0.9993976192047413</v>
+        <v>1.004514262673151</v>
       </c>
       <c r="L8">
-        <v>1.051339339657861</v>
+        <v>1.051339339657863</v>
       </c>
       <c r="M8">
-        <v>1.002243141468686</v>
+        <v>1.002243141468685</v>
       </c>
       <c r="N8">
         <v>1.032025649827258</v>
       </c>
       <c r="O8">
-        <v>1.0638526727334</v>
+        <v>1.063852672733402</v>
       </c>
       <c r="P8">
-        <v>1.041910967106069</v>
+        <v>1.041910967106071</v>
       </c>
       <c r="Q8">
-        <v>1.039858324112342</v>
+        <v>1.039858324112344</v>
       </c>
       <c r="R8">
-        <v>1.038615861346465</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="S8">
-        <v>1.033228636567808</v>
+        <v>1.033228636567809</v>
       </c>
       <c r="T8">
-        <v>1.038615861346465</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="U8">
-        <v>1.03292788988267</v>
+        <v>1.032927889882671</v>
       </c>
       <c r="V8">
-        <v>1.032747441871587</v>
+        <v>1.032747441871588</v>
       </c>
       <c r="W8">
         <v>1.02365074031689</v>
@@ -1067,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.113666823939294</v>
+        <v>0.9805923771529353</v>
       </c>
       <c r="D9">
-        <v>0.9805923771529353</v>
+        <v>1.005974334142824</v>
       </c>
       <c r="E9">
         <v>1.051106368911599</v>
       </c>
       <c r="F9">
+        <v>0.9805923771529353</v>
+      </c>
+      <c r="G9">
+        <v>1.113666823939429</v>
+      </c>
+      <c r="H9">
         <v>1.113666823939294</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>1.113666823939294</v>
+      </c>
+      <c r="J9">
         <v>1.009211454323943</v>
       </c>
-      <c r="H9">
-        <v>0.9965616931948778</v>
-      </c>
-      <c r="I9">
-        <v>1.113666823939429</v>
-      </c>
-      <c r="J9">
-        <v>0.9805923771529353</v>
-      </c>
       <c r="K9">
-        <v>1.005974334142825</v>
+        <v>0.996561693194878</v>
       </c>
       <c r="L9">
-        <v>1.089732723722455</v>
+        <v>1.089732723722454</v>
       </c>
       <c r="M9">
         <v>0.9771410571568387</v>
@@ -1138,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.153043768776616</v>
+        <v>0.9961185075278891</v>
       </c>
       <c r="D10">
-        <v>0.9961185075278891</v>
+        <v>1.00255550765708</v>
       </c>
       <c r="E10">
         <v>1.113410716123466</v>
       </c>
       <c r="F10">
+        <v>0.9961185075278891</v>
+      </c>
+      <c r="G10">
+        <v>1.153043768776633</v>
+      </c>
+      <c r="H10">
         <v>1.153043768776616</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>1.153043768776616</v>
+      </c>
+      <c r="J10">
         <v>1.068277368362553</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>1.050634015553146</v>
-      </c>
-      <c r="I10">
-        <v>1.153043768776633</v>
-      </c>
-      <c r="J10">
-        <v>0.9961185075278891</v>
-      </c>
-      <c r="K10">
-        <v>1.00255550765708</v>
       </c>
       <c r="L10">
         <v>1.118393938755786</v>
@@ -1189,7 +1201,7 @@
         <v>1.059268864004636</v>
       </c>
       <c r="T10">
-        <v>1.087524330809324</v>
+        <v>1.087524330809323</v>
       </c>
       <c r="U10">
         <v>1.082712590197631</v>
@@ -1209,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.389559865665661</v>
+        <v>0.9093481934521538</v>
       </c>
       <c r="D11">
-        <v>0.9093481934521535</v>
+        <v>1.069314378052283</v>
       </c>
       <c r="E11">
         <v>1.182242960961421</v>
       </c>
       <c r="F11">
+        <v>0.9093481934521538</v>
+      </c>
+      <c r="G11">
+        <v>1.389559865665609</v>
+      </c>
+      <c r="H11">
         <v>1.389559865665661</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>1.389559865665661</v>
+      </c>
+      <c r="J11">
         <v>1.003357739975569</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>0.9358568324571206</v>
-      </c>
-      <c r="I11">
-        <v>1.389559865665609</v>
-      </c>
-      <c r="J11">
-        <v>0.9093481934521535</v>
-      </c>
-      <c r="K11">
-        <v>1.069314378052283</v>
       </c>
       <c r="L11">
         <v>1.196289329811647</v>
       </c>
       <c r="M11">
-        <v>0.9379495602588567</v>
+        <v>0.9379495602588569</v>
       </c>
       <c r="N11">
         <v>1.389559865665661</v>
@@ -1280,58 +1292,58 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="D12">
+        <v>0.8279155941611227</v>
+      </c>
+      <c r="E12">
+        <v>0.01382368003292261</v>
+      </c>
+      <c r="F12">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="G12">
         <v>1.085103281104211</v>
       </c>
-      <c r="D12">
-        <v>2.037685975882392</v>
-      </c>
-      <c r="E12">
-        <v>0.01382368003292265</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.085103281104211</v>
-      </c>
-      <c r="G12">
-        <v>1.110564842061192</v>
-      </c>
-      <c r="H12">
-        <v>0.7990587933215534</v>
       </c>
       <c r="I12">
         <v>1.085103281104211</v>
       </c>
       <c r="J12">
-        <v>2.037685975882392</v>
+        <v>1.110564842061191</v>
       </c>
       <c r="K12">
-        <v>0.8279155941611234</v>
+        <v>0.7990587933215533</v>
       </c>
       <c r="L12">
         <v>1.516354569817135</v>
       </c>
       <c r="M12">
-        <v>1.431046782716955</v>
+        <v>1.431046782716954</v>
       </c>
       <c r="N12">
         <v>1.085103281104211</v>
       </c>
       <c r="O12">
-        <v>0.01382368003292265</v>
+        <v>0.01382368003292261</v>
       </c>
       <c r="P12">
-        <v>1.025754827957657</v>
+        <v>1.025754827957658</v>
       </c>
       <c r="Q12">
-        <v>0.5621942610470572</v>
+        <v>0.5621942610470569</v>
       </c>
       <c r="R12">
-        <v>1.045537645673175</v>
+        <v>1.045537645673176</v>
       </c>
       <c r="S12">
         <v>1.054024832658836</v>
       </c>
       <c r="T12">
-        <v>1.045537645673175</v>
+        <v>1.045537645673176</v>
       </c>
       <c r="U12">
         <v>1.061794444770179</v>
@@ -1351,49 +1363,49 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.254952777915118</v>
+        <v>1.362785987662189</v>
       </c>
       <c r="D13">
-        <v>1.36278598766219</v>
+        <v>0.9470081478523769</v>
       </c>
       <c r="E13">
-        <v>1.32448785381083</v>
+        <v>1.324487853810829</v>
       </c>
       <c r="F13">
-        <v>1.254952777915118</v>
+        <v>1.362785987662189</v>
       </c>
       <c r="G13">
-        <v>0.9680895821962082</v>
+        <v>1.254952777912734</v>
       </c>
       <c r="H13">
-        <v>1.012327369603731</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="I13">
-        <v>1.254952777912733</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="J13">
-        <v>1.36278598766219</v>
+        <v>0.9680895821962077</v>
       </c>
       <c r="K13">
-        <v>0.9470081478523766</v>
+        <v>1.012327369603732</v>
       </c>
       <c r="L13">
-        <v>0.6714741746258702</v>
+        <v>0.6714741746258701</v>
       </c>
       <c r="M13">
-        <v>0.9906485925220473</v>
+        <v>0.9906485925220474</v>
       </c>
       <c r="N13">
-        <v>1.254952777915118</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="O13">
-        <v>1.32448785381083</v>
+        <v>1.324487853810829</v>
       </c>
       <c r="P13">
-        <v>1.34363692073651</v>
+        <v>1.343636920736509</v>
       </c>
       <c r="Q13">
-        <v>1.146288718003519</v>
+        <v>1.146288718003518</v>
       </c>
       <c r="R13">
         <v>1.314075539796046</v>
@@ -1405,7 +1417,7 @@
         <v>1.314075539796046</v>
       </c>
       <c r="U13">
-        <v>1.227579050396087</v>
+        <v>1.227579050396086</v>
       </c>
       <c r="V13">
         <v>1.233053795899893</v>
@@ -1422,64 +1434,64 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="D14">
+        <v>1.578791647621019</v>
+      </c>
+      <c r="E14">
+        <v>1.556078684055316</v>
+      </c>
+      <c r="F14">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="G14">
+        <v>-0.001183448875224</v>
+      </c>
+      <c r="H14">
         <v>-0.001183448874899454</v>
       </c>
-      <c r="D14">
-        <v>-0.0006555618276356262</v>
-      </c>
-      <c r="E14">
-        <v>1.556078684055315</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>-0.001183448874899454</v>
       </c>
-      <c r="G14">
-        <v>0.4919357254895745</v>
-      </c>
-      <c r="H14">
-        <v>1.336379049002234</v>
-      </c>
-      <c r="I14">
-        <v>-0.001183448875224</v>
-      </c>
       <c r="J14">
-        <v>-0.0006555618276356262</v>
+        <v>0.4919357254895746</v>
       </c>
       <c r="K14">
-        <v>1.57879164762102</v>
+        <v>1.336379049002233</v>
       </c>
       <c r="L14">
         <v>1.322722078494317</v>
       </c>
       <c r="M14">
-        <v>0.8095485781418045</v>
+        <v>0.8095485781418048</v>
       </c>
       <c r="N14">
         <v>-0.001183448874899454</v>
       </c>
       <c r="O14">
-        <v>1.556078684055315</v>
+        <v>1.556078684055316</v>
       </c>
       <c r="P14">
-        <v>0.7777115611138398</v>
+        <v>0.77771156111384</v>
       </c>
       <c r="Q14">
         <v>1.024007204772445</v>
       </c>
       <c r="R14">
-        <v>0.5180798911175933</v>
+        <v>0.5180798911175936</v>
       </c>
       <c r="S14">
-        <v>0.6824529492390847</v>
+        <v>0.6824529492390848</v>
       </c>
       <c r="T14">
-        <v>0.5180798911175933</v>
+        <v>0.5180798911175936</v>
       </c>
       <c r="U14">
-        <v>0.5115438497105886</v>
+        <v>0.5115438497105889</v>
       </c>
       <c r="V14">
-        <v>0.408998389993491</v>
+        <v>0.4089983899934911</v>
       </c>
       <c r="W14">
         <v>0.8867020940127162</v>
@@ -1493,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.543927036663438</v>
+        <v>2.547537330760673</v>
       </c>
       <c r="D15">
-        <v>2.547537330760674</v>
+        <v>0.6236616683374028</v>
       </c>
       <c r="E15">
         <v>0.7748454085804234</v>
       </c>
       <c r="F15">
+        <v>2.547537330760673</v>
+      </c>
+      <c r="G15">
+        <v>0.5439270366634615</v>
+      </c>
+      <c r="H15">
         <v>0.543927036663438</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="J15">
         <v>1.230134294454838</v>
       </c>
-      <c r="H15">
-        <v>0.9002960613236163</v>
-      </c>
-      <c r="I15">
-        <v>0.5439270366634615</v>
-      </c>
-      <c r="J15">
-        <v>2.547537330760674</v>
-      </c>
       <c r="K15">
-        <v>0.623661668337403</v>
+        <v>0.9002960613236162</v>
       </c>
       <c r="L15">
         <v>1.087444563150505</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9930317660700989</v>
+        <v>1.34482440269898</v>
       </c>
       <c r="D16">
-        <v>1.045754003228946</v>
+        <v>1.218526293307202</v>
       </c>
       <c r="E16">
-        <v>1.046599394072951</v>
+        <v>1.625339490413981</v>
       </c>
       <c r="F16">
-        <v>0.9930317660700989</v>
+        <v>1.34482440269898</v>
       </c>
       <c r="G16">
-        <v>1.005993945917118</v>
+        <v>5.05308010212925</v>
       </c>
       <c r="H16">
-        <v>1.005338521174965</v>
+        <v>5.053080102129252</v>
       </c>
       <c r="I16">
-        <v>0.9930317660701412</v>
+        <v>5.053080102129252</v>
       </c>
       <c r="J16">
-        <v>1.045754003228946</v>
+        <v>1.393425023741763</v>
       </c>
       <c r="K16">
-        <v>1.000022587912038</v>
+        <v>1.181669501410778</v>
       </c>
       <c r="L16">
-        <v>1.02597856356619</v>
+        <v>1.23746124904567</v>
       </c>
       <c r="M16">
-        <v>1.003412302893086</v>
+        <v>1.076545061048583</v>
       </c>
       <c r="N16">
-        <v>0.9930317660700989</v>
+        <v>5.053080102129252</v>
       </c>
       <c r="O16">
-        <v>1.046599394072951</v>
+        <v>1.625339490413981</v>
       </c>
       <c r="P16">
-        <v>1.046176698650949</v>
+        <v>1.485081946556481</v>
       </c>
       <c r="Q16">
-        <v>1.026296669995035</v>
+        <v>1.509382257077872</v>
       </c>
       <c r="R16">
-        <v>1.028461721123999</v>
+        <v>2.674414665080738</v>
       </c>
       <c r="S16">
-        <v>1.032782447739672</v>
+        <v>1.454529638951575</v>
       </c>
       <c r="T16">
-        <v>1.028461721123999</v>
+        <v>2.674414665080738</v>
       </c>
       <c r="U16">
-        <v>1.022844777322279</v>
+        <v>2.354167254745994</v>
       </c>
       <c r="V16">
-        <v>1.016882175071843</v>
+        <v>2.893949824222646</v>
       </c>
       <c r="W16">
-        <v>1.015766385604424</v>
+        <v>1.766358890474526</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.033128877047608</v>
+        <v>1.177702940637896</v>
       </c>
       <c r="D17">
-        <v>1.014218039658297</v>
+        <v>1.116759827488024</v>
       </c>
       <c r="E17">
-        <v>1.031854827926252</v>
+        <v>1.672998749951383</v>
       </c>
       <c r="F17">
-        <v>1.033128877047608</v>
+        <v>1.177702940637896</v>
       </c>
       <c r="G17">
-        <v>1.027444521228217</v>
+        <v>3.703039390073424</v>
       </c>
       <c r="H17">
-        <v>1.02467383962799</v>
+        <v>3.703039390073419</v>
       </c>
       <c r="I17">
-        <v>1.033128877047637</v>
+        <v>3.703039390073419</v>
       </c>
       <c r="J17">
-        <v>1.014218039658297</v>
+        <v>1.245193463500977</v>
       </c>
       <c r="K17">
-        <v>0.997781429942427</v>
+        <v>1.137966835646661</v>
       </c>
       <c r="L17">
-        <v>1.049431137428959</v>
+        <v>1.302125022791893</v>
       </c>
       <c r="M17">
-        <v>1.003691269610011</v>
+        <v>1.004748779130742</v>
       </c>
       <c r="N17">
-        <v>1.033128877047608</v>
+        <v>3.703039390073419</v>
       </c>
       <c r="O17">
-        <v>1.031854827926252</v>
+        <v>1.672998749951383</v>
       </c>
       <c r="P17">
-        <v>1.023036433792274</v>
+        <v>1.42535084529464</v>
       </c>
       <c r="Q17">
-        <v>1.029649674577235</v>
+        <v>1.45909610672618</v>
       </c>
       <c r="R17">
-        <v>1.026400581544052</v>
+        <v>2.184580360220899</v>
       </c>
       <c r="S17">
-        <v>1.024505796270922</v>
+        <v>1.365298384696752</v>
       </c>
       <c r="T17">
-        <v>1.026400581544052</v>
+        <v>2.184580360220899</v>
       </c>
       <c r="U17">
-        <v>1.026661566465094</v>
+        <v>1.949733636040919</v>
       </c>
       <c r="V17">
-        <v>1.027955028581597</v>
+        <v>2.300394786847419</v>
       </c>
       <c r="W17">
-        <v>1.02277799280872</v>
+        <v>1.545066876152625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.271016331724248</v>
+        <v>0.7869314386034592</v>
       </c>
       <c r="D18">
-        <v>0.9989045672067561</v>
+        <v>0.9059520550025647</v>
       </c>
       <c r="E18">
-        <v>1.156519600683584</v>
+        <v>1.843931364216369</v>
       </c>
       <c r="F18">
-        <v>1.271016331724248</v>
+        <v>0.7869314386034592</v>
       </c>
       <c r="G18">
-        <v>1.238808591886396</v>
+        <v>1.093917594875202</v>
       </c>
       <c r="H18">
-        <v>1.190281120582882</v>
+        <v>1.093917594874536</v>
       </c>
       <c r="I18">
-        <v>1.271016331724812</v>
+        <v>1.093917594874536</v>
       </c>
       <c r="J18">
-        <v>0.9989045672067561</v>
+        <v>0.9768152633901586</v>
       </c>
       <c r="K18">
-        <v>1.104982547315714</v>
+        <v>1.123388172047231</v>
       </c>
       <c r="L18">
-        <v>1.219612997708765</v>
+        <v>1.551373301275039</v>
       </c>
       <c r="M18">
-        <v>1.156144875420884</v>
+        <v>0.8731109918742147</v>
       </c>
       <c r="N18">
-        <v>1.271016331724248</v>
+        <v>1.093917594874536</v>
       </c>
       <c r="O18">
-        <v>1.156519600683584</v>
+        <v>1.843931364216369</v>
       </c>
       <c r="P18">
-        <v>1.07771208394517</v>
+        <v>1.315431401409914</v>
       </c>
       <c r="Q18">
-        <v>1.19766409628499</v>
+        <v>1.410373313803264</v>
       </c>
       <c r="R18">
-        <v>1.142146833204863</v>
+        <v>1.241593465898121</v>
       </c>
       <c r="S18">
-        <v>1.131410919925579</v>
+        <v>1.202559355403329</v>
       </c>
       <c r="T18">
-        <v>1.142146833204863</v>
+        <v>1.241593465898121</v>
       </c>
       <c r="U18">
-        <v>1.166312272875246</v>
+        <v>1.175398915271131</v>
       </c>
       <c r="V18">
-        <v>1.187253084645046</v>
+        <v>1.159102651191812</v>
       </c>
       <c r="W18">
-        <v>1.167033829066153</v>
+        <v>1.144427522660446</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.048693086548281</v>
+      </c>
+      <c r="D19">
+        <v>0.8937271874863622</v>
+      </c>
+      <c r="E19">
+        <v>2.300546514300744</v>
+      </c>
+      <c r="F19">
+        <v>1.048693086548281</v>
+      </c>
+      <c r="G19">
+        <v>0.8864499030743019</v>
+      </c>
+      <c r="H19">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="I19">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="J19">
+        <v>0.8921816448561936</v>
+      </c>
+      <c r="K19">
+        <v>1.067255756838956</v>
+      </c>
+      <c r="L19">
+        <v>1.687855496441495</v>
+      </c>
+      <c r="M19">
+        <v>0.877407048092683</v>
+      </c>
+      <c r="N19">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="O19">
+        <v>2.300546514300744</v>
+      </c>
+      <c r="P19">
+        <v>1.674619800424513</v>
+      </c>
+      <c r="Q19">
+        <v>1.596364079578469</v>
+      </c>
+      <c r="R19">
+        <v>1.411896501308189</v>
+      </c>
+      <c r="S19">
+        <v>1.41380708190174</v>
+      </c>
+      <c r="T19">
+        <v>1.411896501308189</v>
+      </c>
+      <c r="U19">
+        <v>1.28196778719519</v>
+      </c>
+      <c r="V19">
+        <v>1.20286421037126</v>
+      </c>
+      <c r="W19">
+        <v>1.206764579705032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.045754003228946</v>
+      </c>
+      <c r="D20">
+        <v>1.000022587912039</v>
+      </c>
+      <c r="E20">
+        <v>1.046599394072955</v>
+      </c>
+      <c r="F20">
+        <v>1.045754003228946</v>
+      </c>
+      <c r="G20">
+        <v>0.9930317660701422</v>
+      </c>
+      <c r="H20">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="I20">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="J20">
+        <v>1.005993945917117</v>
+      </c>
+      <c r="K20">
+        <v>1.005338521174965</v>
+      </c>
+      <c r="L20">
+        <v>1.025978563566189</v>
+      </c>
+      <c r="M20">
+        <v>1.003412302893085</v>
+      </c>
+      <c r="N20">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="O20">
+        <v>1.046599394072955</v>
+      </c>
+      <c r="P20">
+        <v>1.04617669865095</v>
+      </c>
+      <c r="Q20">
+        <v>1.026296669995036</v>
+      </c>
+      <c r="R20">
+        <v>1.028461721124</v>
+      </c>
+      <c r="S20">
+        <v>1.032782447739673</v>
+      </c>
+      <c r="T20">
+        <v>1.028461721124</v>
+      </c>
+      <c r="U20">
+        <v>1.022844777322279</v>
+      </c>
+      <c r="V20">
+        <v>1.016882175071844</v>
+      </c>
+      <c r="W20">
+        <v>1.015766385604424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.014218039658297</v>
+      </c>
+      <c r="D21">
+        <v>0.9977814299424265</v>
+      </c>
+      <c r="E21">
+        <v>1.031854827926251</v>
+      </c>
+      <c r="F21">
+        <v>1.014218039658297</v>
+      </c>
+      <c r="G21">
+        <v>1.03312887704764</v>
+      </c>
+      <c r="H21">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="I21">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="J21">
+        <v>1.027444521228218</v>
+      </c>
+      <c r="K21">
+        <v>1.024673839627991</v>
+      </c>
+      <c r="L21">
+        <v>1.049431137428959</v>
+      </c>
+      <c r="M21">
+        <v>1.003691269610012</v>
+      </c>
+      <c r="N21">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="O21">
+        <v>1.031854827926251</v>
+      </c>
+      <c r="P21">
+        <v>1.023036433792274</v>
+      </c>
+      <c r="Q21">
+        <v>1.029649674577235</v>
+      </c>
+      <c r="R21">
+        <v>1.026400581544053</v>
+      </c>
+      <c r="S21">
+        <v>1.024505796270922</v>
+      </c>
+      <c r="T21">
+        <v>1.026400581544053</v>
+      </c>
+      <c r="U21">
+        <v>1.026661566465094</v>
+      </c>
+      <c r="V21">
+        <v>1.027955028581597</v>
+      </c>
+      <c r="W21">
+        <v>1.022777992808721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9989045672067572</v>
+      </c>
+      <c r="D22">
+        <v>1.104982547315715</v>
+      </c>
+      <c r="E22">
+        <v>1.156519600683586</v>
+      </c>
+      <c r="F22">
+        <v>0.9989045672067572</v>
+      </c>
+      <c r="G22">
+        <v>1.271016331724817</v>
+      </c>
+      <c r="H22">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="I22">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="J22">
+        <v>1.238808591886396</v>
+      </c>
+      <c r="K22">
+        <v>1.190281120582882</v>
+      </c>
+      <c r="L22">
+        <v>1.219612997708766</v>
+      </c>
+      <c r="M22">
+        <v>1.156144875420884</v>
+      </c>
+      <c r="N22">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="O22">
+        <v>1.156519600683586</v>
+      </c>
+      <c r="P22">
+        <v>1.077712083945171</v>
+      </c>
+      <c r="Q22">
+        <v>1.197664096284991</v>
+      </c>
+      <c r="R22">
+        <v>1.142146833204865</v>
+      </c>
+      <c r="S22">
+        <v>1.13141091992558</v>
+      </c>
+      <c r="T22">
+        <v>1.142146833204865</v>
+      </c>
+      <c r="U22">
+        <v>1.166312272875248</v>
+      </c>
+      <c r="V22">
+        <v>1.187253084645049</v>
+      </c>
+      <c r="W22">
+        <v>1.167033829066155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9299301282365438</v>
+      </c>
+      <c r="D23">
+        <v>0.9584941489117551</v>
+      </c>
+      <c r="E23">
+        <v>1.141436932597613</v>
+      </c>
+      <c r="F23">
+        <v>0.9299301282365438</v>
+      </c>
+      <c r="G23">
+        <v>1.322858654503707</v>
+      </c>
+      <c r="H23">
         <v>1.322858654502681</v>
       </c>
-      <c r="D19">
-        <v>0.9299301282365438</v>
-      </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.322858654502681</v>
+      </c>
+      <c r="J23">
+        <v>0.9217167611628606</v>
+      </c>
+      <c r="K23">
+        <v>1.264343875698693</v>
+      </c>
+      <c r="L23">
+        <v>1.035113471014812</v>
+      </c>
+      <c r="M23">
+        <v>1.160800418935274</v>
+      </c>
+      <c r="N23">
+        <v>1.322858654502681</v>
+      </c>
+      <c r="O23">
         <v>1.141436932597613</v>
       </c>
-      <c r="F19">
-        <v>1.322858654502681</v>
-      </c>
-      <c r="G19">
-        <v>0.9217167611628606</v>
-      </c>
-      <c r="H19">
-        <v>1.264343875698693</v>
-      </c>
-      <c r="I19">
-        <v>1.322858654503707</v>
-      </c>
-      <c r="J19">
-        <v>0.9299301282365438</v>
-      </c>
-      <c r="K19">
-        <v>0.958494148911755</v>
-      </c>
-      <c r="L19">
-        <v>1.035113471014812</v>
-      </c>
-      <c r="M19">
-        <v>1.160800418935274</v>
-      </c>
-      <c r="N19">
-        <v>1.322858654502681</v>
-      </c>
-      <c r="O19">
-        <v>1.141436932597613</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.035683530417078</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.031576846880237</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.131408571778946</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9976946073323391</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.131408571778946</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.078985619124925</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.127760226200476</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.091836798882529</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.067986541064324</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="D3">
-        <v>1.008288646879601</v>
+        <v>0.8943613774597952</v>
       </c>
       <c r="E3">
-        <v>1.085879739506408</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="F3">
-        <v>1.067986541064324</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="G3">
-        <v>1.254285362831159</v>
+        <v>1.10721424757832</v>
       </c>
       <c r="H3">
-        <v>1.25428536283113</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="I3">
-        <v>1.25428536283113</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="J3">
-        <v>1.041360622779352</v>
+        <v>0.940886005301752</v>
       </c>
       <c r="K3">
-        <v>1.013347149144053</v>
+        <v>1.04531019748998</v>
       </c>
       <c r="L3">
-        <v>1.039484170181245</v>
+        <v>1.702349417201398</v>
       </c>
       <c r="M3">
-        <v>1.010837294718345</v>
+        <v>0.8484052992702666</v>
       </c>
       <c r="N3">
-        <v>1.25428536283113</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="O3">
-        <v>1.085879739506408</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="P3">
-        <v>1.076933140285366</v>
+        <v>1.590476226058864</v>
       </c>
       <c r="Q3">
-        <v>1.06362018114288</v>
+        <v>1.637283210425507</v>
       </c>
       <c r="R3">
-        <v>1.136050547800621</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="S3">
-        <v>1.065075634450028</v>
+        <v>1.37394615247316</v>
       </c>
       <c r="T3">
-        <v>1.136050547800621</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="U3">
-        <v>1.112378066545304</v>
+        <v>1.307263176249448</v>
       </c>
       <c r="V3">
-        <v>1.140759525802469</v>
+        <v>1.267253390515221</v>
       </c>
       <c r="W3">
-        <v>1.065183690888057</v>
+        <v>1.214934874552404</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.123261660699216</v>
+        <v>0.8461598360277551</v>
       </c>
       <c r="D4">
-        <v>1.014468768372825</v>
+        <v>0.904790149303183</v>
       </c>
       <c r="E4">
-        <v>1.13647440188776</v>
+        <v>2.02416939627724</v>
       </c>
       <c r="F4">
-        <v>1.123261660699216</v>
+        <v>0.8461598360277551</v>
       </c>
       <c r="G4">
-        <v>1.686178266967382</v>
+        <v>1.02961200552817</v>
       </c>
       <c r="H4">
-        <v>1.68617826696742</v>
+        <v>1.029612005528164</v>
       </c>
       <c r="I4">
-        <v>1.68617826696742</v>
+        <v>1.029612005528164</v>
       </c>
       <c r="J4">
-        <v>1.097755002170258</v>
+        <v>0.9458135888739937</v>
       </c>
       <c r="K4">
-        <v>1.065621598590228</v>
+        <v>1.049742599949773</v>
       </c>
       <c r="L4">
-        <v>1.105001541460698</v>
+        <v>1.546500410215117</v>
       </c>
       <c r="M4">
-        <v>1.097102645740636</v>
+        <v>0.8559923671033466</v>
       </c>
       <c r="N4">
-        <v>1.68617826696742</v>
+        <v>1.029612005528164</v>
       </c>
       <c r="O4">
-        <v>1.13647440188776</v>
+        <v>2.02416939627724</v>
       </c>
       <c r="P4">
-        <v>1.129868031293488</v>
+        <v>1.435164616152497</v>
       </c>
       <c r="Q4">
-        <v>1.11711470202901</v>
+        <v>1.484991492575617</v>
       </c>
       <c r="R4">
-        <v>1.315304776518132</v>
+        <v>1.299980412611053</v>
       </c>
       <c r="S4">
-        <v>1.119163688252411</v>
+        <v>1.272047607059663</v>
       </c>
       <c r="T4">
-        <v>1.315304776518132</v>
+        <v>1.299980412611053</v>
       </c>
       <c r="U4">
-        <v>1.260917332931164</v>
+        <v>1.211438706676788</v>
       </c>
       <c r="V4">
-        <v>1.345969519738415</v>
+        <v>1.175073366447063</v>
       </c>
       <c r="W4">
-        <v>1.16573298573613</v>
+        <v>1.150347544159821</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8035036515406728</v>
+        <v>0.5663464866731003</v>
       </c>
       <c r="D5">
-        <v>1.17830050477431</v>
+        <v>0.9408271996070831</v>
       </c>
       <c r="E5">
-        <v>1.560750371328259</v>
+        <v>3.776230102998801</v>
       </c>
       <c r="F5">
-        <v>0.8035036515406728</v>
+        <v>0.5663464866731003</v>
       </c>
       <c r="G5">
-        <v>2.998945314302207</v>
+        <v>1.718526591621439</v>
       </c>
       <c r="H5">
-        <v>2.998945314301973</v>
+        <v>1.71852659162156</v>
       </c>
       <c r="I5">
-        <v>2.998945314301973</v>
+        <v>1.71852659162156</v>
       </c>
       <c r="J5">
-        <v>1.482887112052193</v>
+        <v>1.158280566284235</v>
       </c>
       <c r="K5">
-        <v>1.416650773140346</v>
+        <v>1.299335939239196</v>
       </c>
       <c r="L5">
-        <v>1.323371493055217</v>
+        <v>2.545507399861131</v>
       </c>
       <c r="M5">
-        <v>1.297113880049342</v>
+        <v>0.889737009630243</v>
       </c>
       <c r="N5">
-        <v>2.998945314301973</v>
+        <v>1.71852659162156</v>
       </c>
       <c r="O5">
-        <v>1.560750371328259</v>
+        <v>3.776230102998801</v>
       </c>
       <c r="P5">
-        <v>1.182127011434466</v>
+        <v>2.17128829483595</v>
       </c>
       <c r="Q5">
-        <v>1.521818741690226</v>
+        <v>2.467255334641518</v>
       </c>
       <c r="R5">
-        <v>1.787733112390302</v>
+        <v>2.02036772709782</v>
       </c>
       <c r="S5">
-        <v>1.282380378307042</v>
+        <v>1.833619051985379</v>
       </c>
       <c r="T5">
-        <v>1.787733112390302</v>
+        <v>2.02036772709782</v>
       </c>
       <c r="U5">
-        <v>1.711521612305775</v>
+        <v>1.804845936894424</v>
       </c>
       <c r="V5">
-        <v>1.969006352705014</v>
+        <v>1.787582067839851</v>
       </c>
       <c r="W5">
-        <v>1.507690387530289</v>
+        <v>1.611848911989419</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6038765989628799</v>
+        <v>0.4190989849340912</v>
       </c>
       <c r="D6">
-        <v>0.9340581655110033</v>
+        <v>0.7888238382823296</v>
       </c>
       <c r="E6">
-        <v>1.474142240399877</v>
+        <v>4.903223939145803</v>
       </c>
       <c r="F6">
-        <v>0.6038765989628799</v>
+        <v>0.4190989849340912</v>
       </c>
       <c r="G6">
-        <v>5.150900724646554</v>
+        <v>2.003523049672171</v>
       </c>
       <c r="H6">
-        <v>5.150900724646554</v>
+        <v>2.003523049672183</v>
       </c>
       <c r="I6">
-        <v>5.150900724646554</v>
+        <v>2.003523049672183</v>
       </c>
       <c r="J6">
-        <v>1.58638547199299</v>
+        <v>1.079799955228295</v>
       </c>
       <c r="K6">
-        <v>0.9846245977449524</v>
+        <v>0.8875565822705733</v>
       </c>
       <c r="L6">
-        <v>1.395344457939217</v>
+        <v>3.123349238980593</v>
       </c>
       <c r="M6">
-        <v>0.6131593514598487</v>
+        <v>0.3974835828902842</v>
       </c>
       <c r="N6">
-        <v>5.150900724646554</v>
+        <v>2.003523049672183</v>
       </c>
       <c r="O6">
-        <v>1.474142240399877</v>
+        <v>4.903223939145803</v>
       </c>
       <c r="P6">
-        <v>1.039009419681378</v>
+        <v>2.661161462039947</v>
       </c>
       <c r="Q6">
-        <v>1.530263856196433</v>
+        <v>2.991511947187049</v>
       </c>
       <c r="R6">
-        <v>2.40963985466977</v>
+        <v>2.441948657917359</v>
       </c>
       <c r="S6">
-        <v>1.221468103785249</v>
+        <v>2.134040959769397</v>
       </c>
       <c r="T6">
-        <v>2.40963985466977</v>
+        <v>2.441948657917359</v>
       </c>
       <c r="U6">
-        <v>2.203826259000575</v>
+        <v>2.101411482245093</v>
       </c>
       <c r="V6">
-        <v>2.793241152129771</v>
+        <v>2.081833795730511</v>
       </c>
       <c r="W6">
-        <v>1.592811451082165</v>
+        <v>1.700357396425519</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.020782392992909</v>
+        <v>1.592761859707473</v>
       </c>
       <c r="D7">
-        <v>1.002278159386117</v>
+        <v>0.4410874774941041</v>
       </c>
       <c r="E7">
-        <v>1.050437533886248</v>
+        <v>2.999278167871235</v>
       </c>
       <c r="F7">
-        <v>1.020782392992909</v>
+        <v>1.592761859707473</v>
       </c>
       <c r="G7">
-        <v>1.014279524926922</v>
+        <v>3.206488687272774</v>
       </c>
       <c r="H7">
-        <v>1.014279524926882</v>
+        <v>3.206488687272774</v>
       </c>
       <c r="I7">
-        <v>1.014279524926882</v>
+        <v>3.206488687272774</v>
       </c>
       <c r="J7">
-        <v>1.016303111023182</v>
+        <v>1.104936816505122</v>
       </c>
       <c r="K7">
-        <v>1.004794174419302</v>
+        <v>2.10346496870334</v>
       </c>
       <c r="L7">
-        <v>1.034479510791538</v>
+        <v>2.15067374907543</v>
       </c>
       <c r="M7">
-        <v>1.005473826637683</v>
+        <v>1.004185725816471</v>
       </c>
       <c r="N7">
-        <v>1.014279524926882</v>
+        <v>3.206488687272774</v>
       </c>
       <c r="O7">
-        <v>1.050437533886248</v>
+        <v>2.999278167871235</v>
       </c>
       <c r="P7">
-        <v>1.035609963439579</v>
+        <v>2.296020013789354</v>
       </c>
       <c r="Q7">
-        <v>1.033370322454715</v>
+        <v>2.052107492188179</v>
       </c>
       <c r="R7">
-        <v>1.02849981726868</v>
+        <v>2.599509571617161</v>
       </c>
       <c r="S7">
-        <v>1.029174345967447</v>
+        <v>1.898992281361277</v>
       </c>
       <c r="T7">
-        <v>1.02849981726868</v>
+        <v>2.599509571617161</v>
       </c>
       <c r="U7">
-        <v>1.025450640707305</v>
+        <v>2.225866382839151</v>
       </c>
       <c r="V7">
-        <v>1.02321641755122</v>
+        <v>2.421990843725875</v>
       </c>
       <c r="W7">
-        <v>1.018603529257982</v>
+        <v>1.825359681555744</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.019969261478739</v>
+        <v>1.583365550411374</v>
       </c>
       <c r="D8">
-        <v>0.9993976192047401</v>
+        <v>0.4384645455545183</v>
       </c>
       <c r="E8">
-        <v>1.063852672733402</v>
+        <v>3.032117886040465</v>
       </c>
       <c r="F8">
-        <v>1.019969261478739</v>
+        <v>1.583365550411374</v>
       </c>
       <c r="G8">
-        <v>1.03202564982733</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="H8">
-        <v>1.032025649827258</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="I8">
-        <v>1.032025649827258</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="J8">
-        <v>1.015863975491285</v>
+        <v>1.097310259366113</v>
       </c>
       <c r="K8">
-        <v>1.004514262673151</v>
+        <v>2.10178377575004</v>
       </c>
       <c r="L8">
-        <v>1.051339339657863</v>
+        <v>2.188563281761665</v>
       </c>
       <c r="M8">
-        <v>1.002243141468685</v>
+        <v>0.997834488934809</v>
       </c>
       <c r="N8">
-        <v>1.032025649827258</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="O8">
-        <v>1.063852672733402</v>
+        <v>3.032117886040465</v>
       </c>
       <c r="P8">
-        <v>1.041910967106071</v>
+        <v>2.307741718225919</v>
       </c>
       <c r="Q8">
-        <v>1.039858324112344</v>
+        <v>2.064714072703289</v>
       </c>
       <c r="R8">
-        <v>1.038615861346466</v>
+        <v>2.622567748770785</v>
       </c>
       <c r="S8">
-        <v>1.033228636567809</v>
+        <v>1.90426456527265</v>
       </c>
       <c r="T8">
-        <v>1.038615861346466</v>
+        <v>2.622567748770785</v>
       </c>
       <c r="U8">
-        <v>1.032927889882671</v>
+        <v>2.241253376419616</v>
       </c>
       <c r="V8">
-        <v>1.032747441871588</v>
+        <v>2.443446663107796</v>
       </c>
       <c r="W8">
-        <v>1.02365074031689</v>
+        <v>1.836457449709938</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9805923771529353</v>
+        <v>1.576167576679527</v>
       </c>
       <c r="D9">
-        <v>1.005974334142824</v>
+        <v>0.4363626895832112</v>
       </c>
       <c r="E9">
-        <v>1.051106368911599</v>
+        <v>3.113671692140352</v>
       </c>
       <c r="F9">
-        <v>0.9805923771529353</v>
+        <v>1.576167576679527</v>
       </c>
       <c r="G9">
-        <v>1.113666823939429</v>
+        <v>3.240600330299421</v>
       </c>
       <c r="H9">
-        <v>1.113666823939294</v>
+        <v>3.240600330299421</v>
       </c>
       <c r="I9">
-        <v>1.113666823939294</v>
+        <v>3.240600330299421</v>
       </c>
       <c r="J9">
-        <v>1.009211454323943</v>
+        <v>1.089889581755415</v>
       </c>
       <c r="K9">
-        <v>0.996561693194878</v>
+        <v>2.09809407842348</v>
       </c>
       <c r="L9">
-        <v>1.089732723722454</v>
+        <v>2.23101655967783</v>
       </c>
       <c r="M9">
-        <v>0.9771410571568387</v>
+        <v>0.9921633491902261</v>
       </c>
       <c r="N9">
-        <v>1.113666823939294</v>
+        <v>3.240600330299421</v>
       </c>
       <c r="O9">
-        <v>1.051106368911599</v>
+        <v>3.113671692140352</v>
       </c>
       <c r="P9">
-        <v>1.015849373032267</v>
+        <v>2.34491963440994</v>
       </c>
       <c r="Q9">
-        <v>1.030158911617771</v>
+        <v>2.101780636947884</v>
       </c>
       <c r="R9">
-        <v>1.048455190001276</v>
+        <v>2.6434798663731</v>
       </c>
       <c r="S9">
-        <v>1.013636733462826</v>
+        <v>1.926576283525098</v>
       </c>
       <c r="T9">
-        <v>1.048455190001276</v>
+        <v>2.6434798663731</v>
       </c>
       <c r="U9">
-        <v>1.038644256081943</v>
+        <v>2.255082295218679</v>
       </c>
       <c r="V9">
-        <v>1.053648769653413</v>
+        <v>2.452185902234827</v>
       </c>
       <c r="W9">
-        <v>1.027998354068096</v>
+        <v>1.847245732218683</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9961185075278891</v>
+        <v>1.552341825665763</v>
       </c>
       <c r="D10">
-        <v>1.00255550765708</v>
+        <v>0.4289526336120975</v>
       </c>
       <c r="E10">
-        <v>1.113410716123466</v>
+        <v>3.251672843736043</v>
       </c>
       <c r="F10">
-        <v>0.9961185075278891</v>
+        <v>1.552341825665763</v>
       </c>
       <c r="G10">
-        <v>1.153043768776633</v>
+        <v>3.50588391780904</v>
       </c>
       <c r="H10">
-        <v>1.153043768776616</v>
+        <v>3.50588391780904</v>
       </c>
       <c r="I10">
-        <v>1.153043768776616</v>
+        <v>3.50588391780904</v>
       </c>
       <c r="J10">
-        <v>1.068277368362553</v>
+        <v>1.061807827147621</v>
       </c>
       <c r="K10">
-        <v>1.050634015553146</v>
+        <v>2.073138798087198</v>
       </c>
       <c r="L10">
-        <v>1.118393938755786</v>
+        <v>2.412846021817512</v>
       </c>
       <c r="M10">
-        <v>1.060080962243448</v>
+        <v>0.9739398891487311</v>
       </c>
       <c r="N10">
-        <v>1.153043768776616</v>
+        <v>3.50588391780904</v>
       </c>
       <c r="O10">
-        <v>1.113410716123466</v>
+        <v>3.251672843736043</v>
       </c>
       <c r="P10">
-        <v>1.054764611825677</v>
+        <v>2.402007334700903</v>
       </c>
       <c r="Q10">
-        <v>1.090844042243009</v>
+        <v>2.156740335441832</v>
       </c>
       <c r="R10">
-        <v>1.087524330809323</v>
+        <v>2.769966195736949</v>
       </c>
       <c r="S10">
-        <v>1.059268864004636</v>
+        <v>1.955274165516476</v>
       </c>
       <c r="T10">
-        <v>1.087524330809323</v>
+        <v>2.769966195736949</v>
       </c>
       <c r="U10">
-        <v>1.082712590197631</v>
+        <v>2.342926603589617</v>
       </c>
       <c r="V10">
-        <v>1.096778825913428</v>
+        <v>2.575518066433502</v>
       </c>
       <c r="W10">
-        <v>1.070314348124998</v>
+        <v>1.907572969628001</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9093481934521538</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="D11">
-        <v>1.069314378052283</v>
+        <v>1.013289896597877</v>
       </c>
       <c r="E11">
-        <v>1.182242960961421</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="F11">
-        <v>0.9093481934521538</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="G11">
-        <v>1.389559865665609</v>
+        <v>1.268812434201372</v>
       </c>
       <c r="H11">
-        <v>1.389559865665661</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="I11">
-        <v>1.389559865665661</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="J11">
-        <v>1.003357739975569</v>
+        <v>1.048719237962304</v>
       </c>
       <c r="K11">
-        <v>0.9358568324571206</v>
+        <v>1.016313834221601</v>
       </c>
       <c r="L11">
-        <v>1.196289329811647</v>
+        <v>1.037992632145066</v>
       </c>
       <c r="M11">
-        <v>0.9379495602588569</v>
+        <v>1.024315637186697</v>
       </c>
       <c r="N11">
-        <v>1.389559865665661</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="O11">
-        <v>1.182242960961421</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="P11">
-        <v>1.045795577206787</v>
+        <v>1.071759755197609</v>
       </c>
       <c r="Q11">
-        <v>1.092800350468495</v>
+        <v>1.061632199257782</v>
       </c>
       <c r="R11">
-        <v>1.160383673359745</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="S11">
-        <v>1.031649631463048</v>
+        <v>1.064079582785841</v>
       </c>
       <c r="T11">
-        <v>1.160383673359745</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="U11">
-        <v>1.121127190013701</v>
+        <v>1.115262795639709</v>
       </c>
       <c r="V11">
-        <v>1.174813725144093</v>
+        <v>1.14597272335203</v>
       </c>
       <c r="W11">
-        <v>1.077989857579339</v>
+        <v>1.06912039783876</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.037685975882393</v>
+        <v>1.038317072225779</v>
       </c>
       <c r="D12">
-        <v>0.8279155941611227</v>
+        <v>1.005680809893052</v>
       </c>
       <c r="E12">
-        <v>0.01382368003292261</v>
+        <v>1.070772631748524</v>
       </c>
       <c r="F12">
-        <v>2.037685975882393</v>
+        <v>1.038317072225779</v>
       </c>
       <c r="G12">
-        <v>1.085103281104211</v>
+        <v>1.12718242502714</v>
       </c>
       <c r="H12">
-        <v>1.085103281104211</v>
+        <v>1.127182425027083</v>
       </c>
       <c r="I12">
-        <v>1.085103281104211</v>
+        <v>1.127182425027083</v>
       </c>
       <c r="J12">
-        <v>1.110564842061191</v>
+        <v>1.030777015244207</v>
       </c>
       <c r="K12">
-        <v>0.7990587933215533</v>
+        <v>1.016744450736632</v>
       </c>
       <c r="L12">
-        <v>1.516354569817135</v>
+        <v>1.033309656031932</v>
       </c>
       <c r="M12">
-        <v>1.431046782716954</v>
+        <v>1.011154819079022</v>
       </c>
       <c r="N12">
-        <v>1.085103281104211</v>
+        <v>1.127182425027083</v>
       </c>
       <c r="O12">
-        <v>0.01382368003292261</v>
+        <v>1.070772631748524</v>
       </c>
       <c r="P12">
-        <v>1.025754827957658</v>
+        <v>1.054544851987152</v>
       </c>
       <c r="Q12">
-        <v>0.5621942610470569</v>
+        <v>1.050774823496366</v>
       </c>
       <c r="R12">
-        <v>1.045537645673176</v>
+        <v>1.078757376333796</v>
       </c>
       <c r="S12">
-        <v>1.054024832658836</v>
+        <v>1.046622239739504</v>
       </c>
       <c r="T12">
-        <v>1.045537645673176</v>
+        <v>1.078757376333795</v>
       </c>
       <c r="U12">
-        <v>1.061794444770179</v>
+        <v>1.066762286061398</v>
       </c>
       <c r="V12">
-        <v>1.066456212036986</v>
+        <v>1.078846313854535</v>
       </c>
       <c r="W12">
-        <v>1.102694189887185</v>
+        <v>1.041742359998279</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.362785987662189</v>
+        <v>0.7595199640189255</v>
       </c>
       <c r="D13">
-        <v>0.9470081478523769</v>
+        <v>1.284066829738124</v>
       </c>
       <c r="E13">
-        <v>1.324487853810829</v>
+        <v>1.244493109957569</v>
       </c>
       <c r="F13">
-        <v>1.362785987662189</v>
+        <v>0.7595199640189255</v>
       </c>
       <c r="G13">
-        <v>1.254952777912734</v>
+        <v>2.084934809464603</v>
       </c>
       <c r="H13">
-        <v>1.254952777915119</v>
+        <v>2.084934809465714</v>
       </c>
       <c r="I13">
-        <v>1.254952777915119</v>
+        <v>2.084934809465714</v>
       </c>
       <c r="J13">
-        <v>0.9680895821962077</v>
+        <v>1.273437643472451</v>
       </c>
       <c r="K13">
-        <v>1.012327369603732</v>
+        <v>1.356632609072509</v>
       </c>
       <c r="L13">
-        <v>0.6714741746258701</v>
+        <v>1.344108805514937</v>
       </c>
       <c r="M13">
-        <v>0.9906485925220474</v>
+        <v>1.181935961383306</v>
       </c>
       <c r="N13">
-        <v>1.254952777915119</v>
+        <v>2.084934809465714</v>
       </c>
       <c r="O13">
-        <v>1.324487853810829</v>
+        <v>1.244493109957569</v>
       </c>
       <c r="P13">
-        <v>1.343636920736509</v>
+        <v>1.002006536988247</v>
       </c>
       <c r="Q13">
-        <v>1.146288718003518</v>
+        <v>1.25896537671501</v>
       </c>
       <c r="R13">
-        <v>1.314075539796046</v>
+        <v>1.36298262781407</v>
       </c>
       <c r="S13">
-        <v>1.218454474556409</v>
+        <v>1.092483572482982</v>
       </c>
       <c r="T13">
-        <v>1.314075539796046</v>
+        <v>1.36298262781407</v>
       </c>
       <c r="U13">
-        <v>1.227579050396086</v>
+        <v>1.340596381728665</v>
       </c>
       <c r="V13">
-        <v>1.233053795899893</v>
+        <v>1.489464067276075</v>
       </c>
       <c r="W13">
-        <v>1.066471810773546</v>
+        <v>1.316141216577942</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0006555618276356246</v>
+        <v>0.8432342487890975</v>
       </c>
       <c r="D14">
-        <v>1.578791647621019</v>
+        <v>0.995959595980264</v>
       </c>
       <c r="E14">
-        <v>1.556078684055316</v>
+        <v>1.944606380493191</v>
       </c>
       <c r="F14">
-        <v>-0.0006555618276356246</v>
+        <v>0.8432342487890975</v>
       </c>
       <c r="G14">
-        <v>-0.001183448875224</v>
+        <v>2.993600951506431</v>
       </c>
       <c r="H14">
-        <v>-0.001183448874899454</v>
+        <v>2.99360095150653</v>
       </c>
       <c r="I14">
-        <v>-0.001183448874899454</v>
+        <v>2.99360095150653</v>
       </c>
       <c r="J14">
-        <v>0.4919357254895746</v>
+        <v>1.639452519713144</v>
       </c>
       <c r="K14">
-        <v>1.336379049002233</v>
+        <v>0.8876056347370914</v>
       </c>
       <c r="L14">
-        <v>1.322722078494317</v>
+        <v>1.528234715681637</v>
       </c>
       <c r="M14">
-        <v>0.8095485781418048</v>
+        <v>0.7294507833372852</v>
       </c>
       <c r="N14">
-        <v>-0.001183448874899454</v>
+        <v>2.99360095150653</v>
       </c>
       <c r="O14">
-        <v>1.556078684055316</v>
+        <v>1.944606380493191</v>
       </c>
       <c r="P14">
-        <v>0.77771156111384</v>
+        <v>1.393920314641145</v>
       </c>
       <c r="Q14">
-        <v>1.024007204772445</v>
+        <v>1.792029450103167</v>
       </c>
       <c r="R14">
-        <v>0.5180798911175936</v>
+        <v>1.927147193596273</v>
       </c>
       <c r="S14">
-        <v>0.6824529492390848</v>
+        <v>1.475764382998477</v>
       </c>
       <c r="T14">
-        <v>0.5180798911175936</v>
+        <v>1.927147193596273</v>
       </c>
       <c r="U14">
-        <v>0.5115438497105889</v>
+        <v>1.855223525125491</v>
       </c>
       <c r="V14">
-        <v>0.4089983899934911</v>
+        <v>2.082899010401698</v>
       </c>
       <c r="W14">
-        <v>0.8867020940127162</v>
+        <v>1.44526810377978</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.547537330760673</v>
+        <v>1.067986541064324</v>
       </c>
       <c r="D15">
-        <v>0.6236616683374028</v>
+        <v>1.008288646879601</v>
       </c>
       <c r="E15">
-        <v>0.7748454085804234</v>
+        <v>1.085879739506408</v>
       </c>
       <c r="F15">
-        <v>2.547537330760673</v>
+        <v>1.067986541064324</v>
       </c>
       <c r="G15">
-        <v>0.5439270366634615</v>
+        <v>1.254285362831159</v>
       </c>
       <c r="H15">
-        <v>0.543927036663438</v>
+        <v>1.25428536283113</v>
       </c>
       <c r="I15">
-        <v>0.543927036663438</v>
+        <v>1.25428536283113</v>
       </c>
       <c r="J15">
-        <v>1.230134294454838</v>
+        <v>1.041360622779352</v>
       </c>
       <c r="K15">
-        <v>0.9002960613236162</v>
+        <v>1.013347149144053</v>
       </c>
       <c r="L15">
-        <v>1.087444563150505</v>
+        <v>1.039484170181245</v>
       </c>
       <c r="M15">
-        <v>1.400104085713833</v>
+        <v>1.010837294718345</v>
       </c>
       <c r="N15">
-        <v>0.543927036663438</v>
+        <v>1.25428536283113</v>
       </c>
       <c r="O15">
-        <v>0.7748454085804234</v>
+        <v>1.085879739506408</v>
       </c>
       <c r="P15">
-        <v>1.661191369670548</v>
+        <v>1.076933140285366</v>
       </c>
       <c r="Q15">
-        <v>1.002489851517631</v>
+        <v>1.06362018114288</v>
       </c>
       <c r="R15">
-        <v>1.288769925334845</v>
+        <v>1.136050547800621</v>
       </c>
       <c r="S15">
-        <v>1.517505677931978</v>
+        <v>1.065075634450028</v>
       </c>
       <c r="T15">
-        <v>1.288769925334845</v>
+        <v>1.136050547800621</v>
       </c>
       <c r="U15">
-        <v>1.274111017614843</v>
+        <v>1.112378066545304</v>
       </c>
       <c r="V15">
-        <v>1.128074221424562</v>
+        <v>1.140759525802469</v>
       </c>
       <c r="W15">
-        <v>1.138493806123091</v>
+        <v>1.065183690888057</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.34482440269898</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="D16">
-        <v>1.218526293307202</v>
+        <v>1.014468768372825</v>
       </c>
       <c r="E16">
-        <v>1.625339490413981</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="F16">
-        <v>1.34482440269898</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="G16">
-        <v>5.05308010212925</v>
+        <v>1.686178266967382</v>
       </c>
       <c r="H16">
-        <v>5.053080102129252</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="I16">
-        <v>5.053080102129252</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="J16">
-        <v>1.393425023741763</v>
+        <v>1.097755002170258</v>
       </c>
       <c r="K16">
-        <v>1.181669501410778</v>
+        <v>1.065621598590228</v>
       </c>
       <c r="L16">
-        <v>1.23746124904567</v>
+        <v>1.105001541460698</v>
       </c>
       <c r="M16">
-        <v>1.076545061048583</v>
+        <v>1.097102645740636</v>
       </c>
       <c r="N16">
-        <v>5.053080102129252</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="O16">
-        <v>1.625339490413981</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="P16">
-        <v>1.485081946556481</v>
+        <v>1.129868031293488</v>
       </c>
       <c r="Q16">
-        <v>1.509382257077872</v>
+        <v>1.11711470202901</v>
       </c>
       <c r="R16">
-        <v>2.674414665080738</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="S16">
-        <v>1.454529638951575</v>
+        <v>1.119163688252411</v>
       </c>
       <c r="T16">
-        <v>2.674414665080738</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="U16">
-        <v>2.354167254745994</v>
+        <v>1.260917332931164</v>
       </c>
       <c r="V16">
-        <v>2.893949824222646</v>
+        <v>1.345969519738415</v>
       </c>
       <c r="W16">
-        <v>1.766358890474526</v>
+        <v>1.16573298573613</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.177702940637896</v>
+        <v>0.8035036515406728</v>
       </c>
       <c r="D17">
-        <v>1.116759827488024</v>
+        <v>1.17830050477431</v>
       </c>
       <c r="E17">
-        <v>1.672998749951383</v>
+        <v>1.560750371328259</v>
       </c>
       <c r="F17">
-        <v>1.177702940637896</v>
+        <v>0.8035036515406728</v>
       </c>
       <c r="G17">
-        <v>3.703039390073424</v>
+        <v>2.998945314302207</v>
       </c>
       <c r="H17">
-        <v>3.703039390073419</v>
+        <v>2.998945314301973</v>
       </c>
       <c r="I17">
-        <v>3.703039390073419</v>
+        <v>2.998945314301973</v>
       </c>
       <c r="J17">
-        <v>1.245193463500977</v>
+        <v>1.482887112052193</v>
       </c>
       <c r="K17">
-        <v>1.137966835646661</v>
+        <v>1.416650773140346</v>
       </c>
       <c r="L17">
-        <v>1.302125022791893</v>
+        <v>1.323371493055217</v>
       </c>
       <c r="M17">
-        <v>1.004748779130742</v>
+        <v>1.297113880049342</v>
       </c>
       <c r="N17">
-        <v>3.703039390073419</v>
+        <v>2.998945314301973</v>
       </c>
       <c r="O17">
-        <v>1.672998749951383</v>
+        <v>1.560750371328259</v>
       </c>
       <c r="P17">
-        <v>1.42535084529464</v>
+        <v>1.182127011434466</v>
       </c>
       <c r="Q17">
-        <v>1.45909610672618</v>
+        <v>1.521818741690226</v>
       </c>
       <c r="R17">
-        <v>2.184580360220899</v>
+        <v>1.787733112390302</v>
       </c>
       <c r="S17">
-        <v>1.365298384696752</v>
+        <v>1.282380378307042</v>
       </c>
       <c r="T17">
-        <v>2.184580360220899</v>
+        <v>1.787733112390302</v>
       </c>
       <c r="U17">
-        <v>1.949733636040919</v>
+        <v>1.711521612305775</v>
       </c>
       <c r="V17">
-        <v>2.300394786847419</v>
+        <v>1.969006352705014</v>
       </c>
       <c r="W17">
-        <v>1.545066876152625</v>
+        <v>1.507690387530289</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7869314386034592</v>
+        <v>0.6038765989628799</v>
       </c>
       <c r="D18">
-        <v>0.9059520550025647</v>
+        <v>0.9340581655110033</v>
       </c>
       <c r="E18">
-        <v>1.843931364216369</v>
+        <v>1.474142240399877</v>
       </c>
       <c r="F18">
-        <v>0.7869314386034592</v>
+        <v>0.6038765989628799</v>
       </c>
       <c r="G18">
-        <v>1.093917594875202</v>
+        <v>5.150900724646554</v>
       </c>
       <c r="H18">
-        <v>1.093917594874536</v>
+        <v>5.150900724646554</v>
       </c>
       <c r="I18">
-        <v>1.093917594874536</v>
+        <v>5.150900724646554</v>
       </c>
       <c r="J18">
-        <v>0.9768152633901586</v>
+        <v>1.58638547199299</v>
       </c>
       <c r="K18">
-        <v>1.123388172047231</v>
+        <v>0.9846245977449524</v>
       </c>
       <c r="L18">
-        <v>1.551373301275039</v>
+        <v>1.395344457939217</v>
       </c>
       <c r="M18">
-        <v>0.8731109918742147</v>
+        <v>0.6131593514598487</v>
       </c>
       <c r="N18">
-        <v>1.093917594874536</v>
+        <v>5.150900724646554</v>
       </c>
       <c r="O18">
-        <v>1.843931364216369</v>
+        <v>1.474142240399877</v>
       </c>
       <c r="P18">
-        <v>1.315431401409914</v>
+        <v>1.039009419681378</v>
       </c>
       <c r="Q18">
-        <v>1.410373313803264</v>
+        <v>1.530263856196433</v>
       </c>
       <c r="R18">
-        <v>1.241593465898121</v>
+        <v>2.40963985466977</v>
       </c>
       <c r="S18">
-        <v>1.202559355403329</v>
+        <v>1.221468103785249</v>
       </c>
       <c r="T18">
-        <v>1.241593465898121</v>
+        <v>2.40963985466977</v>
       </c>
       <c r="U18">
-        <v>1.175398915271131</v>
+        <v>2.203826259000575</v>
       </c>
       <c r="V18">
-        <v>1.159102651191812</v>
+        <v>2.793241152129771</v>
       </c>
       <c r="W18">
-        <v>1.144427522660446</v>
+        <v>1.592811451082165</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.048693086548281</v>
+        <v>1.020782392992909</v>
       </c>
       <c r="D19">
-        <v>0.8937271874863622</v>
+        <v>1.002278159386117</v>
       </c>
       <c r="E19">
-        <v>2.300546514300744</v>
+        <v>1.050437533886248</v>
       </c>
       <c r="F19">
-        <v>1.048693086548281</v>
+        <v>1.020782392992909</v>
       </c>
       <c r="G19">
-        <v>0.8864499030743019</v>
+        <v>1.014279524926922</v>
       </c>
       <c r="H19">
-        <v>0.8864499030755406</v>
+        <v>1.014279524926882</v>
       </c>
       <c r="I19">
-        <v>0.8864499030755406</v>
+        <v>1.014279524926882</v>
       </c>
       <c r="J19">
-        <v>0.8921816448561936</v>
+        <v>1.016303111023182</v>
       </c>
       <c r="K19">
-        <v>1.067255756838956</v>
+        <v>1.004794174419302</v>
       </c>
       <c r="L19">
-        <v>1.687855496441495</v>
+        <v>1.034479510791538</v>
       </c>
       <c r="M19">
-        <v>0.877407048092683</v>
+        <v>1.005473826637683</v>
       </c>
       <c r="N19">
-        <v>0.8864499030755406</v>
+        <v>1.014279524926882</v>
       </c>
       <c r="O19">
-        <v>2.300546514300744</v>
+        <v>1.050437533886248</v>
       </c>
       <c r="P19">
-        <v>1.674619800424513</v>
+        <v>1.035609963439579</v>
       </c>
       <c r="Q19">
-        <v>1.596364079578469</v>
+        <v>1.033370322454715</v>
       </c>
       <c r="R19">
-        <v>1.411896501308189</v>
+        <v>1.02849981726868</v>
       </c>
       <c r="S19">
-        <v>1.41380708190174</v>
+        <v>1.029174345967447</v>
       </c>
       <c r="T19">
-        <v>1.411896501308189</v>
+        <v>1.02849981726868</v>
       </c>
       <c r="U19">
-        <v>1.28196778719519</v>
+        <v>1.025450640707305</v>
       </c>
       <c r="V19">
-        <v>1.20286421037126</v>
+        <v>1.02321641755122</v>
       </c>
       <c r="W19">
-        <v>1.206764579705032</v>
+        <v>1.018603529257982</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.045754003228946</v>
+        <v>1.019969261478739</v>
       </c>
       <c r="D20">
-        <v>1.000022587912039</v>
+        <v>0.9993976192047401</v>
       </c>
       <c r="E20">
-        <v>1.046599394072955</v>
+        <v>1.063852672733402</v>
       </c>
       <c r="F20">
-        <v>1.045754003228946</v>
+        <v>1.019969261478739</v>
       </c>
       <c r="G20">
-        <v>0.9930317660701422</v>
+        <v>1.03202564982733</v>
       </c>
       <c r="H20">
-        <v>0.9930317660700998</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="I20">
-        <v>0.9930317660700998</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="J20">
-        <v>1.005993945917117</v>
+        <v>1.015863975491285</v>
       </c>
       <c r="K20">
-        <v>1.005338521174965</v>
+        <v>1.004514262673151</v>
       </c>
       <c r="L20">
-        <v>1.025978563566189</v>
+        <v>1.051339339657863</v>
       </c>
       <c r="M20">
-        <v>1.003412302893085</v>
+        <v>1.002243141468685</v>
       </c>
       <c r="N20">
-        <v>0.9930317660700998</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="O20">
-        <v>1.046599394072955</v>
+        <v>1.063852672733402</v>
       </c>
       <c r="P20">
-        <v>1.04617669865095</v>
+        <v>1.041910967106071</v>
       </c>
       <c r="Q20">
-        <v>1.026296669995036</v>
+        <v>1.039858324112344</v>
       </c>
       <c r="R20">
-        <v>1.028461721124</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="S20">
-        <v>1.032782447739673</v>
+        <v>1.033228636567809</v>
       </c>
       <c r="T20">
-        <v>1.028461721124</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="U20">
-        <v>1.022844777322279</v>
+        <v>1.032927889882671</v>
       </c>
       <c r="V20">
-        <v>1.016882175071844</v>
+        <v>1.032747441871588</v>
       </c>
       <c r="W20">
-        <v>1.015766385604424</v>
+        <v>1.02365074031689</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.014218039658297</v>
+        <v>0.9805923771529353</v>
       </c>
       <c r="D21">
-        <v>0.9977814299424265</v>
+        <v>1.005974334142824</v>
       </c>
       <c r="E21">
-        <v>1.031854827926251</v>
+        <v>1.051106368911599</v>
       </c>
       <c r="F21">
-        <v>1.014218039658297</v>
+        <v>0.9805923771529353</v>
       </c>
       <c r="G21">
-        <v>1.03312887704764</v>
+        <v>1.113666823939429</v>
       </c>
       <c r="H21">
-        <v>1.033128877047611</v>
+        <v>1.113666823939294</v>
       </c>
       <c r="I21">
-        <v>1.033128877047611</v>
+        <v>1.113666823939294</v>
       </c>
       <c r="J21">
-        <v>1.027444521228218</v>
+        <v>1.009211454323943</v>
       </c>
       <c r="K21">
-        <v>1.024673839627991</v>
+        <v>0.996561693194878</v>
       </c>
       <c r="L21">
-        <v>1.049431137428959</v>
+        <v>1.089732723722454</v>
       </c>
       <c r="M21">
-        <v>1.003691269610012</v>
+        <v>0.9771410571568387</v>
       </c>
       <c r="N21">
-        <v>1.033128877047611</v>
+        <v>1.113666823939294</v>
       </c>
       <c r="O21">
-        <v>1.031854827926251</v>
+        <v>1.051106368911599</v>
       </c>
       <c r="P21">
-        <v>1.023036433792274</v>
+        <v>1.015849373032267</v>
       </c>
       <c r="Q21">
-        <v>1.029649674577235</v>
+        <v>1.030158911617771</v>
       </c>
       <c r="R21">
-        <v>1.026400581544053</v>
+        <v>1.048455190001276</v>
       </c>
       <c r="S21">
-        <v>1.024505796270922</v>
+        <v>1.013636733462826</v>
       </c>
       <c r="T21">
-        <v>1.026400581544053</v>
+        <v>1.048455190001276</v>
       </c>
       <c r="U21">
-        <v>1.026661566465094</v>
+        <v>1.038644256081943</v>
       </c>
       <c r="V21">
-        <v>1.027955028581597</v>
+        <v>1.053648769653413</v>
       </c>
       <c r="W21">
-        <v>1.022777992808721</v>
+        <v>1.027998354068096</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9989045672067572</v>
+        <v>0.9961185075278891</v>
       </c>
       <c r="D22">
-        <v>1.104982547315715</v>
+        <v>1.00255550765708</v>
       </c>
       <c r="E22">
-        <v>1.156519600683586</v>
+        <v>1.113410716123466</v>
       </c>
       <c r="F22">
-        <v>0.9989045672067572</v>
+        <v>0.9961185075278891</v>
       </c>
       <c r="G22">
-        <v>1.271016331724817</v>
+        <v>1.153043768776633</v>
       </c>
       <c r="H22">
-        <v>1.271016331724253</v>
+        <v>1.153043768776616</v>
       </c>
       <c r="I22">
-        <v>1.271016331724253</v>
+        <v>1.153043768776616</v>
       </c>
       <c r="J22">
-        <v>1.238808591886396</v>
+        <v>1.068277368362553</v>
       </c>
       <c r="K22">
-        <v>1.190281120582882</v>
+        <v>1.050634015553146</v>
       </c>
       <c r="L22">
-        <v>1.219612997708766</v>
+        <v>1.118393938755786</v>
       </c>
       <c r="M22">
-        <v>1.156144875420884</v>
+        <v>1.060080962243448</v>
       </c>
       <c r="N22">
-        <v>1.271016331724253</v>
+        <v>1.153043768776616</v>
       </c>
       <c r="O22">
-        <v>1.156519600683586</v>
+        <v>1.113410716123466</v>
       </c>
       <c r="P22">
-        <v>1.077712083945171</v>
+        <v>1.054764611825677</v>
       </c>
       <c r="Q22">
-        <v>1.197664096284991</v>
+        <v>1.090844042243009</v>
       </c>
       <c r="R22">
-        <v>1.142146833204865</v>
+        <v>1.087524330809323</v>
       </c>
       <c r="S22">
-        <v>1.13141091992558</v>
+        <v>1.059268864004636</v>
       </c>
       <c r="T22">
-        <v>1.142146833204865</v>
+        <v>1.087524330809323</v>
       </c>
       <c r="U22">
-        <v>1.166312272875248</v>
+        <v>1.082712590197631</v>
       </c>
       <c r="V22">
-        <v>1.187253084645049</v>
+        <v>1.096778825913428</v>
       </c>
       <c r="W22">
-        <v>1.167033829066155</v>
+        <v>1.070314348124998</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9093481934521538</v>
+      </c>
+      <c r="D23">
+        <v>1.069314378052283</v>
+      </c>
+      <c r="E23">
+        <v>1.182242960961421</v>
+      </c>
+      <c r="F23">
+        <v>0.9093481934521538</v>
+      </c>
+      <c r="G23">
+        <v>1.389559865665609</v>
+      </c>
+      <c r="H23">
+        <v>1.389559865665661</v>
+      </c>
+      <c r="I23">
+        <v>1.389559865665661</v>
+      </c>
+      <c r="J23">
+        <v>1.003357739975569</v>
+      </c>
+      <c r="K23">
+        <v>0.9358568324571206</v>
+      </c>
+      <c r="L23">
+        <v>1.196289329811647</v>
+      </c>
+      <c r="M23">
+        <v>0.9379495602588569</v>
+      </c>
+      <c r="N23">
+        <v>1.389559865665661</v>
+      </c>
+      <c r="O23">
+        <v>1.182242960961421</v>
+      </c>
+      <c r="P23">
+        <v>1.045795577206787</v>
+      </c>
+      <c r="Q23">
+        <v>1.092800350468495</v>
+      </c>
+      <c r="R23">
+        <v>1.160383673359745</v>
+      </c>
+      <c r="S23">
+        <v>1.031649631463048</v>
+      </c>
+      <c r="T23">
+        <v>1.160383673359745</v>
+      </c>
+      <c r="U23">
+        <v>1.121127190013701</v>
+      </c>
+      <c r="V23">
+        <v>1.174813725144093</v>
+      </c>
+      <c r="W23">
+        <v>1.077989857579339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="D24">
+        <v>0.8279155941611227</v>
+      </c>
+      <c r="E24">
+        <v>0.01382368003292261</v>
+      </c>
+      <c r="F24">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="G24">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="H24">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="I24">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="J24">
+        <v>1.110564842061191</v>
+      </c>
+      <c r="K24">
+        <v>0.7990587933215533</v>
+      </c>
+      <c r="L24">
+        <v>1.516354569817135</v>
+      </c>
+      <c r="M24">
+        <v>1.431046782716954</v>
+      </c>
+      <c r="N24">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="O24">
+        <v>0.01382368003292261</v>
+      </c>
+      <c r="P24">
+        <v>1.025754827957658</v>
+      </c>
+      <c r="Q24">
+        <v>0.5621942610470569</v>
+      </c>
+      <c r="R24">
+        <v>1.045537645673176</v>
+      </c>
+      <c r="S24">
+        <v>1.054024832658836</v>
+      </c>
+      <c r="T24">
+        <v>1.045537645673176</v>
+      </c>
+      <c r="U24">
+        <v>1.061794444770179</v>
+      </c>
+      <c r="V24">
+        <v>1.066456212036986</v>
+      </c>
+      <c r="W24">
+        <v>1.102694189887185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.362785987662189</v>
+      </c>
+      <c r="D25">
+        <v>0.9470081478523769</v>
+      </c>
+      <c r="E25">
+        <v>1.324487853810829</v>
+      </c>
+      <c r="F25">
+        <v>1.362785987662189</v>
+      </c>
+      <c r="G25">
+        <v>1.254952777912734</v>
+      </c>
+      <c r="H25">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="I25">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="J25">
+        <v>0.9680895821962077</v>
+      </c>
+      <c r="K25">
+        <v>1.012327369603732</v>
+      </c>
+      <c r="L25">
+        <v>0.6714741746258701</v>
+      </c>
+      <c r="M25">
+        <v>0.9906485925220474</v>
+      </c>
+      <c r="N25">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="O25">
+        <v>1.324487853810829</v>
+      </c>
+      <c r="P25">
+        <v>1.343636920736509</v>
+      </c>
+      <c r="Q25">
+        <v>1.146288718003518</v>
+      </c>
+      <c r="R25">
+        <v>1.314075539796046</v>
+      </c>
+      <c r="S25">
+        <v>1.218454474556409</v>
+      </c>
+      <c r="T25">
+        <v>1.314075539796046</v>
+      </c>
+      <c r="U25">
+        <v>1.227579050396086</v>
+      </c>
+      <c r="V25">
+        <v>1.233053795899893</v>
+      </c>
+      <c r="W25">
+        <v>1.066471810773546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="D26">
+        <v>1.578791647621019</v>
+      </c>
+      <c r="E26">
+        <v>1.556078684055316</v>
+      </c>
+      <c r="F26">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="G26">
+        <v>-0.001183448875224</v>
+      </c>
+      <c r="H26">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="I26">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="J26">
+        <v>0.4919357254895746</v>
+      </c>
+      <c r="K26">
+        <v>1.336379049002233</v>
+      </c>
+      <c r="L26">
+        <v>1.322722078494317</v>
+      </c>
+      <c r="M26">
+        <v>0.8095485781418048</v>
+      </c>
+      <c r="N26">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="O26">
+        <v>1.556078684055316</v>
+      </c>
+      <c r="P26">
+        <v>0.77771156111384</v>
+      </c>
+      <c r="Q26">
+        <v>1.024007204772445</v>
+      </c>
+      <c r="R26">
+        <v>0.5180798911175936</v>
+      </c>
+      <c r="S26">
+        <v>0.6824529492390848</v>
+      </c>
+      <c r="T26">
+        <v>0.5180798911175936</v>
+      </c>
+      <c r="U26">
+        <v>0.5115438497105889</v>
+      </c>
+      <c r="V26">
+        <v>0.4089983899934911</v>
+      </c>
+      <c r="W26">
+        <v>0.8867020940127162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.547537330760673</v>
+      </c>
+      <c r="D27">
+        <v>0.6236616683374028</v>
+      </c>
+      <c r="E27">
+        <v>0.7748454085804234</v>
+      </c>
+      <c r="F27">
+        <v>2.547537330760673</v>
+      </c>
+      <c r="G27">
+        <v>0.5439270366634615</v>
+      </c>
+      <c r="H27">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="I27">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="J27">
+        <v>1.230134294454838</v>
+      </c>
+      <c r="K27">
+        <v>0.9002960613236162</v>
+      </c>
+      <c r="L27">
+        <v>1.087444563150505</v>
+      </c>
+      <c r="M27">
+        <v>1.400104085713833</v>
+      </c>
+      <c r="N27">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="O27">
+        <v>0.7748454085804234</v>
+      </c>
+      <c r="P27">
+        <v>1.661191369670548</v>
+      </c>
+      <c r="Q27">
+        <v>1.002489851517631</v>
+      </c>
+      <c r="R27">
+        <v>1.288769925334845</v>
+      </c>
+      <c r="S27">
+        <v>1.517505677931978</v>
+      </c>
+      <c r="T27">
+        <v>1.288769925334845</v>
+      </c>
+      <c r="U27">
+        <v>1.274111017614843</v>
+      </c>
+      <c r="V27">
+        <v>1.128074221424562</v>
+      </c>
+      <c r="W27">
+        <v>1.138493806123091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.34482440269898</v>
+      </c>
+      <c r="D28">
+        <v>1.218526293307202</v>
+      </c>
+      <c r="E28">
+        <v>1.625339490413981</v>
+      </c>
+      <c r="F28">
+        <v>1.34482440269898</v>
+      </c>
+      <c r="G28">
+        <v>5.05308010212925</v>
+      </c>
+      <c r="H28">
+        <v>5.053080102129252</v>
+      </c>
+      <c r="I28">
+        <v>5.053080102129252</v>
+      </c>
+      <c r="J28">
+        <v>1.393425023741763</v>
+      </c>
+      <c r="K28">
+        <v>1.181669501410778</v>
+      </c>
+      <c r="L28">
+        <v>1.23746124904567</v>
+      </c>
+      <c r="M28">
+        <v>1.076545061048583</v>
+      </c>
+      <c r="N28">
+        <v>5.053080102129252</v>
+      </c>
+      <c r="O28">
+        <v>1.625339490413981</v>
+      </c>
+      <c r="P28">
+        <v>1.485081946556481</v>
+      </c>
+      <c r="Q28">
+        <v>1.509382257077872</v>
+      </c>
+      <c r="R28">
+        <v>2.674414665080738</v>
+      </c>
+      <c r="S28">
+        <v>1.454529638951575</v>
+      </c>
+      <c r="T28">
+        <v>2.674414665080738</v>
+      </c>
+      <c r="U28">
+        <v>2.354167254745994</v>
+      </c>
+      <c r="V28">
+        <v>2.893949824222646</v>
+      </c>
+      <c r="W28">
+        <v>1.766358890474526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.177702940637896</v>
+      </c>
+      <c r="D29">
+        <v>1.116759827488024</v>
+      </c>
+      <c r="E29">
+        <v>1.672998749951383</v>
+      </c>
+      <c r="F29">
+        <v>1.177702940637896</v>
+      </c>
+      <c r="G29">
+        <v>3.703039390073424</v>
+      </c>
+      <c r="H29">
+        <v>3.703039390073419</v>
+      </c>
+      <c r="I29">
+        <v>3.703039390073419</v>
+      </c>
+      <c r="J29">
+        <v>1.245193463500977</v>
+      </c>
+      <c r="K29">
+        <v>1.137966835646661</v>
+      </c>
+      <c r="L29">
+        <v>1.302125022791893</v>
+      </c>
+      <c r="M29">
+        <v>1.004748779130742</v>
+      </c>
+      <c r="N29">
+        <v>3.703039390073419</v>
+      </c>
+      <c r="O29">
+        <v>1.672998749951383</v>
+      </c>
+      <c r="P29">
+        <v>1.42535084529464</v>
+      </c>
+      <c r="Q29">
+        <v>1.45909610672618</v>
+      </c>
+      <c r="R29">
+        <v>2.184580360220899</v>
+      </c>
+      <c r="S29">
+        <v>1.365298384696752</v>
+      </c>
+      <c r="T29">
+        <v>2.184580360220899</v>
+      </c>
+      <c r="U29">
+        <v>1.949733636040919</v>
+      </c>
+      <c r="V29">
+        <v>2.300394786847419</v>
+      </c>
+      <c r="W29">
+        <v>1.545066876152625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7869314386034592</v>
+      </c>
+      <c r="D30">
+        <v>0.9059520550025647</v>
+      </c>
+      <c r="E30">
+        <v>1.843931364216369</v>
+      </c>
+      <c r="F30">
+        <v>0.7869314386034592</v>
+      </c>
+      <c r="G30">
+        <v>1.093917594875202</v>
+      </c>
+      <c r="H30">
+        <v>1.093917594874536</v>
+      </c>
+      <c r="I30">
+        <v>1.093917594874536</v>
+      </c>
+      <c r="J30">
+        <v>0.9768152633901586</v>
+      </c>
+      <c r="K30">
+        <v>1.123388172047231</v>
+      </c>
+      <c r="L30">
+        <v>1.551373301275039</v>
+      </c>
+      <c r="M30">
+        <v>0.8731109918742147</v>
+      </c>
+      <c r="N30">
+        <v>1.093917594874536</v>
+      </c>
+      <c r="O30">
+        <v>1.843931364216369</v>
+      </c>
+      <c r="P30">
+        <v>1.315431401409914</v>
+      </c>
+      <c r="Q30">
+        <v>1.410373313803264</v>
+      </c>
+      <c r="R30">
+        <v>1.241593465898121</v>
+      </c>
+      <c r="S30">
+        <v>1.202559355403329</v>
+      </c>
+      <c r="T30">
+        <v>1.241593465898121</v>
+      </c>
+      <c r="U30">
+        <v>1.175398915271131</v>
+      </c>
+      <c r="V30">
+        <v>1.159102651191812</v>
+      </c>
+      <c r="W30">
+        <v>1.144427522660446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.048693086548281</v>
+      </c>
+      <c r="D31">
+        <v>0.8937271874863622</v>
+      </c>
+      <c r="E31">
+        <v>2.300546514300744</v>
+      </c>
+      <c r="F31">
+        <v>1.048693086548281</v>
+      </c>
+      <c r="G31">
+        <v>0.8864499030743019</v>
+      </c>
+      <c r="H31">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="I31">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="J31">
+        <v>0.8921816448561936</v>
+      </c>
+      <c r="K31">
+        <v>1.067255756838956</v>
+      </c>
+      <c r="L31">
+        <v>1.687855496441495</v>
+      </c>
+      <c r="M31">
+        <v>0.877407048092683</v>
+      </c>
+      <c r="N31">
+        <v>0.8864499030755406</v>
+      </c>
+      <c r="O31">
+        <v>2.300546514300744</v>
+      </c>
+      <c r="P31">
+        <v>1.674619800424513</v>
+      </c>
+      <c r="Q31">
+        <v>1.596364079578469</v>
+      </c>
+      <c r="R31">
+        <v>1.411896501308189</v>
+      </c>
+      <c r="S31">
+        <v>1.41380708190174</v>
+      </c>
+      <c r="T31">
+        <v>1.411896501308189</v>
+      </c>
+      <c r="U31">
+        <v>1.28196778719519</v>
+      </c>
+      <c r="V31">
+        <v>1.20286421037126</v>
+      </c>
+      <c r="W31">
+        <v>1.206764579705032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.490555404397096</v>
+      </c>
+      <c r="D32">
+        <v>1.301509098482466</v>
+      </c>
+      <c r="E32">
+        <v>1.568651886766028</v>
+      </c>
+      <c r="F32">
+        <v>1.490555404397096</v>
+      </c>
+      <c r="G32">
+        <v>6.818651216104107</v>
+      </c>
+      <c r="H32">
+        <v>6.818651216104107</v>
+      </c>
+      <c r="I32">
+        <v>6.818651216104107</v>
+      </c>
+      <c r="J32">
+        <v>1.519688402551497</v>
+      </c>
+      <c r="K32">
+        <v>1.207800987214808</v>
+      </c>
+      <c r="L32">
+        <v>1.348567171463014</v>
+      </c>
+      <c r="M32">
+        <v>1.131920610870356</v>
+      </c>
+      <c r="N32">
+        <v>6.818651216104107</v>
+      </c>
+      <c r="O32">
+        <v>1.568651886766028</v>
+      </c>
+      <c r="P32">
+        <v>1.529603645581562</v>
+      </c>
+      <c r="Q32">
+        <v>1.544170144658762</v>
+      </c>
+      <c r="R32">
+        <v>3.29261950242241</v>
+      </c>
+      <c r="S32">
+        <v>1.52629856457154</v>
+      </c>
+      <c r="T32">
+        <v>3.29261950242241</v>
+      </c>
+      <c r="U32">
+        <v>2.849386727454682</v>
+      </c>
+      <c r="V32">
+        <v>3.643239625184567</v>
+      </c>
+      <c r="W32">
+        <v>2.048418097231172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.0007154360499999998</v>
+      </c>
+      <c r="D33">
+        <v>1.439765959178947</v>
+      </c>
+      <c r="E33">
+        <v>4.561942531212633</v>
+      </c>
+      <c r="F33">
+        <v>0.0007154360499999998</v>
+      </c>
+      <c r="G33">
+        <v>2.712489603587526</v>
+      </c>
+      <c r="H33">
+        <v>2.712489603587473</v>
+      </c>
+      <c r="I33">
+        <v>2.712489603587473</v>
+      </c>
+      <c r="J33">
+        <v>1.241506489702631</v>
+      </c>
+      <c r="K33">
+        <v>0.6358413865097368</v>
+      </c>
+      <c r="L33">
+        <v>1.91654952527158</v>
+      </c>
+      <c r="M33">
+        <v>0.002665913105263158</v>
+      </c>
+      <c r="N33">
+        <v>2.712489603587473</v>
+      </c>
+      <c r="O33">
+        <v>4.561942531212633</v>
+      </c>
+      <c r="P33">
+        <v>2.281328983631317</v>
+      </c>
+      <c r="Q33">
+        <v>2.901724510457632</v>
+      </c>
+      <c r="R33">
+        <v>2.425049190283369</v>
+      </c>
+      <c r="S33">
+        <v>1.934721485655088</v>
+      </c>
+      <c r="T33">
+        <v>2.425049190283369</v>
+      </c>
+      <c r="U33">
+        <v>2.129163515138185</v>
+      </c>
+      <c r="V33">
+        <v>2.245828732828042</v>
+      </c>
+      <c r="W33">
+        <v>1.563934605577283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.433951839293684</v>
+      </c>
+      <c r="D34">
+        <v>0.3973237086721052</v>
+      </c>
+      <c r="E34">
+        <v>3.970252081465632</v>
+      </c>
+      <c r="F34">
+        <v>1.433951839293684</v>
+      </c>
+      <c r="G34">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="H34">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="I34">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="J34">
+        <v>1.004975474790527</v>
+      </c>
+      <c r="K34">
+        <v>1.99780471367721</v>
+      </c>
+      <c r="L34">
+        <v>2.918030343973685</v>
+      </c>
+      <c r="M34">
+        <v>0.9042906301021054</v>
+      </c>
+      <c r="N34">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="O34">
+        <v>3.970252081465632</v>
+      </c>
+      <c r="P34">
+        <v>2.702101960379658</v>
+      </c>
+      <c r="Q34">
+        <v>2.487613778128079</v>
+      </c>
+      <c r="R34">
+        <v>3.056061401635913</v>
+      </c>
+      <c r="S34">
+        <v>2.136393131849948</v>
+      </c>
+      <c r="T34">
+        <v>3.056061401635913</v>
+      </c>
+      <c r="U34">
+        <v>2.543289919924566</v>
+      </c>
+      <c r="V34">
+        <v>2.787427992769337</v>
+      </c>
+      <c r="W34">
+        <v>2.048826134515422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4072161854245755</v>
+      </c>
+      <c r="D35">
+        <v>0.4626544234941311</v>
+      </c>
+      <c r="E35">
+        <v>12.95885292821177</v>
+      </c>
+      <c r="F35">
+        <v>0.4072161854245755</v>
+      </c>
+      <c r="G35">
+        <v>0.4877374970730486</v>
+      </c>
+      <c r="H35">
+        <v>0.4877374970730087</v>
+      </c>
+      <c r="I35">
+        <v>0.4877374970730087</v>
+      </c>
+      <c r="J35">
+        <v>0.4805999106342217</v>
+      </c>
+      <c r="K35">
+        <v>0.5688451351957167</v>
+      </c>
+      <c r="L35">
+        <v>6.988901127473616</v>
+      </c>
+      <c r="M35">
+        <v>0.4221356968971748</v>
+      </c>
+      <c r="N35">
+        <v>0.4877374970730087</v>
+      </c>
+      <c r="O35">
+        <v>12.95885292821177</v>
+      </c>
+      <c r="P35">
+        <v>6.683034556818175</v>
+      </c>
+      <c r="Q35">
+        <v>6.719726419422998</v>
+      </c>
+      <c r="R35">
+        <v>4.617935536903119</v>
+      </c>
+      <c r="S35">
+        <v>4.615556341423524</v>
+      </c>
+      <c r="T35">
+        <v>4.617935536903119</v>
+      </c>
+      <c r="U35">
+        <v>3.583601630335895</v>
+      </c>
+      <c r="V35">
+        <v>2.964428803683318</v>
+      </c>
+      <c r="W35">
+        <v>2.847117863050527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.045754003228946</v>
+      </c>
+      <c r="D36">
+        <v>1.000022587912039</v>
+      </c>
+      <c r="E36">
+        <v>1.046599394072955</v>
+      </c>
+      <c r="F36">
+        <v>1.045754003228946</v>
+      </c>
+      <c r="G36">
+        <v>0.9930317660701422</v>
+      </c>
+      <c r="H36">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="I36">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="J36">
+        <v>1.005993945917117</v>
+      </c>
+      <c r="K36">
+        <v>1.005338521174965</v>
+      </c>
+      <c r="L36">
+        <v>1.025978563566189</v>
+      </c>
+      <c r="M36">
+        <v>1.003412302893085</v>
+      </c>
+      <c r="N36">
+        <v>0.9930317660700998</v>
+      </c>
+      <c r="O36">
+        <v>1.046599394072955</v>
+      </c>
+      <c r="P36">
+        <v>1.04617669865095</v>
+      </c>
+      <c r="Q36">
+        <v>1.026296669995036</v>
+      </c>
+      <c r="R36">
+        <v>1.028461721124</v>
+      </c>
+      <c r="S36">
+        <v>1.032782447739673</v>
+      </c>
+      <c r="T36">
+        <v>1.028461721124</v>
+      </c>
+      <c r="U36">
+        <v>1.022844777322279</v>
+      </c>
+      <c r="V36">
+        <v>1.016882175071844</v>
+      </c>
+      <c r="W36">
+        <v>1.015766385604424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.014218039658297</v>
+      </c>
+      <c r="D37">
+        <v>0.9977814299424265</v>
+      </c>
+      <c r="E37">
+        <v>1.031854827926251</v>
+      </c>
+      <c r="F37">
+        <v>1.014218039658297</v>
+      </c>
+      <c r="G37">
+        <v>1.03312887704764</v>
+      </c>
+      <c r="H37">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="I37">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="J37">
+        <v>1.027444521228218</v>
+      </c>
+      <c r="K37">
+        <v>1.024673839627991</v>
+      </c>
+      <c r="L37">
+        <v>1.049431137428959</v>
+      </c>
+      <c r="M37">
+        <v>1.003691269610012</v>
+      </c>
+      <c r="N37">
+        <v>1.033128877047611</v>
+      </c>
+      <c r="O37">
+        <v>1.031854827926251</v>
+      </c>
+      <c r="P37">
+        <v>1.023036433792274</v>
+      </c>
+      <c r="Q37">
+        <v>1.029649674577235</v>
+      </c>
+      <c r="R37">
+        <v>1.026400581544053</v>
+      </c>
+      <c r="S37">
+        <v>1.024505796270922</v>
+      </c>
+      <c r="T37">
+        <v>1.026400581544053</v>
+      </c>
+      <c r="U37">
+        <v>1.026661566465094</v>
+      </c>
+      <c r="V37">
+        <v>1.027955028581597</v>
+      </c>
+      <c r="W37">
+        <v>1.022777992808721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9989045672067572</v>
+      </c>
+      <c r="D38">
+        <v>1.104982547315715</v>
+      </c>
+      <c r="E38">
+        <v>1.156519600683586</v>
+      </c>
+      <c r="F38">
+        <v>0.9989045672067572</v>
+      </c>
+      <c r="G38">
+        <v>1.271016331724817</v>
+      </c>
+      <c r="H38">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="I38">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="J38">
+        <v>1.238808591886396</v>
+      </c>
+      <c r="K38">
+        <v>1.190281120582882</v>
+      </c>
+      <c r="L38">
+        <v>1.219612997708766</v>
+      </c>
+      <c r="M38">
+        <v>1.156144875420884</v>
+      </c>
+      <c r="N38">
+        <v>1.271016331724253</v>
+      </c>
+      <c r="O38">
+        <v>1.156519600683586</v>
+      </c>
+      <c r="P38">
+        <v>1.077712083945171</v>
+      </c>
+      <c r="Q38">
+        <v>1.197664096284991</v>
+      </c>
+      <c r="R38">
+        <v>1.142146833204865</v>
+      </c>
+      <c r="S38">
+        <v>1.13141091992558</v>
+      </c>
+      <c r="T38">
+        <v>1.142146833204865</v>
+      </c>
+      <c r="U38">
+        <v>1.166312272875248</v>
+      </c>
+      <c r="V38">
+        <v>1.187253084645049</v>
+      </c>
+      <c r="W38">
+        <v>1.167033829066155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9299301282365438</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9584941489117551</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.141436932597613</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9299301282365438</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.322858654503707</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.322858654502681</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.322858654502681</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9217167611628606</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.264343875698693</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.035113471014812</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.160800418935274</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.322858654502681</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.141436932597613</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.035683530417078</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.031576846880237</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.131408571778946</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9976946073323391</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.131408571778946</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.078985619124925</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.127760226200476</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.091836798882529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8014330909893265</v>
+      </c>
+      <c r="D40">
+        <v>0.9034097545564952</v>
+      </c>
+      <c r="E40">
+        <v>1.351571642454616</v>
+      </c>
+      <c r="F40">
+        <v>0.8014330909893265</v>
+      </c>
+      <c r="G40">
+        <v>1.475935684842624</v>
+      </c>
+      <c r="H40">
+        <v>1.475935684842635</v>
+      </c>
+      <c r="I40">
+        <v>1.475935684842635</v>
+      </c>
+      <c r="J40">
+        <v>0.8966433203485843</v>
+      </c>
+      <c r="K40">
+        <v>1.165797353257091</v>
+      </c>
+      <c r="L40">
+        <v>1.013213773174193</v>
+      </c>
+      <c r="M40">
+        <v>0.8116949714567907</v>
+      </c>
+      <c r="N40">
+        <v>1.475935684842635</v>
+      </c>
+      <c r="O40">
+        <v>1.351571642454616</v>
+      </c>
+      <c r="P40">
+        <v>1.076502366721972</v>
+      </c>
+      <c r="Q40">
+        <v>1.1241074814016</v>
+      </c>
+      <c r="R40">
+        <v>1.209646806095526</v>
+      </c>
+      <c r="S40">
+        <v>1.016549351264176</v>
+      </c>
+      <c r="T40">
+        <v>1.209646806095526</v>
+      </c>
+      <c r="U40">
+        <v>1.131395934658791</v>
+      </c>
+      <c r="V40">
+        <v>1.200303884695559</v>
+      </c>
+      <c r="W40">
+        <v>1.052462448884967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.349374167498082</v>
+      </c>
+      <c r="D41">
+        <v>0.968725906501768</v>
+      </c>
+      <c r="E41">
+        <v>0.9747530055953247</v>
+      </c>
+      <c r="F41">
+        <v>1.349374167498082</v>
+      </c>
+      <c r="G41">
+        <v>0.9214565416705354</v>
+      </c>
+      <c r="H41">
+        <v>0.9214565416703734</v>
+      </c>
+      <c r="I41">
+        <v>0.9214565416703734</v>
+      </c>
+      <c r="J41">
+        <v>1.107287994826382</v>
+      </c>
+      <c r="K41">
+        <v>0.9498107128799321</v>
+      </c>
+      <c r="L41">
+        <v>1.05313664380171</v>
+      </c>
+      <c r="M41">
+        <v>1.160846674637087</v>
+      </c>
+      <c r="N41">
+        <v>0.9214565416703734</v>
+      </c>
+      <c r="O41">
+        <v>0.9747530055953247</v>
+      </c>
+      <c r="P41">
+        <v>1.162063586546703</v>
+      </c>
+      <c r="Q41">
+        <v>1.041020500210853</v>
+      </c>
+      <c r="R41">
+        <v>1.081861238254593</v>
+      </c>
+      <c r="S41">
+        <v>1.143805055973263</v>
+      </c>
+      <c r="T41">
+        <v>1.081861238254593</v>
+      </c>
+      <c r="U41">
+        <v>1.088217927397541</v>
+      </c>
+      <c r="V41">
+        <v>1.054865650252107</v>
+      </c>
+      <c r="W41">
+        <v>1.060673955926332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6937999572911784</v>
+      </c>
+      <c r="D42">
+        <v>0.9169033455421329</v>
+      </c>
+      <c r="E42">
+        <v>1.491514082366516</v>
+      </c>
+      <c r="F42">
+        <v>0.6937999572911784</v>
+      </c>
+      <c r="G42">
+        <v>1.053030522390867</v>
+      </c>
+      <c r="H42">
+        <v>1.053030522390632</v>
+      </c>
+      <c r="I42">
+        <v>1.053030522390632</v>
+      </c>
+      <c r="J42">
+        <v>0.9892303821960198</v>
+      </c>
+      <c r="K42">
+        <v>1.171651252362063</v>
+      </c>
+      <c r="L42">
+        <v>1.116106630751998</v>
+      </c>
+      <c r="M42">
+        <v>0.7772775270139956</v>
+      </c>
+      <c r="N42">
+        <v>1.053030522390632</v>
+      </c>
+      <c r="O42">
+        <v>1.491514082366516</v>
+      </c>
+      <c r="P42">
+        <v>1.092657019828847</v>
+      </c>
+      <c r="Q42">
+        <v>1.240372232281268</v>
+      </c>
+      <c r="R42">
+        <v>1.079448187349442</v>
+      </c>
+      <c r="S42">
+        <v>1.058181473951238</v>
+      </c>
+      <c r="T42">
+        <v>1.079448187349442</v>
+      </c>
+      <c r="U42">
+        <v>1.056893736061087</v>
+      </c>
+      <c r="V42">
+        <v>1.056121093326996</v>
+      </c>
+      <c r="W42">
+        <v>1.026189212489317</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.254285362831129</v>
+        <v>1.019969261478739</v>
       </c>
       <c r="D3">
-        <v>1.067986541064324</v>
+        <v>0.9993976192047401</v>
       </c>
       <c r="E3">
-        <v>1.085879739506408</v>
+        <v>1.063852672733402</v>
       </c>
       <c r="F3">
-        <v>1.254285362831129</v>
+        <v>1.019969261478739</v>
       </c>
       <c r="G3">
-        <v>1.041360622779352</v>
+        <v>1.03202564982733</v>
       </c>
       <c r="H3">
-        <v>1.013347149144054</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="I3">
-        <v>1.254285362831159</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="J3">
-        <v>1.067986541064324</v>
+        <v>1.015863975491285</v>
       </c>
       <c r="K3">
-        <v>1.008288646879601</v>
+        <v>1.004514262673151</v>
       </c>
       <c r="L3">
-        <v>1.039484170181245</v>
+        <v>1.051339339657863</v>
       </c>
       <c r="M3">
-        <v>1.010837294718345</v>
+        <v>1.002243141468685</v>
       </c>
       <c r="N3">
-        <v>1.254285362831129</v>
+        <v>1.032025649827258</v>
       </c>
       <c r="O3">
-        <v>1.085879739506408</v>
+        <v>1.063852672733402</v>
       </c>
       <c r="P3">
-        <v>1.076933140285366</v>
+        <v>1.041910967106071</v>
       </c>
       <c r="Q3">
-        <v>1.06362018114288</v>
+        <v>1.039858324112344</v>
       </c>
       <c r="R3">
-        <v>1.13605054780062</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="S3">
-        <v>1.065075634450028</v>
+        <v>1.033228636567809</v>
       </c>
       <c r="T3">
-        <v>1.13605054780062</v>
+        <v>1.038615861346466</v>
       </c>
       <c r="U3">
-        <v>1.112378066545303</v>
+        <v>1.032927889882671</v>
       </c>
       <c r="V3">
-        <v>1.140759525802468</v>
+        <v>1.032747441871588</v>
       </c>
       <c r="W3">
-        <v>1.065183690888057</v>
+        <v>1.02365074031689</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.68617826696742</v>
+        <v>0.8014330909893265</v>
       </c>
       <c r="D4">
-        <v>1.123261660699216</v>
+        <v>0.9034097545564952</v>
       </c>
       <c r="E4">
-        <v>1.13647440188776</v>
+        <v>1.351571642454616</v>
       </c>
       <c r="F4">
-        <v>1.68617826696742</v>
+        <v>0.8014330909893265</v>
       </c>
       <c r="G4">
-        <v>1.097755002170258</v>
+        <v>1.475935684842624</v>
       </c>
       <c r="H4">
-        <v>1.065621598590228</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="I4">
-        <v>1.686178266967382</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="J4">
-        <v>1.123261660699216</v>
+        <v>0.8966433203485843</v>
       </c>
       <c r="K4">
-        <v>1.014468768372825</v>
+        <v>1.165797353257091</v>
       </c>
       <c r="L4">
-        <v>1.105001541460698</v>
+        <v>1.013213773174193</v>
       </c>
       <c r="M4">
-        <v>1.097102645740636</v>
+        <v>0.8116949714567907</v>
       </c>
       <c r="N4">
-        <v>1.68617826696742</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="O4">
-        <v>1.13647440188776</v>
+        <v>1.351571642454616</v>
       </c>
       <c r="P4">
-        <v>1.129868031293488</v>
+        <v>1.076502366721972</v>
       </c>
       <c r="Q4">
-        <v>1.11711470202901</v>
+        <v>1.1241074814016</v>
       </c>
       <c r="R4">
-        <v>1.315304776518132</v>
+        <v>1.209646806095526</v>
       </c>
       <c r="S4">
-        <v>1.119163688252411</v>
+        <v>1.016549351264176</v>
       </c>
       <c r="T4">
-        <v>1.315304776518132</v>
+        <v>1.209646806095526</v>
       </c>
       <c r="U4">
-        <v>1.260917332931164</v>
+        <v>1.131395934658791</v>
       </c>
       <c r="V4">
-        <v>1.345969519738415</v>
+        <v>1.200303884695559</v>
       </c>
       <c r="W4">
-        <v>1.16573298573613</v>
+        <v>1.052462448884967</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.998945314301973</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="D5">
-        <v>0.8035036515406726</v>
+        <v>0.8943613774597952</v>
       </c>
       <c r="E5">
-        <v>1.560750371328259</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="F5">
-        <v>2.998945314301973</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="G5">
-        <v>1.482887112052193</v>
+        <v>1.10721424757832</v>
       </c>
       <c r="H5">
-        <v>1.416650773140346</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="I5">
-        <v>2.998945314302207</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="J5">
-        <v>0.8035036515406726</v>
+        <v>0.940886005301752</v>
       </c>
       <c r="K5">
-        <v>1.17830050477431</v>
+        <v>1.04531019748998</v>
       </c>
       <c r="L5">
-        <v>1.323371493055217</v>
+        <v>1.702349417201398</v>
       </c>
       <c r="M5">
-        <v>1.297113880049342</v>
+        <v>0.8484052992702666</v>
       </c>
       <c r="N5">
-        <v>2.998945314301973</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="O5">
-        <v>1.560750371328259</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="P5">
-        <v>1.182127011434466</v>
+        <v>1.590476226058864</v>
       </c>
       <c r="Q5">
-        <v>1.521818741690226</v>
+        <v>1.637283210425507</v>
       </c>
       <c r="R5">
-        <v>1.787733112390302</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="S5">
-        <v>1.282380378307041</v>
+        <v>1.37394615247316</v>
       </c>
       <c r="T5">
-        <v>1.787733112390302</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="U5">
-        <v>1.711521612305774</v>
+        <v>1.307263176249448</v>
       </c>
       <c r="V5">
-        <v>1.969006352705014</v>
+        <v>1.267253390515221</v>
       </c>
       <c r="W5">
-        <v>1.507690387530289</v>
+        <v>1.214934874552404</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.150900724646554</v>
+        <v>0.4072161854245755</v>
       </c>
       <c r="D6">
-        <v>0.6038765989628799</v>
+        <v>0.4626544234941311</v>
       </c>
       <c r="E6">
-        <v>1.474142240399877</v>
+        <v>12.95885292821177</v>
       </c>
       <c r="F6">
-        <v>5.150900724646554</v>
+        <v>0.4072161854245755</v>
       </c>
       <c r="G6">
-        <v>1.58638547199299</v>
+        <v>0.4877374970730486</v>
       </c>
       <c r="H6">
-        <v>0.9846245977449524</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="I6">
-        <v>5.150900724646554</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="J6">
-        <v>0.6038765989628799</v>
+        <v>0.4805999106342217</v>
       </c>
       <c r="K6">
-        <v>0.9340581655110032</v>
+        <v>0.5688451351957167</v>
       </c>
       <c r="L6">
-        <v>1.395344457939217</v>
+        <v>6.988901127473616</v>
       </c>
       <c r="M6">
-        <v>0.6131593514598487</v>
+        <v>0.4221356968971748</v>
       </c>
       <c r="N6">
-        <v>5.150900724646554</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="O6">
-        <v>1.474142240399877</v>
+        <v>12.95885292821177</v>
       </c>
       <c r="P6">
-        <v>1.039009419681378</v>
+        <v>6.683034556818175</v>
       </c>
       <c r="Q6">
-        <v>1.530263856196433</v>
+        <v>6.719726419422998</v>
       </c>
       <c r="R6">
-        <v>2.40963985466977</v>
+        <v>4.617935536903119</v>
       </c>
       <c r="S6">
-        <v>1.221468103785249</v>
+        <v>4.615556341423524</v>
       </c>
       <c r="T6">
-        <v>2.40963985466977</v>
+        <v>4.617935536903119</v>
       </c>
       <c r="U6">
-        <v>2.203826259000575</v>
+        <v>3.583601630335895</v>
       </c>
       <c r="V6">
-        <v>2.793241152129771</v>
+        <v>2.964428803683318</v>
       </c>
       <c r="W6">
-        <v>1.592811451082165</v>
+        <v>2.847117863050527</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.014279524926882</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="D7">
-        <v>1.020782392992908</v>
+        <v>1.013289896597877</v>
       </c>
       <c r="E7">
-        <v>1.05043753388625</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="F7">
-        <v>1.014279524926882</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="G7">
-        <v>1.01630311102318</v>
+        <v>1.268812434201372</v>
       </c>
       <c r="H7">
-        <v>1.004794174419303</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="I7">
-        <v>1.014279524926922</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="J7">
-        <v>1.020782392992908</v>
+        <v>1.048719237962304</v>
       </c>
       <c r="K7">
-        <v>1.002278159386116</v>
+        <v>1.016313834221601</v>
       </c>
       <c r="L7">
-        <v>1.034479510791541</v>
+        <v>1.037992632145066</v>
       </c>
       <c r="M7">
-        <v>1.005473826637682</v>
+        <v>1.024315637186697</v>
       </c>
       <c r="N7">
-        <v>1.014279524926882</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="O7">
-        <v>1.05043753388625</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="P7">
-        <v>1.035609963439579</v>
+        <v>1.071759755197609</v>
       </c>
       <c r="Q7">
-        <v>1.033370322454715</v>
+        <v>1.061632199257782</v>
       </c>
       <c r="R7">
-        <v>1.02849981726868</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="S7">
-        <v>1.029174345967446</v>
+        <v>1.064079582785841</v>
       </c>
       <c r="T7">
-        <v>1.02849981726868</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="U7">
-        <v>1.025450640707305</v>
+        <v>1.115262795639709</v>
       </c>
       <c r="V7">
-        <v>1.02321641755122</v>
+        <v>1.14597272335203</v>
       </c>
       <c r="W7">
-        <v>1.018603529257982</v>
+        <v>1.06912039783876</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.032025649827258</v>
+        <v>1.014218039658297</v>
       </c>
       <c r="D8">
-        <v>1.019969261478738</v>
+        <v>0.9977814299424265</v>
       </c>
       <c r="E8">
-        <v>1.0638526727334</v>
+        <v>1.031854827926251</v>
       </c>
       <c r="F8">
-        <v>1.032025649827258</v>
+        <v>1.014218039658297</v>
       </c>
       <c r="G8">
-        <v>1.015863975491285</v>
+        <v>1.03312887704764</v>
       </c>
       <c r="H8">
-        <v>1.004514262673153</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="I8">
-        <v>1.032025649827329</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="J8">
-        <v>1.019969261478738</v>
+        <v>1.027444521228218</v>
       </c>
       <c r="K8">
-        <v>0.9993976192047413</v>
+        <v>1.024673839627991</v>
       </c>
       <c r="L8">
-        <v>1.051339339657861</v>
+        <v>1.049431137428959</v>
       </c>
       <c r="M8">
-        <v>1.002243141468686</v>
+        <v>1.003691269610012</v>
       </c>
       <c r="N8">
-        <v>1.032025649827258</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="O8">
-        <v>1.0638526727334</v>
+        <v>1.031854827926251</v>
       </c>
       <c r="P8">
-        <v>1.041910967106069</v>
+        <v>1.023036433792274</v>
       </c>
       <c r="Q8">
-        <v>1.039858324112342</v>
+        <v>1.029649674577235</v>
       </c>
       <c r="R8">
-        <v>1.038615861346465</v>
+        <v>1.026400581544053</v>
       </c>
       <c r="S8">
-        <v>1.033228636567808</v>
+        <v>1.024505796270922</v>
       </c>
       <c r="T8">
-        <v>1.038615861346465</v>
+        <v>1.026400581544053</v>
       </c>
       <c r="U8">
-        <v>1.03292788988267</v>
+        <v>1.026661566465094</v>
       </c>
       <c r="V8">
-        <v>1.032747441871587</v>
+        <v>1.027955028581597</v>
       </c>
       <c r="W8">
-        <v>1.02365074031689</v>
+        <v>1.022777992808721</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.113666823939294</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="D9">
-        <v>0.9805923771529353</v>
+        <v>1.014468768372825</v>
       </c>
       <c r="E9">
-        <v>1.051106368911599</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="F9">
-        <v>1.113666823939294</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="G9">
-        <v>1.009211454323943</v>
+        <v>1.686178266967382</v>
       </c>
       <c r="H9">
-        <v>0.9965616931948778</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="I9">
-        <v>1.113666823939429</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="J9">
-        <v>0.9805923771529353</v>
+        <v>1.097755002170258</v>
       </c>
       <c r="K9">
-        <v>1.005974334142825</v>
+        <v>1.065621598590228</v>
       </c>
       <c r="L9">
-        <v>1.089732723722455</v>
+        <v>1.105001541460698</v>
       </c>
       <c r="M9">
-        <v>0.9771410571568387</v>
+        <v>1.097102645740636</v>
       </c>
       <c r="N9">
-        <v>1.113666823939294</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="O9">
-        <v>1.051106368911599</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="P9">
-        <v>1.015849373032267</v>
+        <v>1.129868031293488</v>
       </c>
       <c r="Q9">
-        <v>1.030158911617771</v>
+        <v>1.11711470202901</v>
       </c>
       <c r="R9">
-        <v>1.048455190001276</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="S9">
-        <v>1.013636733462826</v>
+        <v>1.119163688252411</v>
       </c>
       <c r="T9">
-        <v>1.048455190001276</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="U9">
-        <v>1.038644256081943</v>
+        <v>1.260917332931164</v>
       </c>
       <c r="V9">
-        <v>1.053648769653413</v>
+        <v>1.345969519738415</v>
       </c>
       <c r="W9">
-        <v>1.027998354068096</v>
+        <v>1.16573298573613</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.153043768776616</v>
+        <v>0.3990805751782115</v>
       </c>
       <c r="D10">
-        <v>0.9961185075278891</v>
+        <v>0.4575368546920344</v>
       </c>
       <c r="E10">
-        <v>1.113410716123466</v>
+        <v>13.13958242175579</v>
       </c>
       <c r="F10">
-        <v>1.153043768776616</v>
+        <v>0.3990805751782115</v>
       </c>
       <c r="G10">
-        <v>1.068277368362553</v>
+        <v>0.4453546595630543</v>
       </c>
       <c r="H10">
-        <v>1.050634015553146</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="I10">
-        <v>1.153043768776633</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="J10">
-        <v>0.9961185075278891</v>
+        <v>0.4427585631377953</v>
       </c>
       <c r="K10">
-        <v>1.00255550765708</v>
+        <v>0.5609984529968453</v>
       </c>
       <c r="L10">
-        <v>1.118393938755786</v>
+        <v>7.067851933636023</v>
       </c>
       <c r="M10">
-        <v>1.060080962243448</v>
+        <v>0.4242296281722702</v>
       </c>
       <c r="N10">
-        <v>1.153043768776616</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="O10">
-        <v>1.113410716123466</v>
+        <v>13.13958242175579</v>
       </c>
       <c r="P10">
-        <v>1.054764611825677</v>
+        <v>6.769331498467002</v>
       </c>
       <c r="Q10">
-        <v>1.090844042243009</v>
+        <v>6.791170492446794</v>
       </c>
       <c r="R10">
-        <v>1.087524330809323</v>
+        <v>4.661339218832362</v>
       </c>
       <c r="S10">
-        <v>1.059268864004636</v>
+        <v>4.660473853357266</v>
       </c>
       <c r="T10">
-        <v>1.087524330809324</v>
+        <v>4.661339218832361</v>
       </c>
       <c r="U10">
-        <v>1.082712590197631</v>
+        <v>3.60669405490872</v>
       </c>
       <c r="V10">
-        <v>1.096778825913428</v>
+        <v>2.974426175839592</v>
       </c>
       <c r="W10">
-        <v>1.070314348124998</v>
+        <v>2.867174136141506</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.389559865665661</v>
+        <v>1.077539416473931</v>
       </c>
       <c r="D11">
-        <v>0.9093481934521535</v>
+        <v>0.8736958324369203</v>
       </c>
       <c r="E11">
-        <v>1.182242960961421</v>
+        <v>1.312819694627136</v>
       </c>
       <c r="F11">
-        <v>1.389559865665661</v>
+        <v>1.077539416473931</v>
       </c>
       <c r="G11">
-        <v>1.003357739975569</v>
+        <v>1.337662299705041</v>
       </c>
       <c r="H11">
-        <v>0.9358568324571206</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="I11">
-        <v>1.389559865665609</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="J11">
-        <v>0.9093481934521535</v>
+        <v>0.9735381498723993</v>
       </c>
       <c r="K11">
-        <v>1.069314378052283</v>
+        <v>1.150945335421396</v>
       </c>
       <c r="L11">
-        <v>1.196289329811647</v>
+        <v>1.040347869114696</v>
       </c>
       <c r="M11">
-        <v>0.9379495602588567</v>
+        <v>0.9649432725331392</v>
       </c>
       <c r="N11">
-        <v>1.389559865665661</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="O11">
-        <v>1.182242960961421</v>
+        <v>1.312819694627136</v>
       </c>
       <c r="P11">
-        <v>1.045795577206787</v>
+        <v>1.195179555550533</v>
       </c>
       <c r="Q11">
-        <v>1.092800350468495</v>
+        <v>1.143178922249768</v>
       </c>
       <c r="R11">
-        <v>1.160383673359745</v>
+        <v>1.242673803602008</v>
       </c>
       <c r="S11">
-        <v>1.031649631463048</v>
+        <v>1.121299086991155</v>
       </c>
       <c r="T11">
-        <v>1.160383673359745</v>
+        <v>1.242673803602008</v>
       </c>
       <c r="U11">
-        <v>1.121127190013701</v>
+        <v>1.175389890169606</v>
       </c>
       <c r="V11">
-        <v>1.174813725144093</v>
+        <v>1.207844372076676</v>
       </c>
       <c r="W11">
-        <v>1.077989857579339</v>
+        <v>1.091436483773072</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.085103281104211</v>
+        <v>0.7881507963573066</v>
       </c>
       <c r="D12">
-        <v>2.037685975882392</v>
+        <v>0.8936110017246539</v>
       </c>
       <c r="E12">
-        <v>0.01382368003292265</v>
+        <v>2.944964303790573</v>
       </c>
       <c r="F12">
-        <v>1.085103281104211</v>
+        <v>0.7881507963573066</v>
       </c>
       <c r="G12">
-        <v>1.110564842061192</v>
+        <v>0.8957762954179183</v>
       </c>
       <c r="H12">
-        <v>0.7990587933215534</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="I12">
-        <v>1.085103281104211</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="J12">
-        <v>2.037685975882392</v>
+        <v>0.8797976769428498</v>
       </c>
       <c r="K12">
-        <v>0.8279155941611234</v>
+        <v>0.9920023718870022</v>
       </c>
       <c r="L12">
-        <v>1.516354569817135</v>
+        <v>1.954343529880533</v>
       </c>
       <c r="M12">
-        <v>1.431046782716955</v>
+        <v>0.8357725819314555</v>
       </c>
       <c r="N12">
-        <v>1.085103281104211</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="O12">
-        <v>0.01382368003292265</v>
+        <v>2.944964303790573</v>
       </c>
       <c r="P12">
-        <v>1.025754827957657</v>
+        <v>1.86655755007394</v>
       </c>
       <c r="Q12">
-        <v>0.5621942610470572</v>
+        <v>1.912380990366711</v>
       </c>
       <c r="R12">
-        <v>1.045537645673175</v>
+        <v>1.54296379852194</v>
       </c>
       <c r="S12">
-        <v>1.054024832658836</v>
+        <v>1.537637592363576</v>
       </c>
       <c r="T12">
-        <v>1.045537645673175</v>
+        <v>1.54296379852194</v>
       </c>
       <c r="U12">
-        <v>1.061794444770179</v>
+        <v>1.377172268127168</v>
       </c>
       <c r="V12">
-        <v>1.066456212036986</v>
+        <v>1.280893073585322</v>
       </c>
       <c r="W12">
-        <v>1.102694189887185</v>
+        <v>1.273052319741539</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.254952777915118</v>
+        <v>1.111874411127803</v>
       </c>
       <c r="D13">
-        <v>1.36278598766219</v>
+        <v>1.10169621435322</v>
       </c>
       <c r="E13">
-        <v>1.32448785381083</v>
+        <v>1.023810868336495</v>
       </c>
       <c r="F13">
-        <v>1.254952777915118</v>
+        <v>1.111874411127803</v>
       </c>
       <c r="G13">
-        <v>0.9680895821962082</v>
+        <v>0.9254708680309355</v>
       </c>
       <c r="H13">
-        <v>1.012327369603731</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="I13">
-        <v>1.254952777912733</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="J13">
-        <v>1.36278598766219</v>
+        <v>0.9828050236738821</v>
       </c>
       <c r="K13">
-        <v>0.9470081478523766</v>
+        <v>0.9421293605751482</v>
       </c>
       <c r="L13">
-        <v>0.6714741746258702</v>
+        <v>1.02396714637614</v>
       </c>
       <c r="M13">
-        <v>0.9906485925220473</v>
+        <v>1.126516474644453</v>
       </c>
       <c r="N13">
-        <v>1.254952777915118</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="O13">
-        <v>1.32448785381083</v>
+        <v>1.023810868336495</v>
       </c>
       <c r="P13">
-        <v>1.34363692073651</v>
+        <v>1.067842639732149</v>
       </c>
       <c r="Q13">
-        <v>1.146288718003519</v>
+        <v>1.003307946005188</v>
       </c>
       <c r="R13">
-        <v>1.314075539796046</v>
+        <v>1.020385382498411</v>
       </c>
       <c r="S13">
-        <v>1.218454474556409</v>
+        <v>1.039496767712727</v>
       </c>
       <c r="T13">
-        <v>1.314075539796046</v>
+        <v>1.020385382498411</v>
       </c>
       <c r="U13">
-        <v>1.227579050396087</v>
+        <v>1.010990292792279</v>
       </c>
       <c r="V13">
-        <v>1.233053795899893</v>
+        <v>0.9938864078400103</v>
       </c>
       <c r="W13">
-        <v>1.066471810773546</v>
+        <v>1.02978379588976</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.001183448874899454</v>
+        <v>0.003486342899999996</v>
       </c>
       <c r="D14">
-        <v>-0.0006555618276356262</v>
+        <v>0.003768913600000003</v>
       </c>
       <c r="E14">
-        <v>1.556078684055315</v>
+        <v>24.23206400000002</v>
       </c>
       <c r="F14">
-        <v>-0.001183448874899454</v>
+        <v>0.003486342899999996</v>
       </c>
       <c r="G14">
-        <v>0.4919357254895745</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="H14">
-        <v>1.336379049002234</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="I14">
-        <v>-0.001183448875224</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="J14">
-        <v>-0.0006555618276356262</v>
+        <v>-0.007459152600000006</v>
       </c>
       <c r="K14">
-        <v>1.57879164762102</v>
+        <v>0.08685238600000006</v>
       </c>
       <c r="L14">
-        <v>1.322722078494317</v>
+        <v>12.58644100000001</v>
       </c>
       <c r="M14">
-        <v>0.8095485781418045</v>
+        <v>0.001306492199999999</v>
       </c>
       <c r="N14">
-        <v>-0.001183448874899454</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="O14">
-        <v>1.556078684055315</v>
+        <v>24.23206400000002</v>
       </c>
       <c r="P14">
-        <v>0.7777115611138398</v>
+        <v>12.11777517145001</v>
       </c>
       <c r="Q14">
-        <v>1.024007204772445</v>
+        <v>12.11230242370001</v>
       </c>
       <c r="R14">
-        <v>0.5180798911175933</v>
+        <v>8.077390830933341</v>
       </c>
       <c r="S14">
-        <v>0.6824529492390847</v>
+        <v>8.076030396766674</v>
       </c>
       <c r="T14">
-        <v>0.5180798911175933</v>
+        <v>8.077390830933341</v>
       </c>
       <c r="U14">
-        <v>0.5115438497105886</v>
+        <v>6.056178335050006</v>
       </c>
       <c r="V14">
-        <v>0.408998389993491</v>
+        <v>4.844267098020004</v>
       </c>
       <c r="W14">
-        <v>0.8867020940127162</v>
+        <v>4.612885266500005</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.543927036663438</v>
+        <v>0.0065327998</v>
       </c>
       <c r="D15">
-        <v>2.547537330760674</v>
+        <v>0.0051831993</v>
       </c>
       <c r="E15">
-        <v>0.7748454085804234</v>
+        <v>0.0026242476</v>
       </c>
       <c r="F15">
-        <v>0.543927036663438</v>
+        <v>0.0065327998</v>
       </c>
       <c r="G15">
-        <v>1.230134294454838</v>
+        <v>36.364562</v>
       </c>
       <c r="H15">
-        <v>0.9002960613236163</v>
+        <v>36.364562</v>
       </c>
       <c r="I15">
-        <v>0.5439270366634615</v>
+        <v>36.364562</v>
       </c>
       <c r="J15">
-        <v>2.547537330760674</v>
+        <v>-0.00045626094</v>
       </c>
       <c r="K15">
-        <v>0.623661668337403</v>
+        <v>-3.7608893E-05</v>
       </c>
       <c r="L15">
-        <v>1.087444563150505</v>
+        <v>13.368178</v>
       </c>
       <c r="M15">
-        <v>1.400104085713833</v>
+        <v>0.0014180531</v>
       </c>
       <c r="N15">
-        <v>0.543927036663438</v>
+        <v>36.364562</v>
       </c>
       <c r="O15">
-        <v>0.7748454085804234</v>
+        <v>0.0026242476</v>
       </c>
       <c r="P15">
-        <v>1.661191369670548</v>
+        <v>0.0045785237</v>
       </c>
       <c r="Q15">
-        <v>1.002489851517631</v>
+        <v>0.00108399333</v>
       </c>
       <c r="R15">
-        <v>1.288769925334845</v>
+        <v>12.1245730158</v>
       </c>
       <c r="S15">
-        <v>1.517505677931978</v>
+        <v>0.002900262153333333</v>
       </c>
       <c r="T15">
-        <v>1.288769925334845</v>
+        <v>12.1245730158</v>
       </c>
       <c r="U15">
-        <v>1.274111017614843</v>
+        <v>9.093315696614999</v>
       </c>
       <c r="V15">
-        <v>1.128074221424562</v>
+        <v>14.547564957292</v>
       </c>
       <c r="W15">
-        <v>1.138493806123091</v>
+        <v>6.218500553745875</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9930317660700989</v>
+        <v>-0.0014647261</v>
       </c>
       <c r="D16">
-        <v>1.045754003228946</v>
+        <v>0.0025153522</v>
       </c>
       <c r="E16">
-        <v>1.046599394072951</v>
+        <v>24.232307</v>
       </c>
       <c r="F16">
-        <v>0.9930317660700989</v>
+        <v>-0.0014647261</v>
       </c>
       <c r="G16">
-        <v>1.005993945917118</v>
+        <v>36.350991</v>
       </c>
       <c r="H16">
-        <v>1.005338521174965</v>
+        <v>36.350991</v>
       </c>
       <c r="I16">
-        <v>0.9930317660701412</v>
+        <v>36.350991</v>
       </c>
       <c r="J16">
-        <v>1.045754003228946</v>
+        <v>-0.0014501527</v>
       </c>
       <c r="K16">
-        <v>1.000022587912038</v>
+        <v>0.49074247</v>
       </c>
       <c r="L16">
-        <v>1.02597856356619</v>
+        <v>-0.0021292792</v>
       </c>
       <c r="M16">
-        <v>1.003412302893086</v>
+        <v>0.0024510638</v>
       </c>
       <c r="N16">
-        <v>0.9930317660700989</v>
+        <v>36.350991</v>
       </c>
       <c r="O16">
-        <v>1.046599394072951</v>
+        <v>24.232307</v>
       </c>
       <c r="P16">
-        <v>1.046176698650949</v>
+        <v>12.11542113695</v>
       </c>
       <c r="Q16">
-        <v>1.026296669995035</v>
+        <v>12.11542842365</v>
       </c>
       <c r="R16">
-        <v>1.028461721123999</v>
+        <v>20.19394442463333</v>
       </c>
       <c r="S16">
-        <v>1.032782447739672</v>
+        <v>8.076464040400001</v>
       </c>
       <c r="T16">
-        <v>1.028461721123999</v>
+        <v>20.19394442463333</v>
       </c>
       <c r="U16">
-        <v>1.022844777322279</v>
+        <v>15.1450957803</v>
       </c>
       <c r="V16">
-        <v>1.016882175071843</v>
+        <v>19.38627482424</v>
       </c>
       <c r="W16">
-        <v>1.015766385604424</v>
+        <v>7.634245341000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.033128877047608</v>
+        <v>0.0021201239</v>
       </c>
       <c r="D17">
-        <v>1.014218039658297</v>
+        <v>5.8177583</v>
       </c>
       <c r="E17">
-        <v>1.031854827926252</v>
+        <v>0.0020580355</v>
       </c>
       <c r="F17">
-        <v>1.033128877047608</v>
+        <v>0.0021201239</v>
       </c>
       <c r="G17">
-        <v>1.027444521228217</v>
+        <v>9.720411299999998E-05</v>
       </c>
       <c r="H17">
-        <v>1.02467383962799</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="I17">
-        <v>1.033128877047637</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="J17">
-        <v>1.014218039658297</v>
+        <v>0.12726812</v>
       </c>
       <c r="K17">
-        <v>0.997781429942427</v>
+        <v>0.018330701</v>
       </c>
       <c r="L17">
-        <v>1.049431137428959</v>
+        <v>12.120315</v>
       </c>
       <c r="M17">
-        <v>1.003691269610011</v>
+        <v>-0.0048231194</v>
       </c>
       <c r="N17">
-        <v>1.033128877047608</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="O17">
-        <v>1.031854827926252</v>
+        <v>0.0020580355</v>
       </c>
       <c r="P17">
-        <v>1.023036433792274</v>
+        <v>0.0020890797</v>
       </c>
       <c r="Q17">
-        <v>1.029649674577235</v>
+        <v>0.06466307775000001</v>
       </c>
       <c r="R17">
-        <v>1.026400581544052</v>
+        <v>0.001425121170666666</v>
       </c>
       <c r="S17">
-        <v>1.024505796270922</v>
+        <v>0.04381542646666667</v>
       </c>
       <c r="T17">
-        <v>1.026400581544052</v>
+        <v>0.001425121170666667</v>
       </c>
       <c r="U17">
-        <v>1.026661566465094</v>
+        <v>0.032885870878</v>
       </c>
       <c r="V17">
-        <v>1.027955028581597</v>
+        <v>0.0263281375248</v>
       </c>
       <c r="W17">
-        <v>1.02277799280872</v>
+        <v>2.260390545639</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.271016331724248</v>
+        <v>1.490555404397096</v>
       </c>
       <c r="D18">
-        <v>0.9989045672067561</v>
+        <v>1.301509098482466</v>
       </c>
       <c r="E18">
-        <v>1.156519600683584</v>
+        <v>1.568651886766028</v>
       </c>
       <c r="F18">
-        <v>1.271016331724248</v>
+        <v>1.490555404397096</v>
       </c>
       <c r="G18">
-        <v>1.238808591886396</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="H18">
-        <v>1.190281120582882</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="I18">
-        <v>1.271016331724812</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="J18">
-        <v>0.9989045672067561</v>
+        <v>1.519688402551497</v>
       </c>
       <c r="K18">
-        <v>1.104982547315714</v>
+        <v>1.207800987214808</v>
       </c>
       <c r="L18">
-        <v>1.219612997708765</v>
+        <v>1.348567171463014</v>
       </c>
       <c r="M18">
-        <v>1.156144875420884</v>
+        <v>1.131920610870356</v>
       </c>
       <c r="N18">
-        <v>1.271016331724248</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="O18">
-        <v>1.156519600683584</v>
+        <v>1.568651886766028</v>
       </c>
       <c r="P18">
-        <v>1.07771208394517</v>
+        <v>1.529603645581562</v>
       </c>
       <c r="Q18">
-        <v>1.19766409628499</v>
+        <v>1.544170144658762</v>
       </c>
       <c r="R18">
-        <v>1.142146833204863</v>
+        <v>3.29261950242241</v>
       </c>
       <c r="S18">
-        <v>1.131410919925579</v>
+        <v>1.52629856457154</v>
       </c>
       <c r="T18">
-        <v>1.142146833204863</v>
+        <v>3.29261950242241</v>
       </c>
       <c r="U18">
-        <v>1.166312272875246</v>
+        <v>2.849386727454682</v>
       </c>
       <c r="V18">
-        <v>1.187253084645046</v>
+        <v>3.643239625184567</v>
       </c>
       <c r="W18">
-        <v>1.167033829066153</v>
+        <v>2.048418097231172</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.322858654502681</v>
+        <v>0.0007154360499999998</v>
       </c>
       <c r="D19">
-        <v>0.9299301282365438</v>
+        <v>1.439765959178947</v>
       </c>
       <c r="E19">
-        <v>1.141436932597613</v>
+        <v>4.561942531212633</v>
       </c>
       <c r="F19">
-        <v>1.322858654502681</v>
+        <v>0.0007154360499999998</v>
       </c>
       <c r="G19">
-        <v>0.9217167611628606</v>
+        <v>2.712489603587526</v>
       </c>
       <c r="H19">
-        <v>1.264343875698693</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="I19">
-        <v>1.322858654503707</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="J19">
-        <v>0.9299301282365438</v>
+        <v>1.241506489702631</v>
       </c>
       <c r="K19">
-        <v>0.958494148911755</v>
+        <v>0.6358413865097368</v>
       </c>
       <c r="L19">
-        <v>1.035113471014812</v>
+        <v>1.91654952527158</v>
       </c>
       <c r="M19">
-        <v>1.160800418935274</v>
+        <v>0.002665913105263158</v>
       </c>
       <c r="N19">
-        <v>1.322858654502681</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="O19">
-        <v>1.141436932597613</v>
+        <v>4.561942531212633</v>
       </c>
       <c r="P19">
-        <v>1.035683530417078</v>
+        <v>2.281328983631317</v>
       </c>
       <c r="Q19">
-        <v>1.031576846880237</v>
+        <v>2.901724510457632</v>
       </c>
       <c r="R19">
-        <v>1.131408571778946</v>
+        <v>2.425049190283369</v>
       </c>
       <c r="S19">
-        <v>0.9976946073323391</v>
+        <v>1.934721485655088</v>
       </c>
       <c r="T19">
-        <v>1.131408571778946</v>
+        <v>2.425049190283369</v>
       </c>
       <c r="U19">
-        <v>1.078985619124925</v>
+        <v>2.129163515138185</v>
       </c>
       <c r="V19">
-        <v>1.127760226200476</v>
+        <v>2.245828732828042</v>
       </c>
       <c r="W19">
-        <v>1.091836798882529</v>
+        <v>1.563934605577283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.433951839293684</v>
+      </c>
+      <c r="D20">
+        <v>0.3973237086721052</v>
+      </c>
+      <c r="E20">
+        <v>3.970252081465632</v>
+      </c>
+      <c r="F20">
+        <v>1.433951839293684</v>
+      </c>
+      <c r="G20">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="H20">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="I20">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="J20">
+        <v>1.004975474790527</v>
+      </c>
+      <c r="K20">
+        <v>1.99780471367721</v>
+      </c>
+      <c r="L20">
+        <v>2.918030343973685</v>
+      </c>
+      <c r="M20">
+        <v>0.9042906301021054</v>
+      </c>
+      <c r="N20">
+        <v>3.763980284148421</v>
+      </c>
+      <c r="O20">
+        <v>3.970252081465632</v>
+      </c>
+      <c r="P20">
+        <v>2.702101960379658</v>
+      </c>
+      <c r="Q20">
+        <v>2.487613778128079</v>
+      </c>
+      <c r="R20">
+        <v>3.056061401635913</v>
+      </c>
+      <c r="S20">
+        <v>2.136393131849948</v>
+      </c>
+      <c r="T20">
+        <v>3.056061401635913</v>
+      </c>
+      <c r="U20">
+        <v>2.543289919924566</v>
+      </c>
+      <c r="V20">
+        <v>2.787427992769337</v>
+      </c>
+      <c r="W20">
+        <v>2.048826134515422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="D21">
+        <v>1.578791647621019</v>
+      </c>
+      <c r="E21">
+        <v>1.556078684055316</v>
+      </c>
+      <c r="F21">
+        <v>-0.0006555618276356246</v>
+      </c>
+      <c r="G21">
+        <v>-0.001183448875224</v>
+      </c>
+      <c r="H21">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="I21">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="J21">
+        <v>0.4919357254895746</v>
+      </c>
+      <c r="K21">
+        <v>1.336379049002233</v>
+      </c>
+      <c r="L21">
+        <v>1.322722078494317</v>
+      </c>
+      <c r="M21">
+        <v>0.8095485781418048</v>
+      </c>
+      <c r="N21">
+        <v>-0.001183448874899454</v>
+      </c>
+      <c r="O21">
+        <v>1.556078684055316</v>
+      </c>
+      <c r="P21">
+        <v>0.77771156111384</v>
+      </c>
+      <c r="Q21">
+        <v>1.024007204772445</v>
+      </c>
+      <c r="R21">
+        <v>0.5180798911175936</v>
+      </c>
+      <c r="S21">
+        <v>0.6824529492390848</v>
+      </c>
+      <c r="T21">
+        <v>0.5180798911175936</v>
+      </c>
+      <c r="U21">
+        <v>0.5115438497105889</v>
+      </c>
+      <c r="V21">
+        <v>0.4089983899934911</v>
+      </c>
+      <c r="W21">
+        <v>0.8867020940127162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.547537330760673</v>
+      </c>
+      <c r="D22">
+        <v>0.6236616683374028</v>
+      </c>
+      <c r="E22">
+        <v>0.7748454085804234</v>
+      </c>
+      <c r="F22">
+        <v>2.547537330760673</v>
+      </c>
+      <c r="G22">
+        <v>0.5439270366634615</v>
+      </c>
+      <c r="H22">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="I22">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="J22">
+        <v>1.230134294454838</v>
+      </c>
+      <c r="K22">
+        <v>0.9002960613236162</v>
+      </c>
+      <c r="L22">
+        <v>1.087444563150505</v>
+      </c>
+      <c r="M22">
+        <v>1.400104085713833</v>
+      </c>
+      <c r="N22">
+        <v>0.543927036663438</v>
+      </c>
+      <c r="O22">
+        <v>0.7748454085804234</v>
+      </c>
+      <c r="P22">
+        <v>1.661191369670548</v>
+      </c>
+      <c r="Q22">
+        <v>1.002489851517631</v>
+      </c>
+      <c r="R22">
+        <v>1.288769925334845</v>
+      </c>
+      <c r="S22">
+        <v>1.517505677931978</v>
+      </c>
+      <c r="T22">
+        <v>1.288769925334845</v>
+      </c>
+      <c r="U22">
+        <v>1.274111017614843</v>
+      </c>
+      <c r="V22">
+        <v>1.128074221424562</v>
+      </c>
+      <c r="W22">
+        <v>1.138493806123091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="D23">
+        <v>0.8279155941611227</v>
+      </c>
+      <c r="E23">
+        <v>0.01382368003292261</v>
+      </c>
+      <c r="F23">
+        <v>2.037685975882393</v>
+      </c>
+      <c r="G23">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="H23">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="I23">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="J23">
+        <v>1.110564842061191</v>
+      </c>
+      <c r="K23">
+        <v>0.7990587933215533</v>
+      </c>
+      <c r="L23">
+        <v>1.516354569817135</v>
+      </c>
+      <c r="M23">
+        <v>1.431046782716954</v>
+      </c>
+      <c r="N23">
+        <v>1.085103281104211</v>
+      </c>
+      <c r="O23">
+        <v>0.01382368003292261</v>
+      </c>
+      <c r="P23">
+        <v>1.025754827957658</v>
+      </c>
+      <c r="Q23">
+        <v>0.5621942610470569</v>
+      </c>
+      <c r="R23">
+        <v>1.045537645673176</v>
+      </c>
+      <c r="S23">
+        <v>1.054024832658836</v>
+      </c>
+      <c r="T23">
+        <v>1.045537645673176</v>
+      </c>
+      <c r="U23">
+        <v>1.061794444770179</v>
+      </c>
+      <c r="V23">
+        <v>1.066456212036986</v>
+      </c>
+      <c r="W23">
+        <v>1.102694189887185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.362785987662189</v>
+      </c>
+      <c r="D24">
+        <v>0.9470081478523769</v>
+      </c>
+      <c r="E24">
+        <v>1.324487853810829</v>
+      </c>
+      <c r="F24">
+        <v>1.362785987662189</v>
+      </c>
+      <c r="G24">
+        <v>1.254952777912734</v>
+      </c>
+      <c r="H24">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="I24">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="J24">
+        <v>0.9680895821962077</v>
+      </c>
+      <c r="K24">
+        <v>1.012327369603732</v>
+      </c>
+      <c r="L24">
+        <v>0.6714741746258701</v>
+      </c>
+      <c r="M24">
+        <v>0.9906485925220474</v>
+      </c>
+      <c r="N24">
+        <v>1.254952777915119</v>
+      </c>
+      <c r="O24">
+        <v>1.324487853810829</v>
+      </c>
+      <c r="P24">
+        <v>1.343636920736509</v>
+      </c>
+      <c r="Q24">
+        <v>1.146288718003518</v>
+      </c>
+      <c r="R24">
+        <v>1.314075539796046</v>
+      </c>
+      <c r="S24">
+        <v>1.218454474556409</v>
+      </c>
+      <c r="T24">
+        <v>1.314075539796046</v>
+      </c>
+      <c r="U24">
+        <v>1.227579050396086</v>
+      </c>
+      <c r="V24">
+        <v>1.233053795899893</v>
+      </c>
+      <c r="W24">
+        <v>1.066471810773546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8605320423641449</v>
+      </c>
+      <c r="D25">
+        <v>0.12335978992048</v>
+      </c>
+      <c r="E25">
+        <v>0.06390024745124458</v>
+      </c>
+      <c r="F25">
+        <v>0.8605320423641449</v>
+      </c>
+      <c r="G25">
+        <v>1.8881458927776</v>
+      </c>
+      <c r="H25">
+        <v>1.8881458927776</v>
+      </c>
+      <c r="I25">
+        <v>1.8881458927776</v>
+      </c>
+      <c r="J25">
+        <v>0.9054708177737485</v>
+      </c>
+      <c r="K25">
+        <v>0.7722404256841262</v>
+      </c>
+      <c r="L25">
+        <v>0.7450330594550122</v>
+      </c>
+      <c r="M25">
+        <v>1.000818842196958</v>
+      </c>
+      <c r="N25">
+        <v>1.8881458927776</v>
+      </c>
+      <c r="O25">
+        <v>0.06390024745124458</v>
+      </c>
+      <c r="P25">
+        <v>0.4622161449076947</v>
+      </c>
+      <c r="Q25">
+        <v>0.4846855326124965</v>
+      </c>
+      <c r="R25">
+        <v>0.9375260608643298</v>
+      </c>
+      <c r="S25">
+        <v>0.6099677025297127</v>
+      </c>
+      <c r="T25">
+        <v>0.9375260608643298</v>
+      </c>
+      <c r="U25">
+        <v>0.9295122500916845</v>
+      </c>
+      <c r="V25">
+        <v>1.121238978628867</v>
+      </c>
+      <c r="W25">
+        <v>0.7949376397029142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6577703392706956</v>
+      </c>
+      <c r="D26">
+        <v>1.860342434692149</v>
+      </c>
+      <c r="E26">
+        <v>0.9878800802984476</v>
+      </c>
+      <c r="F26">
+        <v>0.6577703392706956</v>
+      </c>
+      <c r="G26">
+        <v>0.3902687215950561</v>
+      </c>
+      <c r="H26">
+        <v>0.390268721594519</v>
+      </c>
+      <c r="I26">
+        <v>0.390268721594519</v>
+      </c>
+      <c r="J26">
+        <v>2.01624150211116</v>
+      </c>
+      <c r="K26">
+        <v>0.7849830130392492</v>
+      </c>
+      <c r="L26">
+        <v>0.3376470491469185</v>
+      </c>
+      <c r="M26">
+        <v>0.6437234002505205</v>
+      </c>
+      <c r="N26">
+        <v>0.390268721594519</v>
+      </c>
+      <c r="O26">
+        <v>0.9878800802984476</v>
+      </c>
+      <c r="P26">
+        <v>0.8228252097845716</v>
+      </c>
+      <c r="Q26">
+        <v>1.502060791204804</v>
+      </c>
+      <c r="R26">
+        <v>0.6786397137212208</v>
+      </c>
+      <c r="S26">
+        <v>1.220630640560101</v>
+      </c>
+      <c r="T26">
+        <v>0.6786397137212208</v>
+      </c>
+      <c r="U26">
+        <v>1.013040160818706</v>
+      </c>
+      <c r="V26">
+        <v>0.8884858729738683</v>
+      </c>
+      <c r="W26">
+        <v>0.9598570675504575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3.107381523293884</v>
+      </c>
+      <c r="D27">
+        <v>0.6843312168910993</v>
+      </c>
+      <c r="E27">
+        <v>4.023062719719338</v>
+      </c>
+      <c r="F27">
+        <v>3.107381523293884</v>
+      </c>
+      <c r="G27">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="H27">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="I27">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="J27">
+        <v>1.328042165013392</v>
+      </c>
+      <c r="K27">
+        <v>1.416219315389593</v>
+      </c>
+      <c r="L27">
+        <v>3.28671340537788</v>
+      </c>
+      <c r="M27">
+        <v>0.3185482963936344</v>
+      </c>
+      <c r="N27">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="O27">
+        <v>4.023062719719338</v>
+      </c>
+      <c r="P27">
+        <v>3.565222121506611</v>
+      </c>
+      <c r="Q27">
+        <v>2.675552442366365</v>
+      </c>
+      <c r="R27">
+        <v>2.447083014975055</v>
+      </c>
+      <c r="S27">
+        <v>2.819495469342205</v>
+      </c>
+      <c r="T27">
+        <v>2.447083014975055</v>
+      </c>
+      <c r="U27">
+        <v>2.167322802484639</v>
+      </c>
+      <c r="V27">
+        <v>1.7760192023701</v>
+      </c>
+      <c r="W27">
+        <v>1.796887930498845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9008651933117511</v>
+      </c>
+      <c r="D28">
+        <v>1.676059180364491</v>
+      </c>
+      <c r="E28">
+        <v>1.36262088208496</v>
+      </c>
+      <c r="F28">
+        <v>0.9008651933117511</v>
+      </c>
+      <c r="G28">
+        <v>1.918830720105829</v>
+      </c>
+      <c r="H28">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="I28">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="J28">
+        <v>0.860054184686283</v>
+      </c>
+      <c r="K28">
+        <v>1.61023862464205</v>
+      </c>
+      <c r="L28">
+        <v>1.722828461277409</v>
+      </c>
+      <c r="M28">
+        <v>1.40602723515503</v>
+      </c>
+      <c r="N28">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="O28">
+        <v>1.36262088208496</v>
+      </c>
+      <c r="P28">
+        <v>1.131743037698355</v>
+      </c>
+      <c r="Q28">
+        <v>1.111337533385621</v>
+      </c>
+      <c r="R28">
+        <v>1.394105598500555</v>
+      </c>
+      <c r="S28">
+        <v>1.041180086694331</v>
+      </c>
+      <c r="T28">
+        <v>1.394105598500555</v>
+      </c>
+      <c r="U28">
+        <v>1.260592745046987</v>
+      </c>
+      <c r="V28">
+        <v>1.392240340058581</v>
+      </c>
+      <c r="W28">
+        <v>1.432190560203366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.6910486152269546</v>
+      </c>
+      <c r="D29">
+        <v>2.197472418730094</v>
+      </c>
+      <c r="E29">
+        <v>-0.001673141195816055</v>
+      </c>
+      <c r="F29">
+        <v>0.6910486152269546</v>
+      </c>
+      <c r="G29">
+        <v>0.0008599192962644495</v>
+      </c>
+      <c r="H29">
+        <v>0.000859919294299211</v>
+      </c>
+      <c r="I29">
+        <v>0.000859919294299211</v>
+      </c>
+      <c r="J29">
+        <v>1.212480218680249</v>
+      </c>
+      <c r="K29">
+        <v>1.432754293932653</v>
+      </c>
+      <c r="L29">
+        <v>3.227596291717687</v>
+      </c>
+      <c r="M29">
+        <v>1.104033482220994</v>
+      </c>
+      <c r="N29">
+        <v>0.000859919294299211</v>
+      </c>
+      <c r="O29">
+        <v>-0.001673141195816055</v>
+      </c>
+      <c r="P29">
+        <v>0.3446877370155693</v>
+      </c>
+      <c r="Q29">
+        <v>0.6054035387422166</v>
+      </c>
+      <c r="R29">
+        <v>0.2300784644418126</v>
+      </c>
+      <c r="S29">
+        <v>0.6339518975704626</v>
+      </c>
+      <c r="T29">
+        <v>0.2300784644418126</v>
+      </c>
+      <c r="U29">
+        <v>0.4756789030014217</v>
+      </c>
+      <c r="V29">
+        <v>0.3807151062599973</v>
+      </c>
+      <c r="W29">
+        <v>1.233071512325889</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8014330909893265</v>
+        <v>0.8504883627377234</v>
       </c>
       <c r="D4">
-        <v>0.9034097545564952</v>
+        <v>0.9202821992972999</v>
       </c>
       <c r="E4">
-        <v>1.351571642454616</v>
+        <v>1.766218421295849</v>
       </c>
       <c r="F4">
-        <v>0.8014330909893265</v>
+        <v>0.8504883627377234</v>
       </c>
       <c r="G4">
-        <v>1.475935684842624</v>
+        <v>0.8828649458749206</v>
       </c>
       <c r="H4">
-        <v>1.475935684842635</v>
+        <v>0.8828649458749117</v>
       </c>
       <c r="I4">
-        <v>1.475935684842635</v>
+        <v>0.8828649458749117</v>
       </c>
       <c r="J4">
-        <v>0.8966433203485843</v>
+        <v>0.9455673715331205</v>
       </c>
       <c r="K4">
-        <v>1.165797353257091</v>
+        <v>1.058153971255633</v>
       </c>
       <c r="L4">
-        <v>1.013213773174193</v>
+        <v>1.408688568020527</v>
       </c>
       <c r="M4">
-        <v>0.8116949714567907</v>
+        <v>0.8666190068804516</v>
       </c>
       <c r="N4">
-        <v>1.475935684842635</v>
+        <v>0.8828649458749117</v>
       </c>
       <c r="O4">
-        <v>1.351571642454616</v>
+        <v>1.766218421295849</v>
       </c>
       <c r="P4">
-        <v>1.076502366721972</v>
+        <v>1.308353392016786</v>
       </c>
       <c r="Q4">
-        <v>1.1241074814016</v>
+        <v>1.355892896414485</v>
       </c>
       <c r="R4">
-        <v>1.209646806095526</v>
+        <v>1.166523909969495</v>
       </c>
       <c r="S4">
-        <v>1.016549351264176</v>
+        <v>1.187424718522231</v>
       </c>
       <c r="T4">
-        <v>1.209646806095526</v>
+        <v>1.166523909969495</v>
       </c>
       <c r="U4">
-        <v>1.131395934658791</v>
+        <v>1.111284775360401</v>
       </c>
       <c r="V4">
-        <v>1.200303884695559</v>
+        <v>1.065600809463303</v>
       </c>
       <c r="W4">
-        <v>1.052462448884967</v>
+        <v>1.087360355861939</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8472720365684668</v>
+        <v>1.583365550411374</v>
       </c>
       <c r="D5">
-        <v>0.8943613774597952</v>
+        <v>0.4384645455545183</v>
       </c>
       <c r="E5">
-        <v>2.333680415549261</v>
+        <v>3.032117886040465</v>
       </c>
       <c r="F5">
-        <v>0.8472720365684668</v>
+        <v>1.583365550411374</v>
       </c>
       <c r="G5">
-        <v>1.10721424757832</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="H5">
-        <v>1.107214247578312</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="I5">
-        <v>1.107214247578312</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="J5">
-        <v>0.940886005301752</v>
+        <v>1.097310259366113</v>
       </c>
       <c r="K5">
-        <v>1.04531019748998</v>
+        <v>2.10178377575004</v>
       </c>
       <c r="L5">
-        <v>1.702349417201398</v>
+        <v>2.188563281761665</v>
       </c>
       <c r="M5">
-        <v>0.8484052992702666</v>
+        <v>0.997834488934809</v>
       </c>
       <c r="N5">
-        <v>1.107214247578312</v>
+        <v>3.252219809860515</v>
       </c>
       <c r="O5">
-        <v>2.333680415549261</v>
+        <v>3.032117886040465</v>
       </c>
       <c r="P5">
-        <v>1.590476226058864</v>
+        <v>2.307741718225919</v>
       </c>
       <c r="Q5">
-        <v>1.637283210425507</v>
+        <v>2.064714072703289</v>
       </c>
       <c r="R5">
-        <v>1.42938889989868</v>
+        <v>2.622567748770785</v>
       </c>
       <c r="S5">
-        <v>1.37394615247316</v>
+        <v>1.90426456527265</v>
       </c>
       <c r="T5">
-        <v>1.42938889989868</v>
+        <v>2.622567748770785</v>
       </c>
       <c r="U5">
-        <v>1.307263176249448</v>
+        <v>2.241253376419616</v>
       </c>
       <c r="V5">
-        <v>1.267253390515221</v>
+        <v>2.443446663107796</v>
       </c>
       <c r="W5">
-        <v>1.214934874552404</v>
+        <v>1.836457449709938</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4072161854245755</v>
+        <v>0.8014330909893265</v>
       </c>
       <c r="D6">
-        <v>0.4626544234941311</v>
+        <v>0.9034097545564952</v>
       </c>
       <c r="E6">
-        <v>12.95885292821177</v>
+        <v>1.351571642454616</v>
       </c>
       <c r="F6">
-        <v>0.4072161854245755</v>
+        <v>0.8014330909893265</v>
       </c>
       <c r="G6">
-        <v>0.4877374970730486</v>
+        <v>1.475935684842624</v>
       </c>
       <c r="H6">
-        <v>0.4877374970730087</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="I6">
-        <v>0.4877374970730087</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="J6">
-        <v>0.4805999106342217</v>
+        <v>0.8966433203485843</v>
       </c>
       <c r="K6">
-        <v>0.5688451351957167</v>
+        <v>1.165797353257091</v>
       </c>
       <c r="L6">
-        <v>6.988901127473616</v>
+        <v>1.013213773174193</v>
       </c>
       <c r="M6">
-        <v>0.4221356968971748</v>
+        <v>0.8116949714567907</v>
       </c>
       <c r="N6">
-        <v>0.4877374970730087</v>
+        <v>1.475935684842635</v>
       </c>
       <c r="O6">
-        <v>12.95885292821177</v>
+        <v>1.351571642454616</v>
       </c>
       <c r="P6">
-        <v>6.683034556818175</v>
+        <v>1.076502366721972</v>
       </c>
       <c r="Q6">
-        <v>6.719726419422998</v>
+        <v>1.1241074814016</v>
       </c>
       <c r="R6">
-        <v>4.617935536903119</v>
+        <v>1.209646806095526</v>
       </c>
       <c r="S6">
-        <v>4.615556341423524</v>
+        <v>1.016549351264176</v>
       </c>
       <c r="T6">
-        <v>4.617935536903119</v>
+        <v>1.209646806095526</v>
       </c>
       <c r="U6">
-        <v>3.583601630335895</v>
+        <v>1.131395934658791</v>
       </c>
       <c r="V6">
-        <v>2.964428803683318</v>
+        <v>1.200303884695559</v>
       </c>
       <c r="W6">
-        <v>2.847117863050527</v>
+        <v>1.052462448884967</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.068974349841959</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="D7">
-        <v>1.013289896597877</v>
+        <v>0.8943613774597952</v>
       </c>
       <c r="E7">
-        <v>1.074545160553259</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="F7">
-        <v>1.068974349841959</v>
+        <v>0.8472720365684668</v>
       </c>
       <c r="G7">
-        <v>1.268812434201372</v>
+        <v>1.10721424757832</v>
       </c>
       <c r="H7">
-        <v>1.268812434201313</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="I7">
-        <v>1.268812434201313</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="J7">
-        <v>1.048719237962304</v>
+        <v>0.940886005301752</v>
       </c>
       <c r="K7">
-        <v>1.016313834221601</v>
+        <v>1.04531019748998</v>
       </c>
       <c r="L7">
-        <v>1.037992632145066</v>
+        <v>1.702349417201398</v>
       </c>
       <c r="M7">
-        <v>1.024315637186697</v>
+        <v>0.8484052992702666</v>
       </c>
       <c r="N7">
-        <v>1.268812434201313</v>
+        <v>1.107214247578312</v>
       </c>
       <c r="O7">
-        <v>1.074545160553259</v>
+        <v>2.333680415549261</v>
       </c>
       <c r="P7">
-        <v>1.071759755197609</v>
+        <v>1.590476226058864</v>
       </c>
       <c r="Q7">
-        <v>1.061632199257782</v>
+        <v>1.637283210425507</v>
       </c>
       <c r="R7">
-        <v>1.137443981532178</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="S7">
-        <v>1.064079582785841</v>
+        <v>1.37394615247316</v>
       </c>
       <c r="T7">
-        <v>1.137443981532178</v>
+        <v>1.42938889989868</v>
       </c>
       <c r="U7">
-        <v>1.115262795639709</v>
+        <v>1.307263176249448</v>
       </c>
       <c r="V7">
-        <v>1.14597272335203</v>
+        <v>1.267253390515221</v>
       </c>
       <c r="W7">
-        <v>1.06912039783876</v>
+        <v>1.214934874552404</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014218039658297</v>
+        <v>0.4072161854245755</v>
       </c>
       <c r="D8">
-        <v>0.9977814299424265</v>
+        <v>0.4626544234941311</v>
       </c>
       <c r="E8">
-        <v>1.031854827926251</v>
+        <v>12.95885292821177</v>
       </c>
       <c r="F8">
-        <v>1.014218039658297</v>
+        <v>0.4072161854245755</v>
       </c>
       <c r="G8">
-        <v>1.03312887704764</v>
+        <v>0.4877374970730486</v>
       </c>
       <c r="H8">
-        <v>1.033128877047611</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="I8">
-        <v>1.033128877047611</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="J8">
-        <v>1.027444521228218</v>
+        <v>0.4805999106342217</v>
       </c>
       <c r="K8">
-        <v>1.024673839627991</v>
+        <v>0.5688451351957167</v>
       </c>
       <c r="L8">
-        <v>1.049431137428959</v>
+        <v>6.988901127473616</v>
       </c>
       <c r="M8">
-        <v>1.003691269610012</v>
+        <v>0.4221356968971748</v>
       </c>
       <c r="N8">
-        <v>1.033128877047611</v>
+        <v>0.4877374970730087</v>
       </c>
       <c r="O8">
-        <v>1.031854827926251</v>
+        <v>12.95885292821177</v>
       </c>
       <c r="P8">
-        <v>1.023036433792274</v>
+        <v>6.683034556818175</v>
       </c>
       <c r="Q8">
-        <v>1.029649674577235</v>
+        <v>6.719726419422998</v>
       </c>
       <c r="R8">
-        <v>1.026400581544053</v>
+        <v>4.617935536903119</v>
       </c>
       <c r="S8">
-        <v>1.024505796270922</v>
+        <v>4.615556341423524</v>
       </c>
       <c r="T8">
-        <v>1.026400581544053</v>
+        <v>4.617935536903119</v>
       </c>
       <c r="U8">
-        <v>1.026661566465094</v>
+        <v>3.583601630335895</v>
       </c>
       <c r="V8">
-        <v>1.027955028581597</v>
+        <v>2.964428803683318</v>
       </c>
       <c r="W8">
-        <v>1.022777992808721</v>
+        <v>2.847117863050527</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.123261660699216</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="D9">
-        <v>1.014468768372825</v>
+        <v>1.013289896597877</v>
       </c>
       <c r="E9">
-        <v>1.13647440188776</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="F9">
-        <v>1.123261660699216</v>
+        <v>1.068974349841959</v>
       </c>
       <c r="G9">
-        <v>1.686178266967382</v>
+        <v>1.268812434201372</v>
       </c>
       <c r="H9">
-        <v>1.68617826696742</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="I9">
-        <v>1.68617826696742</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="J9">
-        <v>1.097755002170258</v>
+        <v>1.048719237962304</v>
       </c>
       <c r="K9">
-        <v>1.065621598590228</v>
+        <v>1.016313834221601</v>
       </c>
       <c r="L9">
-        <v>1.105001541460698</v>
+        <v>1.037992632145066</v>
       </c>
       <c r="M9">
-        <v>1.097102645740636</v>
+        <v>1.024315637186697</v>
       </c>
       <c r="N9">
-        <v>1.68617826696742</v>
+        <v>1.268812434201313</v>
       </c>
       <c r="O9">
-        <v>1.13647440188776</v>
+        <v>1.074545160553259</v>
       </c>
       <c r="P9">
-        <v>1.129868031293488</v>
+        <v>1.071759755197609</v>
       </c>
       <c r="Q9">
-        <v>1.11711470202901</v>
+        <v>1.061632199257782</v>
       </c>
       <c r="R9">
-        <v>1.315304776518132</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="S9">
-        <v>1.119163688252411</v>
+        <v>1.064079582785841</v>
       </c>
       <c r="T9">
-        <v>1.315304776518132</v>
+        <v>1.137443981532178</v>
       </c>
       <c r="U9">
-        <v>1.260917332931164</v>
+        <v>1.115262795639709</v>
       </c>
       <c r="V9">
-        <v>1.345969519738415</v>
+        <v>1.14597272335203</v>
       </c>
       <c r="W9">
-        <v>1.16573298573613</v>
+        <v>1.06912039783876</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3990805751782115</v>
+        <v>1.014218039658297</v>
       </c>
       <c r="D10">
-        <v>0.4575368546920344</v>
+        <v>0.9977814299424265</v>
       </c>
       <c r="E10">
-        <v>13.13958242175579</v>
+        <v>1.031854827926251</v>
       </c>
       <c r="F10">
-        <v>0.3990805751782115</v>
+        <v>1.014218039658297</v>
       </c>
       <c r="G10">
-        <v>0.4453546595630543</v>
+        <v>1.03312887704764</v>
       </c>
       <c r="H10">
-        <v>0.4453546595630808</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="I10">
-        <v>0.4453546595630808</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="J10">
-        <v>0.4427585631377953</v>
+        <v>1.027444521228218</v>
       </c>
       <c r="K10">
-        <v>0.5609984529968453</v>
+        <v>1.024673839627991</v>
       </c>
       <c r="L10">
-        <v>7.067851933636023</v>
+        <v>1.049431137428959</v>
       </c>
       <c r="M10">
-        <v>0.4242296281722702</v>
+        <v>1.003691269610012</v>
       </c>
       <c r="N10">
-        <v>0.4453546595630808</v>
+        <v>1.033128877047611</v>
       </c>
       <c r="O10">
-        <v>13.13958242175579</v>
+        <v>1.031854827926251</v>
       </c>
       <c r="P10">
-        <v>6.769331498467002</v>
+        <v>1.023036433792274</v>
       </c>
       <c r="Q10">
-        <v>6.791170492446794</v>
+        <v>1.029649674577235</v>
       </c>
       <c r="R10">
-        <v>4.661339218832362</v>
+        <v>1.026400581544053</v>
       </c>
       <c r="S10">
-        <v>4.660473853357266</v>
+        <v>1.024505796270922</v>
       </c>
       <c r="T10">
-        <v>4.661339218832361</v>
+        <v>1.026400581544053</v>
       </c>
       <c r="U10">
-        <v>3.60669405490872</v>
+        <v>1.026661566465094</v>
       </c>
       <c r="V10">
-        <v>2.974426175839592</v>
+        <v>1.027955028581597</v>
       </c>
       <c r="W10">
-        <v>2.867174136141506</v>
+        <v>1.022777992808721</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.077539416473931</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="D11">
-        <v>0.8736958324369203</v>
+        <v>1.014468768372825</v>
       </c>
       <c r="E11">
-        <v>1.312819694627136</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="F11">
-        <v>1.077539416473931</v>
+        <v>1.123261660699216</v>
       </c>
       <c r="G11">
-        <v>1.337662299705041</v>
+        <v>1.686178266967382</v>
       </c>
       <c r="H11">
-        <v>1.337662299704957</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="I11">
-        <v>1.337662299704957</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="J11">
-        <v>0.9735381498723993</v>
+        <v>1.097755002170258</v>
       </c>
       <c r="K11">
-        <v>1.150945335421396</v>
+        <v>1.065621598590228</v>
       </c>
       <c r="L11">
-        <v>1.040347869114696</v>
+        <v>1.105001541460698</v>
       </c>
       <c r="M11">
-        <v>0.9649432725331392</v>
+        <v>1.097102645740636</v>
       </c>
       <c r="N11">
-        <v>1.337662299704957</v>
+        <v>1.68617826696742</v>
       </c>
       <c r="O11">
-        <v>1.312819694627136</v>
+        <v>1.13647440188776</v>
       </c>
       <c r="P11">
-        <v>1.195179555550533</v>
+        <v>1.129868031293488</v>
       </c>
       <c r="Q11">
-        <v>1.143178922249768</v>
+        <v>1.11711470202901</v>
       </c>
       <c r="R11">
-        <v>1.242673803602008</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="S11">
-        <v>1.121299086991155</v>
+        <v>1.119163688252411</v>
       </c>
       <c r="T11">
-        <v>1.242673803602008</v>
+        <v>1.315304776518132</v>
       </c>
       <c r="U11">
-        <v>1.175389890169606</v>
+        <v>1.260917332931164</v>
       </c>
       <c r="V11">
-        <v>1.207844372076676</v>
+        <v>1.345969519738415</v>
       </c>
       <c r="W11">
-        <v>1.091436483773072</v>
+        <v>1.16573298573613</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7881507963573066</v>
+        <v>0.3990805751782115</v>
       </c>
       <c r="D12">
-        <v>0.8936110017246539</v>
+        <v>0.4575368546920344</v>
       </c>
       <c r="E12">
-        <v>2.944964303790573</v>
+        <v>13.13958242175579</v>
       </c>
       <c r="F12">
-        <v>0.7881507963573066</v>
+        <v>0.3990805751782115</v>
       </c>
       <c r="G12">
-        <v>0.8957762954179183</v>
+        <v>0.4453546595630543</v>
       </c>
       <c r="H12">
-        <v>0.8957762954179408</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="I12">
-        <v>0.8957762954179408</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="J12">
-        <v>0.8797976769428498</v>
+        <v>0.4427585631377953</v>
       </c>
       <c r="K12">
-        <v>0.9920023718870022</v>
+        <v>0.5609984529968453</v>
       </c>
       <c r="L12">
-        <v>1.954343529880533</v>
+        <v>7.067851933636023</v>
       </c>
       <c r="M12">
-        <v>0.8357725819314555</v>
+        <v>0.4242296281722702</v>
       </c>
       <c r="N12">
-        <v>0.8957762954179408</v>
+        <v>0.4453546595630808</v>
       </c>
       <c r="O12">
-        <v>2.944964303790573</v>
+        <v>13.13958242175579</v>
       </c>
       <c r="P12">
-        <v>1.86655755007394</v>
+        <v>6.769331498467002</v>
       </c>
       <c r="Q12">
-        <v>1.912380990366711</v>
+        <v>6.791170492446794</v>
       </c>
       <c r="R12">
-        <v>1.54296379852194</v>
+        <v>4.661339218832362</v>
       </c>
       <c r="S12">
-        <v>1.537637592363576</v>
+        <v>4.660473853357266</v>
       </c>
       <c r="T12">
-        <v>1.54296379852194</v>
+        <v>4.661339218832361</v>
       </c>
       <c r="U12">
-        <v>1.377172268127168</v>
+        <v>3.60669405490872</v>
       </c>
       <c r="V12">
-        <v>1.280893073585322</v>
+        <v>2.974426175839592</v>
       </c>
       <c r="W12">
-        <v>1.273052319741539</v>
+        <v>2.867174136141506</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.111874411127803</v>
+        <v>1.077539416473931</v>
       </c>
       <c r="D13">
-        <v>1.10169621435322</v>
+        <v>0.8736958324369203</v>
       </c>
       <c r="E13">
-        <v>1.023810868336495</v>
+        <v>1.312819694627136</v>
       </c>
       <c r="F13">
-        <v>1.111874411127803</v>
+        <v>1.077539416473931</v>
       </c>
       <c r="G13">
-        <v>0.9254708680309355</v>
+        <v>1.337662299705041</v>
       </c>
       <c r="H13">
-        <v>0.9254708680309358</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="I13">
-        <v>0.9254708680309358</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="J13">
-        <v>0.9828050236738821</v>
+        <v>0.9735381498723993</v>
       </c>
       <c r="K13">
-        <v>0.9421293605751482</v>
+        <v>1.150945335421396</v>
       </c>
       <c r="L13">
-        <v>1.02396714637614</v>
+        <v>1.040347869114696</v>
       </c>
       <c r="M13">
-        <v>1.126516474644453</v>
+        <v>0.9649432725331392</v>
       </c>
       <c r="N13">
-        <v>0.9254708680309358</v>
+        <v>1.337662299704957</v>
       </c>
       <c r="O13">
-        <v>1.023810868336495</v>
+        <v>1.312819694627136</v>
       </c>
       <c r="P13">
-        <v>1.067842639732149</v>
+        <v>1.195179555550533</v>
       </c>
       <c r="Q13">
-        <v>1.003307946005188</v>
+        <v>1.143178922249768</v>
       </c>
       <c r="R13">
-        <v>1.020385382498411</v>
+        <v>1.242673803602008</v>
       </c>
       <c r="S13">
-        <v>1.039496767712727</v>
+        <v>1.121299086991155</v>
       </c>
       <c r="T13">
-        <v>1.020385382498411</v>
+        <v>1.242673803602008</v>
       </c>
       <c r="U13">
-        <v>1.010990292792279</v>
+        <v>1.175389890169606</v>
       </c>
       <c r="V13">
-        <v>0.9938864078400103</v>
+        <v>1.207844372076676</v>
       </c>
       <c r="W13">
-        <v>1.02978379588976</v>
+        <v>1.091436483773072</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003486342899999996</v>
+        <v>0.7881507963573066</v>
       </c>
       <c r="D14">
-        <v>0.003768913600000003</v>
+        <v>0.8936110017246539</v>
       </c>
       <c r="E14">
-        <v>24.23206400000002</v>
+        <v>2.944964303790573</v>
       </c>
       <c r="F14">
-        <v>0.003486342899999996</v>
+        <v>0.7881507963573066</v>
       </c>
       <c r="G14">
-        <v>-0.003377850099999998</v>
+        <v>0.8957762954179183</v>
       </c>
       <c r="H14">
-        <v>-0.003377850099999998</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="I14">
-        <v>-0.003377850099999998</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="J14">
-        <v>-0.007459152600000006</v>
+        <v>0.8797976769428498</v>
       </c>
       <c r="K14">
-        <v>0.08685238600000006</v>
+        <v>0.9920023718870022</v>
       </c>
       <c r="L14">
-        <v>12.58644100000001</v>
+        <v>1.954343529880533</v>
       </c>
       <c r="M14">
-        <v>0.001306492199999999</v>
+        <v>0.8357725819314555</v>
       </c>
       <c r="N14">
-        <v>-0.003377850099999998</v>
+        <v>0.8957762954179408</v>
       </c>
       <c r="O14">
-        <v>24.23206400000002</v>
+        <v>2.944964303790573</v>
       </c>
       <c r="P14">
-        <v>12.11777517145001</v>
+        <v>1.86655755007394</v>
       </c>
       <c r="Q14">
-        <v>12.11230242370001</v>
+        <v>1.912380990366711</v>
       </c>
       <c r="R14">
-        <v>8.077390830933341</v>
+        <v>1.54296379852194</v>
       </c>
       <c r="S14">
-        <v>8.076030396766674</v>
+        <v>1.537637592363576</v>
       </c>
       <c r="T14">
-        <v>8.077390830933341</v>
+        <v>1.54296379852194</v>
       </c>
       <c r="U14">
-        <v>6.056178335050006</v>
+        <v>1.377172268127168</v>
       </c>
       <c r="V14">
-        <v>4.844267098020004</v>
+        <v>1.280893073585322</v>
       </c>
       <c r="W14">
-        <v>4.612885266500005</v>
+        <v>1.273052319741539</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0065327998</v>
+        <v>1.111874411127803</v>
       </c>
       <c r="D15">
-        <v>0.0051831993</v>
+        <v>1.10169621435322</v>
       </c>
       <c r="E15">
-        <v>0.0026242476</v>
+        <v>1.023810868336495</v>
       </c>
       <c r="F15">
-        <v>0.0065327998</v>
+        <v>1.111874411127803</v>
       </c>
       <c r="G15">
-        <v>36.364562</v>
+        <v>0.9254708680309355</v>
       </c>
       <c r="H15">
-        <v>36.364562</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="I15">
-        <v>36.364562</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="J15">
-        <v>-0.00045626094</v>
+        <v>0.9828050236738821</v>
       </c>
       <c r="K15">
-        <v>-3.7608893E-05</v>
+        <v>0.9421293605751482</v>
       </c>
       <c r="L15">
-        <v>13.368178</v>
+        <v>1.02396714637614</v>
       </c>
       <c r="M15">
-        <v>0.0014180531</v>
+        <v>1.126516474644453</v>
       </c>
       <c r="N15">
-        <v>36.364562</v>
+        <v>0.9254708680309358</v>
       </c>
       <c r="O15">
-        <v>0.0026242476</v>
+        <v>1.023810868336495</v>
       </c>
       <c r="P15">
-        <v>0.0045785237</v>
+        <v>1.067842639732149</v>
       </c>
       <c r="Q15">
-        <v>0.00108399333</v>
+        <v>1.003307946005188</v>
       </c>
       <c r="R15">
-        <v>12.1245730158</v>
+        <v>1.020385382498411</v>
       </c>
       <c r="S15">
-        <v>0.002900262153333333</v>
+        <v>1.039496767712727</v>
       </c>
       <c r="T15">
-        <v>12.1245730158</v>
+        <v>1.020385382498411</v>
       </c>
       <c r="U15">
-        <v>9.093315696614999</v>
+        <v>1.010990292792279</v>
       </c>
       <c r="V15">
-        <v>14.547564957292</v>
+        <v>0.9938864078400103</v>
       </c>
       <c r="W15">
-        <v>6.218500553745875</v>
+        <v>1.02978379588976</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0014647261</v>
+        <v>0.003486342899999996</v>
       </c>
       <c r="D16">
-        <v>0.0025153522</v>
+        <v>0.003768913600000003</v>
       </c>
       <c r="E16">
-        <v>24.232307</v>
+        <v>24.23206400000002</v>
       </c>
       <c r="F16">
-        <v>-0.0014647261</v>
+        <v>0.003486342899999996</v>
       </c>
       <c r="G16">
-        <v>36.350991</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="H16">
-        <v>36.350991</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="I16">
-        <v>36.350991</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="J16">
-        <v>-0.0014501527</v>
+        <v>-0.007459152600000006</v>
       </c>
       <c r="K16">
-        <v>0.49074247</v>
+        <v>0.08685238600000006</v>
       </c>
       <c r="L16">
-        <v>-0.0021292792</v>
+        <v>12.58644100000001</v>
       </c>
       <c r="M16">
-        <v>0.0024510638</v>
+        <v>0.001306492199999999</v>
       </c>
       <c r="N16">
-        <v>36.350991</v>
+        <v>-0.003377850099999998</v>
       </c>
       <c r="O16">
-        <v>24.232307</v>
+        <v>24.23206400000002</v>
       </c>
       <c r="P16">
-        <v>12.11542113695</v>
+        <v>12.11777517145001</v>
       </c>
       <c r="Q16">
-        <v>12.11542842365</v>
+        <v>12.11230242370001</v>
       </c>
       <c r="R16">
-        <v>20.19394442463333</v>
+        <v>8.077390830933341</v>
       </c>
       <c r="S16">
-        <v>8.076464040400001</v>
+        <v>8.076030396766674</v>
       </c>
       <c r="T16">
-        <v>20.19394442463333</v>
+        <v>8.077390830933341</v>
       </c>
       <c r="U16">
-        <v>15.1450957803</v>
+        <v>6.056178335050006</v>
       </c>
       <c r="V16">
-        <v>19.38627482424</v>
+        <v>4.844267098020004</v>
       </c>
       <c r="W16">
-        <v>7.634245341000001</v>
+        <v>4.612885266500005</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0021201239</v>
+        <v>0.0065327998</v>
       </c>
       <c r="D17">
-        <v>5.8177583</v>
+        <v>0.0051831993</v>
       </c>
       <c r="E17">
-        <v>0.0020580355</v>
+        <v>0.0026242476</v>
       </c>
       <c r="F17">
-        <v>0.0021201239</v>
+        <v>0.0065327998</v>
       </c>
       <c r="G17">
-        <v>9.720411299999998E-05</v>
+        <v>36.364562</v>
       </c>
       <c r="H17">
-        <v>9.720411199999999E-05</v>
+        <v>36.364562</v>
       </c>
       <c r="I17">
-        <v>9.720411199999999E-05</v>
+        <v>36.364562</v>
       </c>
       <c r="J17">
-        <v>0.12726812</v>
+        <v>-0.00045626094</v>
       </c>
       <c r="K17">
-        <v>0.018330701</v>
+        <v>-3.7608893E-05</v>
       </c>
       <c r="L17">
-        <v>12.120315</v>
+        <v>13.368178</v>
       </c>
       <c r="M17">
-        <v>-0.0048231194</v>
+        <v>0.0014180531</v>
       </c>
       <c r="N17">
-        <v>9.720411199999999E-05</v>
+        <v>36.364562</v>
       </c>
       <c r="O17">
-        <v>0.0020580355</v>
+        <v>0.0026242476</v>
       </c>
       <c r="P17">
-        <v>0.0020890797</v>
+        <v>0.0045785237</v>
       </c>
       <c r="Q17">
-        <v>0.06466307775000001</v>
+        <v>0.00108399333</v>
       </c>
       <c r="R17">
-        <v>0.001425121170666666</v>
+        <v>12.1245730158</v>
       </c>
       <c r="S17">
-        <v>0.04381542646666667</v>
+        <v>0.002900262153333333</v>
       </c>
       <c r="T17">
-        <v>0.001425121170666667</v>
+        <v>12.1245730158</v>
       </c>
       <c r="U17">
-        <v>0.032885870878</v>
+        <v>9.093315696614999</v>
       </c>
       <c r="V17">
-        <v>0.0263281375248</v>
+        <v>14.547564957292</v>
       </c>
       <c r="W17">
-        <v>2.260390545639</v>
+        <v>6.218500553745875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.490555404397096</v>
+        <v>-0.0014647261</v>
       </c>
       <c r="D18">
-        <v>1.301509098482466</v>
+        <v>0.0025153522</v>
       </c>
       <c r="E18">
-        <v>1.568651886766028</v>
+        <v>24.232307</v>
       </c>
       <c r="F18">
-        <v>1.490555404397096</v>
+        <v>-0.0014647261</v>
       </c>
       <c r="G18">
-        <v>6.818651216104107</v>
+        <v>36.350991</v>
       </c>
       <c r="H18">
-        <v>6.818651216104107</v>
+        <v>36.350991</v>
       </c>
       <c r="I18">
-        <v>6.818651216104107</v>
+        <v>36.350991</v>
       </c>
       <c r="J18">
-        <v>1.519688402551497</v>
+        <v>-0.0014501527</v>
       </c>
       <c r="K18">
-        <v>1.207800987214808</v>
+        <v>0.49074247</v>
       </c>
       <c r="L18">
-        <v>1.348567171463014</v>
+        <v>-0.0021292792</v>
       </c>
       <c r="M18">
-        <v>1.131920610870356</v>
+        <v>0.0024510638</v>
       </c>
       <c r="N18">
-        <v>6.818651216104107</v>
+        <v>36.350991</v>
       </c>
       <c r="O18">
-        <v>1.568651886766028</v>
+        <v>24.232307</v>
       </c>
       <c r="P18">
-        <v>1.529603645581562</v>
+        <v>12.11542113695</v>
       </c>
       <c r="Q18">
-        <v>1.544170144658762</v>
+        <v>12.11542842365</v>
       </c>
       <c r="R18">
-        <v>3.29261950242241</v>
+        <v>20.19394442463333</v>
       </c>
       <c r="S18">
-        <v>1.52629856457154</v>
+        <v>8.076464040400001</v>
       </c>
       <c r="T18">
-        <v>3.29261950242241</v>
+        <v>20.19394442463333</v>
       </c>
       <c r="U18">
-        <v>2.849386727454682</v>
+        <v>15.1450957803</v>
       </c>
       <c r="V18">
-        <v>3.643239625184567</v>
+        <v>19.38627482424</v>
       </c>
       <c r="W18">
-        <v>2.048418097231172</v>
+        <v>7.634245341000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.0007154360499999998</v>
+        <v>0.0021201239</v>
       </c>
       <c r="D19">
-        <v>1.439765959178947</v>
+        <v>5.8177583</v>
       </c>
       <c r="E19">
-        <v>4.561942531212633</v>
+        <v>0.0020580355</v>
       </c>
       <c r="F19">
-        <v>0.0007154360499999998</v>
+        <v>0.0021201239</v>
       </c>
       <c r="G19">
-        <v>2.712489603587526</v>
+        <v>9.720411299999998E-05</v>
       </c>
       <c r="H19">
-        <v>2.712489603587473</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="I19">
-        <v>2.712489603587473</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="J19">
-        <v>1.241506489702631</v>
+        <v>0.12726812</v>
       </c>
       <c r="K19">
-        <v>0.6358413865097368</v>
+        <v>0.018330701</v>
       </c>
       <c r="L19">
-        <v>1.91654952527158</v>
+        <v>12.120315</v>
       </c>
       <c r="M19">
-        <v>0.002665913105263158</v>
+        <v>-0.0048231194</v>
       </c>
       <c r="N19">
-        <v>2.712489603587473</v>
+        <v>9.720411199999999E-05</v>
       </c>
       <c r="O19">
-        <v>4.561942531212633</v>
+        <v>0.0020580355</v>
       </c>
       <c r="P19">
-        <v>2.281328983631317</v>
+        <v>0.0020890797</v>
       </c>
       <c r="Q19">
-        <v>2.901724510457632</v>
+        <v>0.06466307775000001</v>
       </c>
       <c r="R19">
-        <v>2.425049190283369</v>
+        <v>0.001425121170666666</v>
       </c>
       <c r="S19">
-        <v>1.934721485655088</v>
+        <v>0.04381542646666667</v>
       </c>
       <c r="T19">
-        <v>2.425049190283369</v>
+        <v>0.001425121170666667</v>
       </c>
       <c r="U19">
-        <v>2.129163515138185</v>
+        <v>0.032885870878</v>
       </c>
       <c r="V19">
-        <v>2.245828732828042</v>
+        <v>0.0263281375248</v>
       </c>
       <c r="W19">
-        <v>1.563934605577283</v>
+        <v>2.260390545639</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.433951839293684</v>
+        <v>1.490555404397096</v>
       </c>
       <c r="D20">
-        <v>0.3973237086721052</v>
+        <v>1.301509098482466</v>
       </c>
       <c r="E20">
-        <v>3.970252081465632</v>
+        <v>1.568651886766028</v>
       </c>
       <c r="F20">
-        <v>1.433951839293684</v>
+        <v>1.490555404397096</v>
       </c>
       <c r="G20">
-        <v>3.763980284148421</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="H20">
-        <v>3.763980284148421</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="I20">
-        <v>3.763980284148421</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="J20">
-        <v>1.004975474790527</v>
+        <v>1.519688402551497</v>
       </c>
       <c r="K20">
-        <v>1.99780471367721</v>
+        <v>1.207800987214808</v>
       </c>
       <c r="L20">
-        <v>2.918030343973685</v>
+        <v>1.348567171463014</v>
       </c>
       <c r="M20">
-        <v>0.9042906301021054</v>
+        <v>1.131920610870356</v>
       </c>
       <c r="N20">
-        <v>3.763980284148421</v>
+        <v>6.818651216104107</v>
       </c>
       <c r="O20">
-        <v>3.970252081465632</v>
+        <v>1.568651886766028</v>
       </c>
       <c r="P20">
-        <v>2.702101960379658</v>
+        <v>1.529603645581562</v>
       </c>
       <c r="Q20">
-        <v>2.487613778128079</v>
+        <v>1.544170144658762</v>
       </c>
       <c r="R20">
-        <v>3.056061401635913</v>
+        <v>3.29261950242241</v>
       </c>
       <c r="S20">
-        <v>2.136393131849948</v>
+        <v>1.52629856457154</v>
       </c>
       <c r="T20">
-        <v>3.056061401635913</v>
+        <v>3.29261950242241</v>
       </c>
       <c r="U20">
-        <v>2.543289919924566</v>
+        <v>2.849386727454682</v>
       </c>
       <c r="V20">
-        <v>2.787427992769337</v>
+        <v>3.643239625184567</v>
       </c>
       <c r="W20">
-        <v>2.048826134515422</v>
+        <v>2.048418097231172</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.0006555618276356246</v>
+        <v>0.0007154360499999998</v>
       </c>
       <c r="D21">
-        <v>1.578791647621019</v>
+        <v>1.439765959178947</v>
       </c>
       <c r="E21">
-        <v>1.556078684055316</v>
+        <v>4.561942531212633</v>
       </c>
       <c r="F21">
-        <v>-0.0006555618276356246</v>
+        <v>0.0007154360499999998</v>
       </c>
       <c r="G21">
-        <v>-0.001183448875224</v>
+        <v>2.712489603587526</v>
       </c>
       <c r="H21">
-        <v>-0.001183448874899454</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="I21">
-        <v>-0.001183448874899454</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="J21">
-        <v>0.4919357254895746</v>
+        <v>1.241506489702631</v>
       </c>
       <c r="K21">
-        <v>1.336379049002233</v>
+        <v>0.6358413865097368</v>
       </c>
       <c r="L21">
-        <v>1.322722078494317</v>
+        <v>1.91654952527158</v>
       </c>
       <c r="M21">
-        <v>0.8095485781418048</v>
+        <v>0.002665913105263158</v>
       </c>
       <c r="N21">
-        <v>-0.001183448874899454</v>
+        <v>2.712489603587473</v>
       </c>
       <c r="O21">
-        <v>1.556078684055316</v>
+        <v>4.561942531212633</v>
       </c>
       <c r="P21">
-        <v>0.77771156111384</v>
+        <v>2.281328983631317</v>
       </c>
       <c r="Q21">
-        <v>1.024007204772445</v>
+        <v>2.901724510457632</v>
       </c>
       <c r="R21">
-        <v>0.5180798911175936</v>
+        <v>2.425049190283369</v>
       </c>
       <c r="S21">
-        <v>0.6824529492390848</v>
+        <v>1.934721485655088</v>
       </c>
       <c r="T21">
-        <v>0.5180798911175936</v>
+        <v>2.425049190283369</v>
       </c>
       <c r="U21">
-        <v>0.5115438497105889</v>
+        <v>2.129163515138185</v>
       </c>
       <c r="V21">
-        <v>0.4089983899934911</v>
+        <v>2.245828732828042</v>
       </c>
       <c r="W21">
-        <v>0.8867020940127162</v>
+        <v>1.563934605577283</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.547537330760673</v>
+        <v>1.433951839293684</v>
       </c>
       <c r="D22">
-        <v>0.6236616683374028</v>
+        <v>0.3973237086721052</v>
       </c>
       <c r="E22">
-        <v>0.7748454085804234</v>
+        <v>3.970252081465632</v>
       </c>
       <c r="F22">
-        <v>2.547537330760673</v>
+        <v>1.433951839293684</v>
       </c>
       <c r="G22">
-        <v>0.5439270366634615</v>
+        <v>3.763980284148421</v>
       </c>
       <c r="H22">
-        <v>0.543927036663438</v>
+        <v>3.763980284148421</v>
       </c>
       <c r="I22">
-        <v>0.543927036663438</v>
+        <v>3.763980284148421</v>
       </c>
       <c r="J22">
-        <v>1.230134294454838</v>
+        <v>1.004975474790527</v>
       </c>
       <c r="K22">
-        <v>0.9002960613236162</v>
+        <v>1.99780471367721</v>
       </c>
       <c r="L22">
-        <v>1.087444563150505</v>
+        <v>2.918030343973685</v>
       </c>
       <c r="M22">
-        <v>1.400104085713833</v>
+        <v>0.9042906301021054</v>
       </c>
       <c r="N22">
-        <v>0.543927036663438</v>
+        <v>3.763980284148421</v>
       </c>
       <c r="O22">
-        <v>0.7748454085804234</v>
+        <v>3.970252081465632</v>
       </c>
       <c r="P22">
-        <v>1.661191369670548</v>
+        <v>2.702101960379658</v>
       </c>
       <c r="Q22">
-        <v>1.002489851517631</v>
+        <v>2.487613778128079</v>
       </c>
       <c r="R22">
-        <v>1.288769925334845</v>
+        <v>3.056061401635913</v>
       </c>
       <c r="S22">
-        <v>1.517505677931978</v>
+        <v>2.136393131849948</v>
       </c>
       <c r="T22">
-        <v>1.288769925334845</v>
+        <v>3.056061401635913</v>
       </c>
       <c r="U22">
-        <v>1.274111017614843</v>
+        <v>2.543289919924566</v>
       </c>
       <c r="V22">
-        <v>1.128074221424562</v>
+        <v>2.787427992769337</v>
       </c>
       <c r="W22">
-        <v>1.138493806123091</v>
+        <v>2.048826134515422</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.037685975882393</v>
+        <v>-0.0006555618276356246</v>
       </c>
       <c r="D23">
-        <v>0.8279155941611227</v>
+        <v>1.578791647621019</v>
       </c>
       <c r="E23">
-        <v>0.01382368003292261</v>
+        <v>1.556078684055316</v>
       </c>
       <c r="F23">
-        <v>2.037685975882393</v>
+        <v>-0.0006555618276356246</v>
       </c>
       <c r="G23">
-        <v>1.085103281104211</v>
+        <v>-0.001183448875224</v>
       </c>
       <c r="H23">
-        <v>1.085103281104211</v>
+        <v>-0.001183448874899454</v>
       </c>
       <c r="I23">
-        <v>1.085103281104211</v>
+        <v>-0.001183448874899454</v>
       </c>
       <c r="J23">
-        <v>1.110564842061191</v>
+        <v>0.4919357254895746</v>
       </c>
       <c r="K23">
-        <v>0.7990587933215533</v>
+        <v>1.336379049002233</v>
       </c>
       <c r="L23">
-        <v>1.516354569817135</v>
+        <v>1.322722078494317</v>
       </c>
       <c r="M23">
-        <v>1.431046782716954</v>
+        <v>0.8095485781418048</v>
       </c>
       <c r="N23">
-        <v>1.085103281104211</v>
+        <v>-0.001183448874899454</v>
       </c>
       <c r="O23">
-        <v>0.01382368003292261</v>
+        <v>1.556078684055316</v>
       </c>
       <c r="P23">
-        <v>1.025754827957658</v>
+        <v>0.77771156111384</v>
       </c>
       <c r="Q23">
-        <v>0.5621942610470569</v>
+        <v>1.024007204772445</v>
       </c>
       <c r="R23">
-        <v>1.045537645673176</v>
+        <v>0.5180798911175936</v>
       </c>
       <c r="S23">
-        <v>1.054024832658836</v>
+        <v>0.6824529492390848</v>
       </c>
       <c r="T23">
-        <v>1.045537645673176</v>
+        <v>0.5180798911175936</v>
       </c>
       <c r="U23">
-        <v>1.061794444770179</v>
+        <v>0.5115438497105889</v>
       </c>
       <c r="V23">
-        <v>1.066456212036986</v>
+        <v>0.4089983899934911</v>
       </c>
       <c r="W23">
-        <v>1.102694189887185</v>
+        <v>0.8867020940127162</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.362785987662189</v>
+        <v>2.547537330760673</v>
       </c>
       <c r="D24">
-        <v>0.9470081478523769</v>
+        <v>0.6236616683374028</v>
       </c>
       <c r="E24">
-        <v>1.324487853810829</v>
+        <v>0.7748454085804234</v>
       </c>
       <c r="F24">
-        <v>1.362785987662189</v>
+        <v>2.547537330760673</v>
       </c>
       <c r="G24">
-        <v>1.254952777912734</v>
+        <v>0.5439270366634615</v>
       </c>
       <c r="H24">
-        <v>1.254952777915119</v>
+        <v>0.543927036663438</v>
       </c>
       <c r="I24">
-        <v>1.254952777915119</v>
+        <v>0.543927036663438</v>
       </c>
       <c r="J24">
-        <v>0.9680895821962077</v>
+        <v>1.230134294454838</v>
       </c>
       <c r="K24">
-        <v>1.012327369603732</v>
+        <v>0.9002960613236162</v>
       </c>
       <c r="L24">
-        <v>0.6714741746258701</v>
+        <v>1.087444563150505</v>
       </c>
       <c r="M24">
-        <v>0.9906485925220474</v>
+        <v>1.400104085713833</v>
       </c>
       <c r="N24">
-        <v>1.254952777915119</v>
+        <v>0.543927036663438</v>
       </c>
       <c r="O24">
-        <v>1.324487853810829</v>
+        <v>0.7748454085804234</v>
       </c>
       <c r="P24">
-        <v>1.343636920736509</v>
+        <v>1.661191369670548</v>
       </c>
       <c r="Q24">
-        <v>1.146288718003518</v>
+        <v>1.002489851517631</v>
       </c>
       <c r="R24">
-        <v>1.314075539796046</v>
+        <v>1.288769925334845</v>
       </c>
       <c r="S24">
-        <v>1.218454474556409</v>
+        <v>1.517505677931978</v>
       </c>
       <c r="T24">
-        <v>1.314075539796046</v>
+        <v>1.288769925334845</v>
       </c>
       <c r="U24">
-        <v>1.227579050396086</v>
+        <v>1.274111017614843</v>
       </c>
       <c r="V24">
-        <v>1.233053795899893</v>
+        <v>1.128074221424562</v>
       </c>
       <c r="W24">
-        <v>1.066471810773546</v>
+        <v>1.138493806123091</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8605320423641449</v>
+        <v>2.037685975882393</v>
       </c>
       <c r="D25">
-        <v>0.12335978992048</v>
+        <v>0.8279155941611227</v>
       </c>
       <c r="E25">
-        <v>0.06390024745124458</v>
+        <v>0.01382368003292261</v>
       </c>
       <c r="F25">
-        <v>0.8605320423641449</v>
+        <v>2.037685975882393</v>
       </c>
       <c r="G25">
-        <v>1.8881458927776</v>
+        <v>1.085103281104211</v>
       </c>
       <c r="H25">
-        <v>1.8881458927776</v>
+        <v>1.085103281104211</v>
       </c>
       <c r="I25">
-        <v>1.8881458927776</v>
+        <v>1.085103281104211</v>
       </c>
       <c r="J25">
-        <v>0.9054708177737485</v>
+        <v>1.110564842061191</v>
       </c>
       <c r="K25">
-        <v>0.7722404256841262</v>
+        <v>0.7990587933215533</v>
       </c>
       <c r="L25">
-        <v>0.7450330594550122</v>
+        <v>1.516354569817135</v>
       </c>
       <c r="M25">
-        <v>1.000818842196958</v>
+        <v>1.431046782716954</v>
       </c>
       <c r="N25">
-        <v>1.8881458927776</v>
+        <v>1.085103281104211</v>
       </c>
       <c r="O25">
-        <v>0.06390024745124458</v>
+        <v>0.01382368003292261</v>
       </c>
       <c r="P25">
-        <v>0.4622161449076947</v>
+        <v>1.025754827957658</v>
       </c>
       <c r="Q25">
-        <v>0.4846855326124965</v>
+        <v>0.5621942610470569</v>
       </c>
       <c r="R25">
-        <v>0.9375260608643298</v>
+        <v>1.045537645673176</v>
       </c>
       <c r="S25">
-        <v>0.6099677025297127</v>
+        <v>1.054024832658836</v>
       </c>
       <c r="T25">
-        <v>0.9375260608643298</v>
+        <v>1.045537645673176</v>
       </c>
       <c r="U25">
-        <v>0.9295122500916845</v>
+        <v>1.061794444770179</v>
       </c>
       <c r="V25">
-        <v>1.121238978628867</v>
+        <v>1.066456212036986</v>
       </c>
       <c r="W25">
-        <v>0.7949376397029142</v>
+        <v>1.102694189887185</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.6577703392706956</v>
+        <v>1.362785987662189</v>
       </c>
       <c r="D26">
-        <v>1.860342434692149</v>
+        <v>0.9470081478523769</v>
       </c>
       <c r="E26">
-        <v>0.9878800802984476</v>
+        <v>1.324487853810829</v>
       </c>
       <c r="F26">
-        <v>0.6577703392706956</v>
+        <v>1.362785987662189</v>
       </c>
       <c r="G26">
-        <v>0.3902687215950561</v>
+        <v>1.254952777912734</v>
       </c>
       <c r="H26">
-        <v>0.390268721594519</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="I26">
-        <v>0.390268721594519</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="J26">
-        <v>2.01624150211116</v>
+        <v>0.9680895821962077</v>
       </c>
       <c r="K26">
-        <v>0.7849830130392492</v>
+        <v>1.012327369603732</v>
       </c>
       <c r="L26">
-        <v>0.3376470491469185</v>
+        <v>0.6714741746258701</v>
       </c>
       <c r="M26">
-        <v>0.6437234002505205</v>
+        <v>0.9906485925220474</v>
       </c>
       <c r="N26">
-        <v>0.390268721594519</v>
+        <v>1.254952777915119</v>
       </c>
       <c r="O26">
-        <v>0.9878800802984476</v>
+        <v>1.324487853810829</v>
       </c>
       <c r="P26">
-        <v>0.8228252097845716</v>
+        <v>1.343636920736509</v>
       </c>
       <c r="Q26">
-        <v>1.502060791204804</v>
+        <v>1.146288718003518</v>
       </c>
       <c r="R26">
-        <v>0.6786397137212208</v>
+        <v>1.314075539796046</v>
       </c>
       <c r="S26">
-        <v>1.220630640560101</v>
+        <v>1.218454474556409</v>
       </c>
       <c r="T26">
-        <v>0.6786397137212208</v>
+        <v>1.314075539796046</v>
       </c>
       <c r="U26">
-        <v>1.013040160818706</v>
+        <v>1.227579050396086</v>
       </c>
       <c r="V26">
-        <v>0.8884858729738683</v>
+        <v>1.233053795899893</v>
       </c>
       <c r="W26">
-        <v>0.9598570675504575</v>
+        <v>1.066471810773546</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>3.107381523293884</v>
+        <v>0.8605320423641449</v>
       </c>
       <c r="D27">
-        <v>0.6843312168910993</v>
+        <v>0.12335978992048</v>
       </c>
       <c r="E27">
-        <v>4.023062719719338</v>
+        <v>0.06390024745124458</v>
       </c>
       <c r="F27">
-        <v>3.107381523293884</v>
+        <v>0.8605320423641449</v>
       </c>
       <c r="G27">
-        <v>0.2108048019119417</v>
+        <v>1.8881458927776</v>
       </c>
       <c r="H27">
-        <v>0.2108048019119417</v>
+        <v>1.8881458927776</v>
       </c>
       <c r="I27">
-        <v>0.2108048019119417</v>
+        <v>1.8881458927776</v>
       </c>
       <c r="J27">
-        <v>1.328042165013392</v>
+        <v>0.9054708177737485</v>
       </c>
       <c r="K27">
-        <v>1.416219315389593</v>
+        <v>0.7722404256841262</v>
       </c>
       <c r="L27">
-        <v>3.28671340537788</v>
+        <v>0.7450330594550122</v>
       </c>
       <c r="M27">
-        <v>0.3185482963936344</v>
+        <v>1.000818842196958</v>
       </c>
       <c r="N27">
-        <v>0.2108048019119417</v>
+        <v>1.8881458927776</v>
       </c>
       <c r="O27">
-        <v>4.023062719719338</v>
+        <v>0.06390024745124458</v>
       </c>
       <c r="P27">
-        <v>3.565222121506611</v>
+        <v>0.4622161449076947</v>
       </c>
       <c r="Q27">
-        <v>2.675552442366365</v>
+        <v>0.4846855326124965</v>
       </c>
       <c r="R27">
-        <v>2.447083014975055</v>
+        <v>0.9375260608643298</v>
       </c>
       <c r="S27">
-        <v>2.819495469342205</v>
+        <v>0.6099677025297127</v>
       </c>
       <c r="T27">
-        <v>2.447083014975055</v>
+        <v>0.9375260608643298</v>
       </c>
       <c r="U27">
-        <v>2.167322802484639</v>
+        <v>0.9295122500916845</v>
       </c>
       <c r="V27">
-        <v>1.7760192023701</v>
+        <v>1.121238978628867</v>
       </c>
       <c r="W27">
-        <v>1.796887930498845</v>
+        <v>0.7949376397029142</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9008651933117511</v>
+        <v>0.6577703392706956</v>
       </c>
       <c r="D28">
-        <v>1.676059180364491</v>
+        <v>1.860342434692149</v>
       </c>
       <c r="E28">
-        <v>1.36262088208496</v>
+        <v>0.9878800802984476</v>
       </c>
       <c r="F28">
-        <v>0.9008651933117511</v>
+        <v>0.6577703392706956</v>
       </c>
       <c r="G28">
-        <v>1.918830720105829</v>
+        <v>0.3902687215950561</v>
       </c>
       <c r="H28">
-        <v>1.918830720104956</v>
+        <v>0.390268721594519</v>
       </c>
       <c r="I28">
-        <v>1.918830720104956</v>
+        <v>0.390268721594519</v>
       </c>
       <c r="J28">
-        <v>0.860054184686283</v>
+        <v>2.01624150211116</v>
       </c>
       <c r="K28">
-        <v>1.61023862464205</v>
+        <v>0.7849830130392492</v>
       </c>
       <c r="L28">
-        <v>1.722828461277409</v>
+        <v>0.3376470491469185</v>
       </c>
       <c r="M28">
-        <v>1.40602723515503</v>
+        <v>0.6437234002505205</v>
       </c>
       <c r="N28">
-        <v>1.918830720104956</v>
+        <v>0.390268721594519</v>
       </c>
       <c r="O28">
-        <v>1.36262088208496</v>
+        <v>0.9878800802984476</v>
       </c>
       <c r="P28">
-        <v>1.131743037698355</v>
+        <v>0.8228252097845716</v>
       </c>
       <c r="Q28">
-        <v>1.111337533385621</v>
+        <v>1.502060791204804</v>
       </c>
       <c r="R28">
-        <v>1.394105598500555</v>
+        <v>0.6786397137212208</v>
       </c>
       <c r="S28">
-        <v>1.041180086694331</v>
+        <v>1.220630640560101</v>
       </c>
       <c r="T28">
-        <v>1.394105598500555</v>
+        <v>0.6786397137212208</v>
       </c>
       <c r="U28">
-        <v>1.260592745046987</v>
+        <v>1.013040160818706</v>
       </c>
       <c r="V28">
-        <v>1.392240340058581</v>
+        <v>0.8884858729738683</v>
       </c>
       <c r="W28">
-        <v>1.432190560203366</v>
+        <v>0.9598570675504575</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>3.107381523293884</v>
+      </c>
+      <c r="D29">
+        <v>0.6843312168910993</v>
+      </c>
+      <c r="E29">
+        <v>4.023062719719338</v>
+      </c>
+      <c r="F29">
+        <v>3.107381523293884</v>
+      </c>
+      <c r="G29">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="H29">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="I29">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="J29">
+        <v>1.328042165013392</v>
+      </c>
+      <c r="K29">
+        <v>1.416219315389593</v>
+      </c>
+      <c r="L29">
+        <v>3.28671340537788</v>
+      </c>
+      <c r="M29">
+        <v>0.3185482963936344</v>
+      </c>
+      <c r="N29">
+        <v>0.2108048019119417</v>
+      </c>
+      <c r="O29">
+        <v>4.023062719719338</v>
+      </c>
+      <c r="P29">
+        <v>3.565222121506611</v>
+      </c>
+      <c r="Q29">
+        <v>2.675552442366365</v>
+      </c>
+      <c r="R29">
+        <v>2.447083014975055</v>
+      </c>
+      <c r="S29">
+        <v>2.819495469342205</v>
+      </c>
+      <c r="T29">
+        <v>2.447083014975055</v>
+      </c>
+      <c r="U29">
+        <v>2.167322802484639</v>
+      </c>
+      <c r="V29">
+        <v>1.7760192023701</v>
+      </c>
+      <c r="W29">
+        <v>1.796887930498845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9008651933117511</v>
+      </c>
+      <c r="D30">
+        <v>1.676059180364491</v>
+      </c>
+      <c r="E30">
+        <v>1.36262088208496</v>
+      </c>
+      <c r="F30">
+        <v>0.9008651933117511</v>
+      </c>
+      <c r="G30">
+        <v>1.918830720105829</v>
+      </c>
+      <c r="H30">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="I30">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="J30">
+        <v>0.860054184686283</v>
+      </c>
+      <c r="K30">
+        <v>1.61023862464205</v>
+      </c>
+      <c r="L30">
+        <v>1.722828461277409</v>
+      </c>
+      <c r="M30">
+        <v>1.40602723515503</v>
+      </c>
+      <c r="N30">
+        <v>1.918830720104956</v>
+      </c>
+      <c r="O30">
+        <v>1.36262088208496</v>
+      </c>
+      <c r="P30">
+        <v>1.131743037698355</v>
+      </c>
+      <c r="Q30">
+        <v>1.111337533385621</v>
+      </c>
+      <c r="R30">
+        <v>1.394105598500555</v>
+      </c>
+      <c r="S30">
+        <v>1.041180086694331</v>
+      </c>
+      <c r="T30">
+        <v>1.394105598500555</v>
+      </c>
+      <c r="U30">
+        <v>1.260592745046987</v>
+      </c>
+      <c r="V30">
+        <v>1.392240340058581</v>
+      </c>
+      <c r="W30">
+        <v>1.432190560203366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.6910486152269546</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.197472418730094</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>-0.001673141195816055</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.6910486152269546</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.0008599192962644495</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.000859919294299211</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.000859919294299211</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.212480218680249</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.432754293932653</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>3.227596291717687</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.104033482220994</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.000859919294299211</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>-0.001673141195816055</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.3446877370155693</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.6054035387422166</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.2300784644418126</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6339518975704626</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.2300784644418126</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.4756789030014217</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.3807151062599973</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.233071512325889</v>
       </c>
     </row>
